--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Element</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Stream-biodiesel</t>
   </si>
   <si>
+    <t>Stream-natural gas</t>
+  </si>
+  <si>
     <t>biorefinery</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
   </si>
   <si>
     <t>Electricity price [USD/kWh]</t>
@@ -428,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,55 +481,55 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.1501178101178101</v>
+        <v>0.729936813936814</v>
       </c>
       <c r="D4">
-        <v>0.9459656139656141</v>
+        <v>0.7945965025965027</v>
       </c>
       <c r="E4">
-        <v>0.9414051294051295</v>
+        <v>0.776927432927433</v>
       </c>
       <c r="F4">
-        <v>-0.9989657549657549</v>
+        <v>-0.9939877059877059</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.1197030597030597</v>
+        <v>0.1514114594114594</v>
       </c>
       <c r="D5">
-        <v>0.02516089316089316</v>
+        <v>0.06120524520524521</v>
       </c>
       <c r="E5">
-        <v>0.02677892677892678</v>
+        <v>0.06061266061266062</v>
       </c>
       <c r="F5">
-        <v>0.05124215124215125</v>
+        <v>-0.02250547050547051</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>-0.08789984789984791</v>
+        <v>0.4820729060729061</v>
       </c>
       <c r="D6">
-        <v>0.3046250566250566</v>
+        <v>0.5471493791493791</v>
       </c>
       <c r="E6">
-        <v>0.316932568932569</v>
+        <v>0.5697923577923578</v>
       </c>
       <c r="F6">
-        <v>-0.03500509100509101</v>
+        <v>0.1211601491601492</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -531,19 +537,19 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.6602680442680444</v>
+        <v>0.08503108903108904</v>
       </c>
       <c r="D7">
-        <v>-0.03879038679038679</v>
+        <v>0.04432156432156432</v>
       </c>
       <c r="E7">
-        <v>-0.03885104685104685</v>
+        <v>0.04442834042834043</v>
       </c>
       <c r="F7">
-        <v>0.03521554721554722</v>
+        <v>-0.03448671448671448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -551,19 +557,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.1551646071646072</v>
+        <v>-0.05147163947163947</v>
       </c>
       <c r="D8">
-        <v>0.01883161883161883</v>
+        <v>-0.04215713415713416</v>
       </c>
       <c r="E8">
-        <v>0.01831813831813832</v>
+        <v>-0.04291465891465892</v>
       </c>
       <c r="F8">
-        <v>-0.03498994698994699</v>
+        <v>0.02514200514200514</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -571,62 +577,82 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>-0.01135717135717136</v>
+        <v>0.3675268275268275</v>
       </c>
       <c r="D9">
-        <v>0.02192812592812593</v>
+        <v>-0.01864434664434665</v>
       </c>
       <c r="E9">
-        <v>0.02253279453279454</v>
+        <v>-0.01982932382932383</v>
       </c>
       <c r="F9">
-        <v>-0.01133541533541534</v>
+        <v>-0.0008835728835728836</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.2776852696852697</v>
+        <v>-0.005847797847797848</v>
       </c>
       <c r="D10">
-        <v>-0.0607939807939808</v>
+        <v>-0.006176706176706178</v>
       </c>
       <c r="E10">
-        <v>-0.06103233703233704</v>
+        <v>-0.006791718791718792</v>
       </c>
       <c r="F10">
-        <v>0.04980400980400981</v>
+        <v>0.01357959757959758</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>-0.6264431304431305</v>
+        <v>0.05593863193863193</v>
       </c>
       <c r="D11">
-        <v>0.00793881193881194</v>
+        <v>0.04639001839001839</v>
       </c>
       <c r="E11">
-        <v>0.00799915999916</v>
+        <v>0.04568619368619369</v>
       </c>
       <c r="F11">
-        <v>-0.01447349047349047</v>
+        <v>-0.0670974790974791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.03816187416187417</v>
+      </c>
+      <c r="D12">
+        <v>0.07230211230211231</v>
+      </c>
+      <c r="E12">
+        <v>0.07114871914871916</v>
+      </c>
+      <c r="F12">
+        <v>-0.08064959664959664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -28,15 +28,24 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
+    <t>Biodiesel production [gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
+  </si>
+  <si>
+    <t>Productivity [GGE/ton]</t>
+  </si>
+  <si>
     <t>TCI [10^6*USD]</t>
   </si>
   <si>
-    <t>Installed equipment cost [10^6*USD]</t>
-  </si>
-  <si>
-    <t>Productivity [GGE/ton]</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -55,6 +64,12 @@
     <t>biorefinery</t>
   </si>
   <si>
+    <t>Fermentation</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
     <t>Lipid content [dry wt. %]</t>
   </si>
   <si>
@@ -77,6 +92,9 @@
   </si>
   <si>
     <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Solids loading [%]</t>
   </si>
 </sst>
 </file>
@@ -434,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +468,11 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,192 +488,305 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.729936813936814</v>
+        <v>0.3163286563286563</v>
       </c>
       <c r="D4">
-        <v>0.7945965025965027</v>
+        <v>-0.02872986472986473</v>
       </c>
       <c r="E4">
-        <v>0.776927432927433</v>
-      </c>
-      <c r="F4">
-        <v>-0.9939877059877059</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04700987900987901</v>
+      </c>
+      <c r="G4">
+        <v>-0.04001071601071601</v>
+      </c>
+      <c r="H4">
+        <v>0.03908237108237109</v>
+      </c>
+      <c r="I4">
+        <v>0.9967169287169289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.1514114594114594</v>
+        <v>0.06976460176460177</v>
       </c>
       <c r="D5">
-        <v>0.06120524520524521</v>
+        <v>0.9953876873876875</v>
       </c>
       <c r="E5">
-        <v>0.06061266061266062</v>
-      </c>
-      <c r="F5">
-        <v>-0.02250547050547051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-0.9976777576777578</v>
+      </c>
+      <c r="G5">
+        <v>-0.4032710712710713</v>
+      </c>
+      <c r="H5">
+        <v>0.684900708900709</v>
+      </c>
+      <c r="I5">
+        <v>0.006473754473754474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0.04147754947754948</v>
+      </c>
+      <c r="D6">
+        <v>0.1411512091512092</v>
+      </c>
+      <c r="E6">
+        <v>-0.04988395388395388</v>
+      </c>
+      <c r="G6">
+        <v>-0.008233280233280233</v>
+      </c>
+      <c r="H6">
+        <v>0.0966000606000606</v>
+      </c>
+      <c r="I6">
+        <v>-0.0007583527583527584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.04855642855642855</v>
+      </c>
+      <c r="D7">
+        <v>0.02960737760737761</v>
+      </c>
+      <c r="E7">
+        <v>-0.02753672753672754</v>
+      </c>
+      <c r="G7">
+        <v>-0.04411784011784012</v>
+      </c>
+      <c r="H7">
+        <v>0.05242366042366042</v>
+      </c>
+      <c r="I7">
+        <v>0.0941010101010101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0.8766970446970447</v>
+      </c>
+      <c r="D8">
+        <v>0.008667200667200668</v>
+      </c>
+      <c r="E8">
+        <v>-0.006957246957246958</v>
+      </c>
+      <c r="G8">
+        <v>-0.02732083532083532</v>
+      </c>
+      <c r="H8">
+        <v>0.01061200661200661</v>
+      </c>
+      <c r="I8">
+        <v>-0.01269193269193269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.154976194976195</v>
+      </c>
+      <c r="D9">
+        <v>0.002833742833742834</v>
+      </c>
+      <c r="E9">
+        <v>-0.003801363801363802</v>
+      </c>
+      <c r="G9">
+        <v>-0.0222015582015582</v>
+      </c>
+      <c r="H9">
+        <v>0.00761944361944362</v>
+      </c>
+      <c r="I9">
+        <v>0.006175686175686176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>-0.07286857286857287</v>
+      </c>
+      <c r="D10">
+        <v>0.06014122814122813</v>
+      </c>
+      <c r="E10">
+        <v>-0.06176630576630577</v>
+      </c>
+      <c r="G10">
+        <v>0.01970781170781171</v>
+      </c>
+      <c r="H10">
+        <v>0.02115897315897316</v>
+      </c>
+      <c r="I10">
+        <v>-0.006134094134094135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
-        <v>0.4820729060729061</v>
-      </c>
-      <c r="D6">
-        <v>0.5471493791493791</v>
-      </c>
-      <c r="E6">
-        <v>0.5697923577923578</v>
-      </c>
-      <c r="F6">
-        <v>0.1211601491601492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0.08503108903108904</v>
-      </c>
-      <c r="D7">
-        <v>0.04432156432156432</v>
-      </c>
-      <c r="E7">
-        <v>0.04442834042834043</v>
-      </c>
-      <c r="F7">
-        <v>-0.03448671448671448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>-0.05147163947163947</v>
-      </c>
-      <c r="D8">
-        <v>-0.04215713415713416</v>
-      </c>
-      <c r="E8">
-        <v>-0.04291465891465892</v>
-      </c>
-      <c r="F8">
-        <v>0.02514200514200514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.3675268275268275</v>
-      </c>
-      <c r="D9">
-        <v>-0.01864434664434665</v>
-      </c>
-      <c r="E9">
-        <v>-0.01982932382932383</v>
-      </c>
-      <c r="F9">
-        <v>-0.0008835728835728836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>-0.005847797847797848</v>
-      </c>
-      <c r="D10">
-        <v>-0.006176706176706178</v>
-      </c>
-      <c r="E10">
-        <v>-0.006791718791718792</v>
-      </c>
-      <c r="F10">
-        <v>0.01357959757959758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0.05593863193863193</v>
+        <v>-0.0007288327288327289</v>
       </c>
       <c r="D11">
-        <v>0.04639001839001839</v>
+        <v>0.05085654285654286</v>
       </c>
       <c r="E11">
-        <v>0.04568619368619369</v>
-      </c>
-      <c r="F11">
-        <v>-0.0670974790974791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.05529893529893531</v>
+      </c>
+      <c r="G11">
+        <v>-0.01543832743832744</v>
+      </c>
+      <c r="H11">
+        <v>0.02465096465096465</v>
+      </c>
+      <c r="I11">
+        <v>0.03085393885393885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.03816187416187417</v>
+        <v>0.1604222204222204</v>
       </c>
       <c r="D12">
-        <v>0.07230211230211231</v>
+        <v>-0.01823308223308224</v>
       </c>
       <c r="E12">
-        <v>0.07114871914871916</v>
-      </c>
-      <c r="F12">
-        <v>-0.08064959664959664</v>
+        <v>0.02448482448482448</v>
+      </c>
+      <c r="G12">
+        <v>-0.4147468027468028</v>
+      </c>
+      <c r="H12">
+        <v>0.007761871761871763</v>
+      </c>
+      <c r="I12">
+        <v>0.0013995853995854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>-0.2025939225939226</v>
+      </c>
+      <c r="D13">
+        <v>0.02124972924972925</v>
+      </c>
+      <c r="E13">
+        <v>-0.02436459636459637</v>
+      </c>
+      <c r="G13">
+        <v>-0.0135933975933976</v>
+      </c>
+      <c r="H13">
+        <v>0.02224570624570624</v>
+      </c>
+      <c r="I13">
+        <v>-0.03832383832383832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0.07960401160401161</v>
+      </c>
+      <c r="D14">
+        <v>-0.05859044259044259</v>
+      </c>
+      <c r="E14">
+        <v>0.05808652608652609</v>
+      </c>
+      <c r="G14">
+        <v>-0.775008499008499</v>
+      </c>
+      <c r="H14">
+        <v>0.6552268992268994</v>
+      </c>
+      <c r="I14">
+        <v>-0.013002685002685</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -28,24 +28,27 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Ethanol production [gal/ton]</t>
-  </si>
-  <si>
-    <t>Electricity production [kWhr/ton]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [cf/ton]</t>
-  </si>
-  <si>
-    <t>Productivity [GGE/ton]</t>
+    <t>Biodiesel production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Ethanol production [MMGal/yr]</t>
+  </si>
+  <si>
+    <t>Electricity production [MMWhr/yr]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [MMcf/yr]</t>
+  </si>
+  <si>
+    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
   </si>
   <si>
+    <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -64,21 +67,18 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Fermentation</t>
+    <t>Lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Additional lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
-  </si>
-  <si>
-    <t>Efficiency [%]</t>
-  </si>
-  <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Solids loading [%]</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +468,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,294 +495,301 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.3163286563286563</v>
+        <v>0.1529719852548794</v>
       </c>
       <c r="D4">
-        <v>-0.02872986472986473</v>
+        <v>0.9692952417478096</v>
       </c>
       <c r="E4">
-        <v>0.04700987900987901</v>
+        <v>-0.6891081906363276</v>
       </c>
       <c r="G4">
-        <v>-0.04001071601071601</v>
+        <v>-0.8777052254122089</v>
       </c>
       <c r="H4">
-        <v>0.03908237108237109</v>
+        <v>0.5872650572826023</v>
       </c>
       <c r="I4">
-        <v>0.9967169287169289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.3733875746475029</v>
+      </c>
+      <c r="J4">
+        <v>0.8363136114667618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.06976460176460177</v>
+        <v>-0.01558384075135363</v>
       </c>
       <c r="D5">
-        <v>0.9953876873876875</v>
+        <v>0.0001386908215476328</v>
       </c>
       <c r="E5">
-        <v>-0.9976777576777578</v>
+        <v>0.004659716730388668</v>
       </c>
       <c r="G5">
-        <v>-0.4032710712710713</v>
+        <v>0.004156849414273977</v>
       </c>
       <c r="H5">
-        <v>0.684900708900709</v>
+        <v>0.001202094576083783</v>
       </c>
       <c r="I5">
-        <v>0.006473754473754474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.01586069861842794</v>
+      </c>
+      <c r="J5">
+        <v>0.004601810299496158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.04147754947754948</v>
+        <v>0.03625086644203465</v>
       </c>
       <c r="D6">
-        <v>0.1411512091512092</v>
+        <v>0.04710816447632658</v>
       </c>
       <c r="E6">
-        <v>-0.04988395388395388</v>
+        <v>-0.002926963029078521</v>
       </c>
       <c r="G6">
-        <v>-0.008233280233280233</v>
+        <v>0.05862890634515625</v>
       </c>
       <c r="H6">
-        <v>0.0966000606000606</v>
+        <v>0.01933925798957032</v>
       </c>
       <c r="I6">
-        <v>-0.0007583527583527584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.007594343631773744</v>
+      </c>
+      <c r="J6">
+        <v>-0.01087775847520339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.04855642855642855</v>
+        <v>0.0804326726893069</v>
       </c>
       <c r="D7">
-        <v>0.02960737760737761</v>
+        <v>0.1706032100241284</v>
       </c>
       <c r="E7">
-        <v>-0.02753672753672754</v>
+        <v>0.5662937319317493</v>
       </c>
       <c r="G7">
-        <v>-0.04411784011784012</v>
+        <v>-0.09132257750890309</v>
       </c>
       <c r="H7">
-        <v>0.05242366042366042</v>
+        <v>0.7044170071206801</v>
       </c>
       <c r="I7">
-        <v>0.0941010101010101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.9179981095199241</v>
+      </c>
+      <c r="J7">
+        <v>0.129208128128456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.8766970446970447</v>
+        <v>0.8479121154524845</v>
       </c>
       <c r="D8">
-        <v>0.008667200667200668</v>
+        <v>0.0005414165976566638</v>
       </c>
       <c r="E8">
-        <v>-0.006957246957246958</v>
+        <v>-0.02024814954592598</v>
       </c>
       <c r="G8">
-        <v>-0.02732083532083532</v>
+        <v>-0.01129575299583012</v>
       </c>
       <c r="H8">
-        <v>0.01061200661200661</v>
+        <v>-0.01771302445252098</v>
       </c>
       <c r="I8">
-        <v>-0.01269193269193269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.02237395174295807</v>
+      </c>
+      <c r="J8">
+        <v>0.006662663695463571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.154976194976195</v>
+        <v>0.3355343397893736</v>
       </c>
       <c r="D9">
-        <v>0.002833742833742834</v>
+        <v>-0.008301011948040476</v>
       </c>
       <c r="E9">
-        <v>-0.003801363801363802</v>
+        <v>0.01556498606259944</v>
       </c>
       <c r="G9">
-        <v>-0.0222015582015582</v>
+        <v>0.007315422916616915</v>
       </c>
       <c r="H9">
-        <v>0.00761944361944362</v>
+        <v>-0.0002317522652700906</v>
       </c>
       <c r="I9">
-        <v>0.006175686175686176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.001721262884850515</v>
+      </c>
+      <c r="J9">
+        <v>-0.0102886266111998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.07286857286857287</v>
+        <v>-0.008654710522188419</v>
       </c>
       <c r="D10">
-        <v>0.06014122814122813</v>
+        <v>0.006022146672885866</v>
       </c>
       <c r="E10">
-        <v>-0.06176630576630577</v>
+        <v>-0.0106797724271909</v>
       </c>
       <c r="G10">
-        <v>0.01970781170781171</v>
+        <v>-0.0008984959079398362</v>
       </c>
       <c r="H10">
-        <v>0.02115897315897316</v>
+        <v>-0.006352999742119988</v>
       </c>
       <c r="I10">
-        <v>-0.006134094134094135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.01553317540532701</v>
+      </c>
+      <c r="J10">
+        <v>-0.009339791804540476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.0007288327288327289</v>
+        <v>-0.03648181797127271</v>
       </c>
       <c r="D11">
-        <v>0.05085654285654286</v>
+        <v>0.0002448177697927107</v>
       </c>
       <c r="E11">
-        <v>-0.05529893529893531</v>
+        <v>-0.002838362705534508</v>
       </c>
       <c r="G11">
-        <v>-0.01543832743832744</v>
+        <v>-0.003835427577417102</v>
       </c>
       <c r="H11">
-        <v>0.02465096465096465</v>
+        <v>-0.0007139766045590642</v>
       </c>
       <c r="I11">
-        <v>0.03085393885393885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.00229044076361763</v>
+      </c>
+      <c r="J11">
+        <v>0.01858180405309702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1604222204222204</v>
+        <v>0.1265808097672324</v>
       </c>
       <c r="D12">
-        <v>-0.01823308223308224</v>
+        <v>0.1646865822354633</v>
       </c>
       <c r="E12">
-        <v>0.02448482448482448</v>
+        <v>0.4111203164448126</v>
       </c>
       <c r="G12">
-        <v>-0.4147468027468028</v>
+        <v>0.3875048927481957</v>
       </c>
       <c r="H12">
-        <v>0.007761871761871763</v>
+        <v>0.3607830423673216</v>
       </c>
       <c r="I12">
-        <v>0.0013995853995854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.01017872699914908</v>
+      </c>
+      <c r="J12">
+        <v>0.02245004697870471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2025939225939226</v>
+        <v>-0.2608760032990401</v>
       </c>
       <c r="D13">
-        <v>0.02124972924972925</v>
+        <v>0.01005232849809314</v>
       </c>
       <c r="E13">
-        <v>-0.02436459636459637</v>
+        <v>-0.01249742142789685</v>
       </c>
       <c r="G13">
-        <v>-0.0135933975933976</v>
+        <v>-0.01687056912282276</v>
       </c>
       <c r="H13">
-        <v>0.02224570624570624</v>
+        <v>-0.002855718738228749</v>
       </c>
       <c r="I13">
-        <v>-0.03832383832383832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>0.07960401160401161</v>
-      </c>
-      <c r="D14">
-        <v>-0.05859044259044259</v>
-      </c>
-      <c r="E14">
-        <v>0.05808652608652609</v>
-      </c>
-      <c r="G14">
-        <v>-0.775008499008499</v>
-      </c>
-      <c r="H14">
-        <v>0.6552268992268994</v>
-      </c>
-      <c r="I14">
-        <v>-0.013002685002685</v>
+        <v>0.005119967628798705</v>
+      </c>
+      <c r="J13">
+        <v>0.009960516405831281</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -73,7 +73,7 @@
     <t>Lipid retention [%]</t>
   </si>
   <si>
-    <t>Additional lipid extraction efficiency [%]</t>
+    <t>Bagasse lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
@@ -515,25 +515,25 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.1529719852548794</v>
+        <v>0.1549868746718668</v>
       </c>
       <c r="D4">
-        <v>0.9692952417478096</v>
+        <v>0.9549208730218257</v>
       </c>
       <c r="E4">
-        <v>-0.6891081906363276</v>
+        <v>-0.7605295132378309</v>
       </c>
       <c r="G4">
-        <v>-0.8777052254122089</v>
+        <v>-0.04782869571739294</v>
       </c>
       <c r="H4">
-        <v>0.5872650572826023</v>
+        <v>0.4709592739818496</v>
       </c>
       <c r="I4">
-        <v>0.3733875746475029</v>
+        <v>0.4501942548563714</v>
       </c>
       <c r="J4">
-        <v>0.8363136114667618</v>
+        <v>0.8443291082277057</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,25 +542,25 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>-0.01558384075135363</v>
+        <v>0.04119402985074627</v>
       </c>
       <c r="D5">
-        <v>0.0001386908215476328</v>
+        <v>0.09569489237230933</v>
       </c>
       <c r="E5">
-        <v>0.004659716730388668</v>
+        <v>0.03064726618165454</v>
       </c>
       <c r="G5">
-        <v>0.004156849414273977</v>
+        <v>0.09407185179629492</v>
       </c>
       <c r="H5">
-        <v>0.001202094576083783</v>
+        <v>0.1516552913822846</v>
       </c>
       <c r="I5">
-        <v>0.01586069861842794</v>
+        <v>0.1352568814220356</v>
       </c>
       <c r="J5">
-        <v>0.004601810299496158</v>
+        <v>0.2391569789244731</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,25 +569,25 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.03625086644203465</v>
+        <v>0.07290332258306458</v>
       </c>
       <c r="D6">
-        <v>0.04710816447632658</v>
+        <v>0.1855126378159454</v>
       </c>
       <c r="E6">
-        <v>-0.002926963029078521</v>
+        <v>-0.02396009900247507</v>
       </c>
       <c r="G6">
-        <v>0.05862890634515625</v>
+        <v>0.1831845796144904</v>
       </c>
       <c r="H6">
-        <v>0.01933925798957032</v>
+        <v>0.1491832295807395</v>
       </c>
       <c r="I6">
-        <v>0.007594343631773744</v>
+        <v>0.0005745143628590716</v>
       </c>
       <c r="J6">
-        <v>-0.01087775847520339</v>
+        <v>0.04837170929273232</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,25 +596,25 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.0804326726893069</v>
+        <v>0.0983844596114903</v>
       </c>
       <c r="D7">
-        <v>0.1706032100241284</v>
+        <v>0.08411160279006977</v>
       </c>
       <c r="E7">
-        <v>0.5662937319317493</v>
+        <v>0.5457226430660768</v>
       </c>
       <c r="G7">
-        <v>-0.09132257750890309</v>
+        <v>0.3583769594239857</v>
       </c>
       <c r="H7">
-        <v>0.7044170071206801</v>
+        <v>0.6976209405235132</v>
       </c>
       <c r="I7">
-        <v>0.9179981095199241</v>
+        <v>0.8364224105602641</v>
       </c>
       <c r="J7">
-        <v>0.129208128128456</v>
+        <v>-0.08258756468911724</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -625,25 +625,25 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.8479121154524845</v>
+        <v>0.8228275706892674</v>
       </c>
       <c r="D8">
-        <v>0.0005414165976566638</v>
+        <v>0.04603165079126979</v>
       </c>
       <c r="E8">
-        <v>-0.02024814954592598</v>
+        <v>0.001239030975774395</v>
       </c>
       <c r="G8">
-        <v>-0.01129575299583012</v>
+        <v>0.01265431635790895</v>
       </c>
       <c r="H8">
-        <v>-0.01771302445252098</v>
+        <v>0.07492387309682742</v>
       </c>
       <c r="I8">
-        <v>-0.02237395174295807</v>
+        <v>0.06387759693992351</v>
       </c>
       <c r="J8">
-        <v>0.006662663695463571</v>
+        <v>0.01538888472211805</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -654,25 +654,25 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.3355343397893736</v>
+        <v>0.3799579989499738</v>
       </c>
       <c r="D9">
-        <v>-0.008301011948040476</v>
+        <v>-0.09046426160654017</v>
       </c>
       <c r="E9">
-        <v>0.01556498606259944</v>
+        <v>0.03308932723318084</v>
       </c>
       <c r="G9">
-        <v>0.007315422916616915</v>
+        <v>-0.03423085577139429</v>
       </c>
       <c r="H9">
-        <v>-0.0002317522652700906</v>
+        <v>-0.06160954023850598</v>
       </c>
       <c r="I9">
-        <v>0.001721262884850515</v>
+        <v>-0.02327308182704568</v>
       </c>
       <c r="J9">
-        <v>-0.0102886266111998</v>
+        <v>-0.06547513687842198</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -683,25 +683,25 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.008654710522188419</v>
+        <v>0.03581639540988525</v>
       </c>
       <c r="D10">
-        <v>0.006022146672885866</v>
+        <v>0.01844596114902873</v>
       </c>
       <c r="E10">
-        <v>-0.0106797724271909</v>
+        <v>-0.03937298432460812</v>
       </c>
       <c r="G10">
-        <v>-0.0008984959079398362</v>
+        <v>0.01673891847296183</v>
       </c>
       <c r="H10">
-        <v>-0.006352999742119988</v>
+        <v>-0.005610140253506338</v>
       </c>
       <c r="I10">
-        <v>-0.01553317540532701</v>
+        <v>-0.01525238130953274</v>
       </c>
       <c r="J10">
-        <v>-0.009339791804540476</v>
+        <v>0.003933098327458187</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -712,25 +712,25 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.03648181797127271</v>
+        <v>-0.01971649291232281</v>
       </c>
       <c r="D11">
-        <v>0.0002448177697927107</v>
+        <v>0.08459011475286883</v>
       </c>
       <c r="E11">
-        <v>-0.002838362705534508</v>
+        <v>0.03330683267081678</v>
       </c>
       <c r="G11">
-        <v>-0.003835427577417102</v>
+        <v>0.05852096302407562</v>
       </c>
       <c r="H11">
-        <v>-0.0007139766045590642</v>
+        <v>0.1238580964524113</v>
       </c>
       <c r="I11">
-        <v>0.00229044076361763</v>
+        <v>0.1296977424435611</v>
       </c>
       <c r="J11">
-        <v>0.01858180405309702</v>
+        <v>0.005083627090677268</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -739,25 +739,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1265808097672324</v>
+        <v>0.1048961224030601</v>
       </c>
       <c r="D12">
-        <v>0.1646865822354633</v>
+        <v>0.1101987549688742</v>
       </c>
       <c r="E12">
-        <v>0.4111203164448126</v>
+        <v>0.3554188854721369</v>
       </c>
       <c r="G12">
-        <v>0.3875048927481957</v>
+        <v>0.8372519312982827</v>
       </c>
       <c r="H12">
-        <v>0.3607830423673216</v>
+        <v>0.3183154578864472</v>
       </c>
       <c r="I12">
-        <v>0.01017872699914908</v>
+        <v>-0.08373959348983726</v>
       </c>
       <c r="J12">
-        <v>0.02245004697870471</v>
+        <v>0.01337883447086177</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,25 +766,25 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2608760032990401</v>
+        <v>-0.2368589214730369</v>
       </c>
       <c r="D13">
-        <v>0.01005232849809314</v>
+        <v>0.003964599114977875</v>
       </c>
       <c r="E13">
-        <v>-0.01249742142789685</v>
+        <v>-0.02074551863796595</v>
       </c>
       <c r="G13">
-        <v>-0.01687056912282276</v>
+        <v>-0.03131178279456987</v>
       </c>
       <c r="H13">
-        <v>-0.002855718738228749</v>
+        <v>0.03660091502287557</v>
       </c>
       <c r="I13">
-        <v>0.005119967628798705</v>
+        <v>0.05649141228530714</v>
       </c>
       <c r="J13">
-        <v>0.009960516405831281</v>
+        <v>6.000150003750094E-06</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
+  </si>
+  <si>
+    <t>Feedstock consumption [ton/yr]</t>
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
@@ -449,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,298 +502,331 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>0.1549868746718668</v>
+        <v>0.2707237680942024</v>
       </c>
       <c r="D4">
-        <v>0.9549208730218257</v>
+        <v>0.953593339833496</v>
       </c>
       <c r="E4">
-        <v>-0.7605295132378309</v>
+        <v>-0.7643501087527189</v>
       </c>
       <c r="G4">
-        <v>-0.04782869571739294</v>
+        <v>-0.3495432385809646</v>
       </c>
       <c r="H4">
-        <v>0.4709592739818496</v>
+        <v>0.536903922598065</v>
       </c>
       <c r="I4">
-        <v>0.4501942548563714</v>
+        <v>0.3541543538588465</v>
       </c>
       <c r="J4">
-        <v>0.8443291082277057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-0.06124653116327909</v>
+      </c>
+      <c r="K4">
+        <v>-0.2793234830870772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0.04119402985074627</v>
+        <v>0.03342233555838896</v>
       </c>
       <c r="D5">
-        <v>0.09569489237230933</v>
+        <v>0.09331583289582242</v>
       </c>
       <c r="E5">
-        <v>0.03064726618165454</v>
+        <v>0.03054226355658892</v>
       </c>
       <c r="G5">
-        <v>0.09407185179629492</v>
+        <v>0.02168304207605191</v>
       </c>
       <c r="H5">
-        <v>0.1516552913822846</v>
+        <v>0.1736443411085277</v>
       </c>
       <c r="I5">
-        <v>0.1352568814220356</v>
+        <v>0.1361689042226056</v>
       </c>
       <c r="J5">
-        <v>0.2391569789244731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.1361659041476037</v>
+      </c>
+      <c r="K5">
+        <v>-0.1353918847971199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.07290332258306458</v>
+        <v>0.09728493212330309</v>
       </c>
       <c r="D6">
-        <v>0.1855126378159454</v>
+        <v>0.1919612990324758</v>
       </c>
       <c r="E6">
-        <v>-0.02396009900247507</v>
+        <v>-0.02351608790219756</v>
       </c>
       <c r="G6">
-        <v>0.1831845796144904</v>
+        <v>0.5054916372909324</v>
       </c>
       <c r="H6">
-        <v>0.1491832295807395</v>
+        <v>-0.02971874296857422</v>
       </c>
       <c r="I6">
-        <v>0.0005745143628590716</v>
+        <v>-0.02762769069226731</v>
       </c>
       <c r="J6">
-        <v>0.04837170929273232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.06355658891472288</v>
+      </c>
+      <c r="K6">
+        <v>-0.06609915247881198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.0983844596114903</v>
+        <v>0.08546163654091353</v>
       </c>
       <c r="D7">
-        <v>0.08411160279006977</v>
+        <v>0.08338858471461787</v>
       </c>
       <c r="E7">
-        <v>0.5457226430660768</v>
+        <v>0.5427240681017027</v>
       </c>
       <c r="G7">
-        <v>0.3583769594239857</v>
+        <v>0.3210215255381385</v>
       </c>
       <c r="H7">
-        <v>0.6976209405235132</v>
+        <v>0.6736983424585615</v>
       </c>
       <c r="I7">
-        <v>0.8364224105602641</v>
+        <v>0.8919342983574591</v>
       </c>
       <c r="J7">
-        <v>-0.08258756468911724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.7776224405610143</v>
+      </c>
+      <c r="K7">
+        <v>0.2970824270606765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.8228275706892674</v>
+        <v>0.7872016800420012</v>
       </c>
       <c r="D8">
-        <v>0.04603165079126979</v>
+        <v>0.04586214655366385</v>
       </c>
       <c r="E8">
-        <v>0.001239030975774395</v>
+        <v>0.0007545188629715743</v>
       </c>
       <c r="G8">
-        <v>0.01265431635790895</v>
+        <v>-0.01854496362409061</v>
       </c>
       <c r="H8">
-        <v>0.07492387309682742</v>
+        <v>0.07787444686117155</v>
       </c>
       <c r="I8">
-        <v>0.06387759693992351</v>
+        <v>0.0637290932273307</v>
       </c>
       <c r="J8">
-        <v>0.01538888472211805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>0.02759318982974574</v>
+      </c>
+      <c r="K8">
+        <v>-0.05934598364959125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.3799579989499738</v>
+        <v>0.3741858546463662</v>
       </c>
       <c r="D9">
-        <v>-0.09046426160654017</v>
+        <v>-0.08981174529363235</v>
       </c>
       <c r="E9">
-        <v>0.03308932723318084</v>
+        <v>0.03186829670741769</v>
       </c>
       <c r="G9">
-        <v>-0.03423085577139429</v>
+        <v>-0.01327833195829896</v>
       </c>
       <c r="H9">
-        <v>-0.06160954023850598</v>
+        <v>-0.05759093977349435</v>
       </c>
       <c r="I9">
-        <v>-0.02327308182704568</v>
+        <v>-0.004572114302857572</v>
       </c>
       <c r="J9">
-        <v>-0.06547513687842198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>-0.01898597464936624</v>
+      </c>
+      <c r="K9">
+        <v>0.00505212630315758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.03581639540988525</v>
+        <v>0.03072676816920424</v>
       </c>
       <c r="D10">
-        <v>0.01844596114902873</v>
+        <v>0.01807095177379435</v>
       </c>
       <c r="E10">
-        <v>-0.03937298432460812</v>
+        <v>-0.03955448886222156</v>
       </c>
       <c r="G10">
-        <v>0.01673891847296183</v>
+        <v>-0.0420385509637741</v>
       </c>
       <c r="H10">
-        <v>-0.005610140253506338</v>
+        <v>0.005635640891022276</v>
       </c>
       <c r="I10">
-        <v>-0.01525238130953274</v>
+        <v>-0.02594314857871447</v>
       </c>
       <c r="J10">
-        <v>0.003933098327458187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>-0.0102377559438986</v>
+      </c>
+      <c r="K10">
+        <v>0.08330908272706819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>-0.01971649291232281</v>
+        <v>0.003562589064726619</v>
       </c>
       <c r="D11">
-        <v>0.08459011475286883</v>
+        <v>0.08360009000225006</v>
       </c>
       <c r="E11">
-        <v>0.03330683267081678</v>
+        <v>0.03213680342008551</v>
       </c>
       <c r="G11">
-        <v>0.05852096302407562</v>
+        <v>0.04324908122703069</v>
       </c>
       <c r="H11">
-        <v>0.1238580964524113</v>
+        <v>0.1079681992049801</v>
       </c>
       <c r="I11">
-        <v>0.1296977424435611</v>
+        <v>0.131716792919823</v>
       </c>
       <c r="J11">
-        <v>0.005083627090677268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0.09863796594914874</v>
+      </c>
+      <c r="K11">
+        <v>0.01407335183379585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>0.1048961224030601</v>
+        <v>0.09410935273381836</v>
       </c>
       <c r="D12">
-        <v>0.1101987549688742</v>
+        <v>0.1110417760444011</v>
       </c>
       <c r="E12">
-        <v>0.3554188854721369</v>
+        <v>0.3530473261831546</v>
       </c>
       <c r="G12">
-        <v>0.8372519312982827</v>
+        <v>0.6335288382209557</v>
       </c>
       <c r="H12">
-        <v>0.3183154578864472</v>
+        <v>0.3081497037425936</v>
       </c>
       <c r="I12">
-        <v>-0.08373959348983726</v>
+        <v>-0.08899122478061954</v>
       </c>
       <c r="J12">
-        <v>0.01337883447086177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.5283537088427211</v>
+      </c>
+      <c r="K12">
+        <v>0.1180469511737793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>-0.2368589214730369</v>
+        <v>-0.2423925598139954</v>
       </c>
       <c r="D13">
-        <v>0.003964599114977875</v>
+        <v>0.002881572039300983</v>
       </c>
       <c r="E13">
-        <v>-0.02074551863796595</v>
+        <v>-0.02016050401260032</v>
       </c>
       <c r="G13">
-        <v>-0.03131178279456987</v>
+        <v>-0.02894922373059327</v>
       </c>
       <c r="H13">
-        <v>0.03660091502287557</v>
+        <v>0.04097052426310658</v>
       </c>
       <c r="I13">
-        <v>0.05649141228530714</v>
+        <v>0.06242406060151504</v>
       </c>
       <c r="J13">
-        <v>6.000150003750094E-06</v>
+        <v>0.004314107852696318</v>
+      </c>
+      <c r="K13">
+        <v>-0.07904597614940374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Natural gas consumption [MMcf/yr]</t>
-  </si>
-  <si>
-    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,331 +498,298 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.2707237680942024</v>
+        <v>0.2023460586514663</v>
       </c>
       <c r="D4">
-        <v>0.953593339833496</v>
+        <v>0.9597734943373586</v>
       </c>
       <c r="E4">
-        <v>-0.7643501087527189</v>
+        <v>-0.764252606315158</v>
       </c>
       <c r="G4">
-        <v>-0.3495432385809646</v>
+        <v>-0.4910822770569265</v>
       </c>
       <c r="H4">
-        <v>0.536903922598065</v>
+        <v>0.3328103202580065</v>
       </c>
       <c r="I4">
-        <v>0.3541543538588465</v>
+        <v>-0.06124653116327909</v>
       </c>
       <c r="J4">
-        <v>-0.06124653116327909</v>
-      </c>
-      <c r="K4">
-        <v>-0.2793234830870772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>-0.4260676516912923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.03342233555838896</v>
+        <v>0.02581864546613666</v>
       </c>
       <c r="D5">
-        <v>0.09331583289582242</v>
+        <v>0.0914122853071327</v>
       </c>
       <c r="E5">
-        <v>0.03054226355658892</v>
+        <v>0.0303337583439586</v>
       </c>
       <c r="G5">
-        <v>0.02168304207605191</v>
+        <v>0.02833270831770794</v>
       </c>
       <c r="H5">
-        <v>0.1736443411085277</v>
+        <v>0.1365979149478737</v>
       </c>
       <c r="I5">
-        <v>0.1361689042226056</v>
+        <v>0.1361659041476037</v>
       </c>
       <c r="J5">
-        <v>0.1361659041476037</v>
-      </c>
-      <c r="K5">
-        <v>-0.1353918847971199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.03871896797419937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.09728493212330309</v>
+        <v>0.06464711617790446</v>
       </c>
       <c r="D6">
-        <v>0.1919612990324758</v>
+        <v>0.1579419485487137</v>
       </c>
       <c r="E6">
-        <v>-0.02351608790219756</v>
+        <v>-0.02356108902722568</v>
       </c>
       <c r="G6">
-        <v>0.5054916372909324</v>
+        <v>0.2863691592289808</v>
       </c>
       <c r="H6">
-        <v>-0.02971874296857422</v>
+        <v>-0.05279831995799895</v>
       </c>
       <c r="I6">
-        <v>-0.02762769069226731</v>
+        <v>-0.06355658891472288</v>
       </c>
       <c r="J6">
-        <v>-0.06355658891472288</v>
-      </c>
-      <c r="K6">
-        <v>-0.06609915247881198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-0.1181234530863272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.08381309532738319</v>
+      </c>
+      <c r="D7">
+        <v>0.08569114227855699</v>
+      </c>
+      <c r="E7">
+        <v>0.5428770719267982</v>
+      </c>
+      <c r="G7">
+        <v>0.3176824420610515</v>
+      </c>
+      <c r="H7">
+        <v>0.9000660016500414</v>
+      </c>
+      <c r="I7">
+        <v>0.7776224405610143</v>
+      </c>
+      <c r="J7">
+        <v>0.09547438685967151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>0.08546163654091353</v>
-      </c>
-      <c r="D7">
-        <v>0.08338858471461787</v>
-      </c>
-      <c r="E7">
-        <v>0.5427240681017027</v>
-      </c>
-      <c r="G7">
-        <v>0.3210215255381385</v>
-      </c>
-      <c r="H7">
-        <v>0.6736983424585615</v>
-      </c>
-      <c r="I7">
-        <v>0.8919342983574591</v>
-      </c>
-      <c r="J7">
-        <v>0.7776224405610143</v>
-      </c>
-      <c r="K7">
-        <v>0.2970824270606765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="C8">
+        <v>0.8075391884797121</v>
+      </c>
+      <c r="D8">
+        <v>0.04675316882922073</v>
+      </c>
+      <c r="E8">
+        <v>0.0007920198004950124</v>
+      </c>
+      <c r="G8">
+        <v>-0.0217190429760744</v>
+      </c>
+      <c r="H8">
+        <v>0.05867096677416937</v>
+      </c>
+      <c r="I8">
+        <v>0.02759318982974574</v>
+      </c>
+      <c r="J8">
+        <v>-0.02711617790444762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.3830765769144229</v>
+      </c>
+      <c r="D9">
+        <v>-0.0954338858471462</v>
+      </c>
+      <c r="E9">
+        <v>0.0320843021075527</v>
+      </c>
+      <c r="G9">
+        <v>0.01774994374859372</v>
+      </c>
+      <c r="H9">
+        <v>0.009156228905722645</v>
+      </c>
+      <c r="I9">
+        <v>-0.01898597464936624</v>
+      </c>
+      <c r="J9">
+        <v>-0.04403660091502288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>0.7872016800420012</v>
-      </c>
-      <c r="D8">
-        <v>0.04586214655366385</v>
-      </c>
-      <c r="E8">
-        <v>0.0007545188629715743</v>
-      </c>
-      <c r="G8">
-        <v>-0.01854496362409061</v>
-      </c>
-      <c r="H8">
-        <v>0.07787444686117155</v>
-      </c>
-      <c r="I8">
-        <v>0.0637290932273307</v>
-      </c>
-      <c r="J8">
-        <v>0.02759318982974574</v>
-      </c>
-      <c r="K8">
-        <v>-0.05934598364959125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>0.3741858546463662</v>
-      </c>
-      <c r="D9">
-        <v>-0.08981174529363235</v>
-      </c>
-      <c r="E9">
-        <v>0.03186829670741769</v>
-      </c>
-      <c r="G9">
-        <v>-0.01327833195829896</v>
-      </c>
-      <c r="H9">
-        <v>-0.05759093977349435</v>
-      </c>
-      <c r="I9">
-        <v>-0.004572114302857572</v>
-      </c>
-      <c r="J9">
-        <v>-0.01898597464936624</v>
-      </c>
-      <c r="K9">
-        <v>0.00505212630315758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>0.03495537388434711</v>
+      </c>
+      <c r="D10">
+        <v>0.02157803945098628</v>
+      </c>
+      <c r="E10">
+        <v>-0.03945248631215781</v>
+      </c>
+      <c r="G10">
+        <v>-0.04308707717692943</v>
+      </c>
+      <c r="H10">
+        <v>-0.02682817070426761</v>
+      </c>
+      <c r="I10">
+        <v>-0.0102377559438986</v>
+      </c>
+      <c r="J10">
+        <v>0.0747348683717093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>0.03072676816920424</v>
-      </c>
-      <c r="D10">
-        <v>0.01807095177379435</v>
-      </c>
-      <c r="E10">
-        <v>-0.03955448886222156</v>
-      </c>
-      <c r="G10">
-        <v>-0.0420385509637741</v>
-      </c>
-      <c r="H10">
-        <v>0.005635640891022276</v>
-      </c>
-      <c r="I10">
-        <v>-0.02594314857871447</v>
-      </c>
-      <c r="J10">
-        <v>-0.0102377559438986</v>
-      </c>
-      <c r="K10">
-        <v>0.08330908272706819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C11">
-        <v>0.003562589064726619</v>
+        <v>-0.006162154053851347</v>
       </c>
       <c r="D11">
-        <v>0.08360009000225006</v>
+        <v>0.08734568364209107</v>
       </c>
       <c r="E11">
-        <v>0.03213680342008551</v>
+        <v>0.03226880672016801</v>
       </c>
       <c r="G11">
-        <v>0.04324908122703069</v>
+        <v>0.03807095177379435</v>
       </c>
       <c r="H11">
-        <v>0.1079681992049801</v>
+        <v>0.1294907372684317</v>
       </c>
       <c r="I11">
-        <v>0.131716792919823</v>
+        <v>0.09863796594914874</v>
       </c>
       <c r="J11">
-        <v>0.09863796594914874</v>
-      </c>
-      <c r="K11">
-        <v>0.01407335183379585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>-0.0702377559438986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.09410935273381836</v>
+        <v>0.09552088802220056</v>
       </c>
       <c r="D12">
-        <v>0.1110417760444011</v>
+        <v>0.1076501912547814</v>
       </c>
       <c r="E12">
-        <v>0.3530473261831546</v>
+        <v>0.3530278256956424</v>
       </c>
       <c r="G12">
-        <v>0.6335288382209557</v>
+        <v>0.6200840021000527</v>
       </c>
       <c r="H12">
-        <v>0.3081497037425936</v>
+        <v>-0.07610290257256432</v>
       </c>
       <c r="I12">
-        <v>-0.08899122478061954</v>
+        <v>0.5283537088427211</v>
       </c>
       <c r="J12">
-        <v>0.5283537088427211</v>
-      </c>
-      <c r="K12">
-        <v>0.1180469511737793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>-0.01908647716192905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2423925598139954</v>
+        <v>-0.2437305932648317</v>
       </c>
       <c r="D13">
-        <v>0.002881572039300983</v>
+        <v>0.006829670741768545</v>
       </c>
       <c r="E13">
-        <v>-0.02016050401260032</v>
+        <v>-0.02008250206255156</v>
       </c>
       <c r="G13">
-        <v>-0.02894922373059327</v>
+        <v>-0.01636390909772745</v>
       </c>
       <c r="H13">
-        <v>0.04097052426310658</v>
+        <v>0.06334808370209255</v>
       </c>
       <c r="I13">
-        <v>0.06242406060151504</v>
+        <v>0.004314107852696318</v>
       </c>
       <c r="J13">
-        <v>0.004314107852696318</v>
-      </c>
-      <c r="K13">
-        <v>-0.07904597614940374</v>
+        <v>0.06208805220130504</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -67,7 +67,10 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
+    <t>Cane lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Lipid retention [%]</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.2023460586514663</v>
-      </c>
-      <c r="D4">
-        <v>0.9597734943373586</v>
+        <v>0.2105447891250356</v>
       </c>
       <c r="E4">
-        <v>-0.764252606315158</v>
+        <v>0.3776603178557315</v>
       </c>
       <c r="G4">
-        <v>-0.4910822770569265</v>
+        <v>0.05003616492590964</v>
       </c>
       <c r="H4">
-        <v>0.3328103202580065</v>
-      </c>
-      <c r="I4">
-        <v>-0.06124653116327909</v>
+        <v>0.1184259608761614</v>
       </c>
       <c r="J4">
-        <v>-0.4260676516912923</v>
+        <v>0.1219176293748825</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,25 +539,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.02581864546613666</v>
-      </c>
-      <c r="D5">
-        <v>0.0914122853071327</v>
+        <v>0.02517104561379097</v>
       </c>
       <c r="E5">
-        <v>0.0303337583439586</v>
+        <v>0.04059701952308186</v>
       </c>
       <c r="G5">
-        <v>0.02833270831770794</v>
+        <v>0.09235128069125362</v>
       </c>
       <c r="H5">
-        <v>0.1365979149478737</v>
-      </c>
-      <c r="I5">
-        <v>0.1361659041476037</v>
+        <v>0.05563976947345694</v>
       </c>
       <c r="J5">
-        <v>0.03871896797419937</v>
+        <v>0.02644916339774074</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,25 +560,19 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.06464711617790446</v>
-      </c>
-      <c r="D6">
-        <v>0.1579419485487137</v>
+        <v>-0.09336726656346749</v>
       </c>
       <c r="E6">
-        <v>-0.02356108902722568</v>
+        <v>-0.1013277140253734</v>
       </c>
       <c r="G6">
-        <v>0.2863691592289808</v>
+        <v>-0.06584783785625095</v>
       </c>
       <c r="H6">
-        <v>-0.05279831995799895</v>
-      </c>
-      <c r="I6">
-        <v>-0.06355658891472288</v>
+        <v>-0.08065787713008984</v>
       </c>
       <c r="J6">
-        <v>-0.1181234530863272</v>
+        <v>-0.02509869744397549</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,168 +581,132 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.08381309532738319</v>
-      </c>
-      <c r="D7">
-        <v>0.08569114227855699</v>
+        <v>-0.0684313311974136</v>
       </c>
       <c r="E7">
-        <v>0.5428770719267982</v>
+        <v>-0.01756384114382819</v>
       </c>
       <c r="G7">
-        <v>0.3176824420610515</v>
+        <v>0.02221370952597701</v>
       </c>
       <c r="H7">
-        <v>0.9000660016500414</v>
-      </c>
-      <c r="I7">
-        <v>0.7776224405610143</v>
+        <v>-0.04826006722459194</v>
       </c>
       <c r="J7">
-        <v>0.09547438685967151</v>
+        <v>0.05449248585368557</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.8075391884797121</v>
-      </c>
-      <c r="D8">
-        <v>0.04675316882922073</v>
+        <v>-0.009283292509133775</v>
       </c>
       <c r="E8">
-        <v>0.0007920198004950124</v>
+        <v>0.04948419604034002</v>
       </c>
       <c r="G8">
-        <v>-0.0217190429760744</v>
+        <v>-0.003975084862543254</v>
       </c>
       <c r="H8">
-        <v>0.05867096677416937</v>
-      </c>
-      <c r="I8">
-        <v>0.02759318982974574</v>
+        <v>-0.08855642698637994</v>
       </c>
       <c r="J8">
-        <v>-0.02711617790444762</v>
+        <v>0.1241599443983649</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.3830765769144229</v>
-      </c>
-      <c r="D9">
-        <v>-0.0954338858471462</v>
+        <v>0.09391585714152066</v>
       </c>
       <c r="E9">
-        <v>0.0320843021075527</v>
+        <v>0.024347884715438</v>
       </c>
       <c r="G9">
-        <v>0.01774994374859372</v>
+        <v>0.00378284329299665</v>
       </c>
       <c r="H9">
-        <v>0.009156228905722645</v>
-      </c>
-      <c r="I9">
-        <v>-0.01898597464936624</v>
+        <v>-0.01852245737762866</v>
       </c>
       <c r="J9">
-        <v>-0.04403660091502288</v>
+        <v>0.01269911844242412</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.03495537388434711</v>
-      </c>
-      <c r="D10">
-        <v>0.02157803945098628</v>
+        <v>-0.09596772839449881</v>
       </c>
       <c r="E10">
-        <v>-0.03945248631215781</v>
+        <v>-0.01919630127727763</v>
       </c>
       <c r="G10">
-        <v>-0.04308707717692943</v>
+        <v>-0.005374917352629549</v>
       </c>
       <c r="H10">
-        <v>-0.02682817070426761</v>
-      </c>
-      <c r="I10">
-        <v>-0.0102377559438986</v>
+        <v>0.07885116127539715</v>
       </c>
       <c r="J10">
-        <v>0.0747348683717093</v>
+        <v>-0.07231762105545173</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-0.006162154053851347</v>
-      </c>
-      <c r="D11">
-        <v>0.08734568364209107</v>
+        <v>-0.1396911099206339</v>
       </c>
       <c r="E11">
-        <v>0.03226880672016801</v>
+        <v>-0.04628481249412708</v>
       </c>
       <c r="G11">
-        <v>0.03807095177379435</v>
+        <v>-0.05757517309000667</v>
       </c>
       <c r="H11">
-        <v>0.1294907372684317</v>
-      </c>
-      <c r="I11">
-        <v>0.09863796594914874</v>
+        <v>-0.07682403573941067</v>
       </c>
       <c r="J11">
-        <v>-0.0702377559438986</v>
+        <v>0.0490110833170369</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.09552088802220056</v>
-      </c>
-      <c r="D12">
-        <v>0.1076501912547814</v>
+        <v>0.01662158205971535</v>
       </c>
       <c r="E12">
-        <v>0.3530278256956424</v>
+        <v>0.02711035679041143</v>
       </c>
       <c r="G12">
-        <v>0.6200840021000527</v>
+        <v>-0.05818563815575058</v>
       </c>
       <c r="H12">
-        <v>-0.07610290257256432</v>
-      </c>
-      <c r="I12">
-        <v>0.5283537088427211</v>
+        <v>-0.0752337074915356</v>
       </c>
       <c r="J12">
-        <v>-0.01908647716192905</v>
+        <v>0.07730317581709638</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,32 +715,47 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2437305932648317</v>
-      </c>
-      <c r="D13">
-        <v>0.006829670741768545</v>
+        <v>-0.01694931149595491</v>
       </c>
       <c r="E13">
-        <v>-0.02008250206255156</v>
+        <v>-0.08511432651992185</v>
       </c>
       <c r="G13">
-        <v>-0.01636390909772745</v>
+        <v>0.04116088168859682</v>
       </c>
       <c r="H13">
-        <v>0.06334808370209255</v>
-      </c>
-      <c r="I13">
-        <v>0.004314107852696318</v>
+        <v>0.02040559264736847</v>
       </c>
       <c r="J13">
-        <v>0.06208805220130504</v>
+        <v>-0.02720901203588685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0.03805223736859823</v>
+      </c>
+      <c r="E14">
+        <v>0.09918684781629979</v>
+      </c>
+      <c r="G14">
+        <v>0.01901308355789293</v>
+      </c>
+      <c r="H14">
+        <v>-0.02638480856363329</v>
+      </c>
+      <c r="J14">
+        <v>0.02129437731356912</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Element</t>
   </si>
@@ -28,16 +28,16 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Ethanol production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Electricity production [MMWhr/yr]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [MMcf/yr]</t>
+    <t>Biodiesel production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
+    <t>MFPP derivative [USD/ton]</t>
+  </si>
+  <si>
+    <t>Biodiesel production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production derivative [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption derivative [cf/ton]</t>
+  </si>
+  <si>
+    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -452,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +490,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,259 +525,508 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.2105447891250356</v>
+        <v>0.2236082836082836</v>
+      </c>
+      <c r="D4">
+        <v>0.9865755505755508</v>
       </c>
       <c r="E4">
-        <v>0.3776603178557315</v>
+        <v>-0.9996566676566677</v>
       </c>
       <c r="G4">
-        <v>0.05003616492590964</v>
+        <v>-0.6397878037878039</v>
       </c>
       <c r="H4">
-        <v>0.1184259608761614</v>
+        <v>0.3816123696123696</v>
+      </c>
+      <c r="I4">
+        <v>-0.04342405942405943</v>
       </c>
       <c r="J4">
-        <v>0.1219176293748825</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.008526176654069304</v>
+      </c>
+      <c r="K4">
+        <v>0.06456389256389257</v>
+      </c>
+      <c r="L4">
+        <v>-0.006665754665754665</v>
+      </c>
+      <c r="M4">
+        <v>-0.1746324786324786</v>
+      </c>
+      <c r="O4">
+        <v>-0.005676221676221677</v>
+      </c>
+      <c r="P4">
+        <v>-0.00332046332046332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>0.02517104561379097</v>
+        <v>0.03405041805041806</v>
+      </c>
+      <c r="D5">
+        <v>0.00146036546036546</v>
       </c>
       <c r="E5">
-        <v>0.04059701952308186</v>
+        <v>-0.001913077913077913</v>
       </c>
       <c r="G5">
-        <v>0.09235128069125362</v>
+        <v>-0.02059005259005259</v>
       </c>
       <c r="H5">
-        <v>0.05563976947345694</v>
+        <v>0.05206835206835207</v>
+      </c>
+      <c r="I5">
+        <v>0.008772572772572774</v>
       </c>
       <c r="J5">
-        <v>0.02644916339774074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.03133947780956998</v>
+      </c>
+      <c r="K5">
+        <v>0.04378469578469579</v>
+      </c>
+      <c r="L5">
+        <v>0.00300998700998701</v>
+      </c>
+      <c r="M5">
+        <v>0.02691413091413091</v>
+      </c>
+      <c r="O5">
+        <v>0.03758222558222558</v>
+      </c>
+      <c r="P5">
+        <v>0.004798072798072798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>-0.09336726656346749</v>
+        <v>-0.004987372987372988</v>
+      </c>
+      <c r="D6">
+        <v>-0.01746008946008946</v>
       </c>
       <c r="E6">
-        <v>-0.1013277140253734</v>
+        <v>-0.0106012666012666</v>
       </c>
       <c r="G6">
-        <v>-0.06584783785625095</v>
+        <v>-0.0982787902787903</v>
       </c>
       <c r="H6">
-        <v>-0.08065787713008984</v>
+        <v>0.05277164877164878</v>
+      </c>
+      <c r="I6">
+        <v>0.06633054633054633</v>
       </c>
       <c r="J6">
-        <v>-0.02509869744397549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-0.01370064790615763</v>
+      </c>
+      <c r="K6">
+        <v>-0.02775769575769576</v>
+      </c>
+      <c r="L6">
+        <v>-0.1539166539166539</v>
+      </c>
+      <c r="M6">
+        <v>0.04973205773205774</v>
+      </c>
+      <c r="O6">
+        <v>-0.02242519042519043</v>
+      </c>
+      <c r="P6">
+        <v>0.02615138615138616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>-0.0684313311974136</v>
+        <v>0.01322227322227322</v>
+      </c>
+      <c r="D7">
+        <v>0.1494736134736135</v>
       </c>
       <c r="E7">
-        <v>-0.01756384114382819</v>
+        <v>0.004473472473472474</v>
       </c>
       <c r="G7">
-        <v>0.02221370952597701</v>
+        <v>0.4920429720429721</v>
       </c>
       <c r="H7">
-        <v>-0.04826006722459194</v>
+        <v>-0.02415526815526816</v>
+      </c>
+      <c r="I7">
+        <v>-0.03785164985164986</v>
       </c>
       <c r="J7">
-        <v>0.05449248585368557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>0.06262106756038358</v>
+      </c>
+      <c r="K7">
+        <v>0.114047274047274</v>
+      </c>
+      <c r="L7">
+        <v>0.990019638019638</v>
+      </c>
+      <c r="M7">
+        <v>-0.02932864132864133</v>
+      </c>
+      <c r="O7">
+        <v>0.3776135336135337</v>
+      </c>
+      <c r="P7">
+        <v>-0.007790575790575792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.06905823305823307</v>
+      </c>
+      <c r="D8">
+        <v>-0.03374783774783775</v>
+      </c>
+      <c r="E8">
+        <v>0.009704985704985706</v>
+      </c>
+      <c r="G8">
+        <v>-0.5380840900840901</v>
+      </c>
+      <c r="H8">
+        <v>0.907013347013347</v>
+      </c>
+      <c r="I8">
+        <v>0.7924959484959485</v>
+      </c>
+      <c r="J8">
+        <v>-0.1688091033412399</v>
+      </c>
+      <c r="K8">
+        <v>0.01607500007500007</v>
+      </c>
+      <c r="L8">
+        <v>-0.04806246006246007</v>
+      </c>
+      <c r="M8">
+        <v>0.5898203658203659</v>
+      </c>
+      <c r="O8">
+        <v>0.09224432024432024</v>
+      </c>
+      <c r="P8">
+        <v>0.3310122910122911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.8141891861891862</v>
+      </c>
+      <c r="D9">
+        <v>-0.0007315207315207315</v>
+      </c>
+      <c r="E9">
+        <v>-0.009282645282645285</v>
+      </c>
+      <c r="G9">
+        <v>-0.0178030258030258</v>
+      </c>
+      <c r="H9">
+        <v>-0.008634296634296636</v>
+      </c>
+      <c r="I9">
+        <v>-0.01146227946227946</v>
+      </c>
+      <c r="J9">
+        <v>-0.006353850449158206</v>
+      </c>
+      <c r="K9">
+        <v>-0.3903267903267904</v>
+      </c>
+      <c r="L9">
+        <v>-0.05642979242979244</v>
+      </c>
+      <c r="M9">
+        <v>-0.03622370422370422</v>
+      </c>
+      <c r="O9">
+        <v>-0.02796960396960397</v>
+      </c>
+      <c r="P9">
+        <v>-0.01658857658857659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0.3765829365829366</v>
+      </c>
+      <c r="D10">
+        <v>-0.003600843600843601</v>
+      </c>
+      <c r="E10">
+        <v>0.002653334653334654</v>
+      </c>
+      <c r="G10">
+        <v>-0.006925854925854927</v>
+      </c>
+      <c r="H10">
+        <v>0.0257969297969298</v>
+      </c>
+      <c r="I10">
+        <v>0.04357605157605158</v>
+      </c>
+      <c r="J10">
+        <v>0.008128082250003485</v>
+      </c>
+      <c r="K10">
+        <v>0.849852645852646</v>
+      </c>
+      <c r="L10">
+        <v>-0.00476964476964477</v>
+      </c>
+      <c r="M10">
+        <v>0.03581263181263182</v>
+      </c>
+      <c r="O10">
+        <v>0.009267477267477269</v>
+      </c>
+      <c r="P10">
+        <v>-0.03107441507441508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>-0.009283292509133775</v>
-      </c>
-      <c r="E8">
-        <v>0.04948419604034002</v>
-      </c>
-      <c r="G8">
-        <v>-0.003975084862543254</v>
-      </c>
-      <c r="H8">
-        <v>-0.08855642698637994</v>
-      </c>
-      <c r="J8">
-        <v>0.1241599443983649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>-0.06821654021654022</v>
+      </c>
+      <c r="D11">
+        <v>0.07075467475467476</v>
+      </c>
+      <c r="E11">
+        <v>-0.06894185694185695</v>
+      </c>
+      <c r="G11">
+        <v>-0.009524613524613524</v>
+      </c>
+      <c r="H11">
+        <v>-0.01005765405765406</v>
+      </c>
+      <c r="I11">
+        <v>-0.05375321375321376</v>
+      </c>
+      <c r="J11">
+        <v>0.02242221475854798</v>
+      </c>
+      <c r="K11">
+        <v>0.05800715800715801</v>
+      </c>
+      <c r="L11">
+        <v>-0.00402010002010002</v>
+      </c>
+      <c r="M11">
+        <v>-0.04210829410829411</v>
+      </c>
+      <c r="O11">
+        <v>-0.0186945426945427</v>
+      </c>
+      <c r="P11">
+        <v>-0.004211584211584212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>0.09391585714152066</v>
-      </c>
-      <c r="E9">
-        <v>0.024347884715438</v>
-      </c>
-      <c r="G9">
-        <v>0.00378284329299665</v>
-      </c>
-      <c r="H9">
-        <v>-0.01852245737762866</v>
-      </c>
-      <c r="J9">
-        <v>0.01269911844242412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>-0.09596772839449881</v>
-      </c>
-      <c r="E10">
-        <v>-0.01919630127727763</v>
-      </c>
-      <c r="G10">
-        <v>-0.005374917352629549</v>
-      </c>
-      <c r="H10">
-        <v>0.07885116127539715</v>
-      </c>
-      <c r="J10">
-        <v>-0.07231762105545173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>-0.1396911099206339</v>
-      </c>
-      <c r="E11">
-        <v>-0.04628481249412708</v>
-      </c>
-      <c r="G11">
-        <v>-0.05757517309000667</v>
-      </c>
-      <c r="H11">
-        <v>-0.07682403573941067</v>
-      </c>
-      <c r="J11">
-        <v>0.0490110833170369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>0.01662158205971535</v>
+        <v>0.00121044121044121</v>
+      </c>
+      <c r="D12">
+        <v>-0.007304767304767305</v>
       </c>
       <c r="E12">
-        <v>0.02711035679041143</v>
+        <v>0.006269622269622271</v>
       </c>
       <c r="G12">
-        <v>-0.05818563815575058</v>
+        <v>-0.00463001263001263</v>
       </c>
       <c r="H12">
-        <v>-0.0752337074915356</v>
+        <v>-0.01538095538095538</v>
+      </c>
+      <c r="I12">
+        <v>-0.02742773142773143</v>
       </c>
       <c r="J12">
-        <v>0.07730317581709638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.03115211561939735</v>
+      </c>
+      <c r="K12">
+        <v>-0.04700059100059101</v>
+      </c>
+      <c r="L12">
+        <v>-0.02005835605835606</v>
+      </c>
+      <c r="M12">
+        <v>0.01011205011205011</v>
+      </c>
+      <c r="O12">
+        <v>0.0236033276033276</v>
+      </c>
+      <c r="P12">
+        <v>-0.02960767760767761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>-0.01694931149595491</v>
+        <v>0.1198082278082278</v>
+      </c>
+      <c r="D13">
+        <v>-0.03272423672423672</v>
       </c>
       <c r="E13">
-        <v>-0.08511432651992185</v>
+        <v>0.02978438978438978</v>
       </c>
       <c r="G13">
-        <v>0.04116088168859682</v>
+        <v>0.007468543468543469</v>
       </c>
       <c r="H13">
-        <v>0.02040559264736847</v>
+        <v>-0.02888255288255288</v>
+      </c>
+      <c r="I13">
+        <v>0.5802783162783164</v>
       </c>
       <c r="J13">
-        <v>-0.02720901203588685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>0.01125904742793314</v>
+      </c>
+      <c r="K13">
+        <v>0.0364948564948565</v>
+      </c>
+      <c r="L13">
+        <v>-0.0146968346968347</v>
+      </c>
+      <c r="M13">
+        <v>-0.01997155997155997</v>
+      </c>
+      <c r="O13">
+        <v>0.006794970794970796</v>
+      </c>
+      <c r="P13">
+        <v>-0.009687009687009687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>0.03805223736859823</v>
+        <v>-0.2803179643179644</v>
+      </c>
+      <c r="D14">
+        <v>-0.04645838245838246</v>
       </c>
       <c r="E14">
-        <v>0.09918684781629979</v>
+        <v>0.05114127914127915</v>
       </c>
       <c r="G14">
-        <v>0.01901308355789293</v>
+        <v>0.06365273165273165</v>
       </c>
       <c r="H14">
-        <v>-0.02638480856363329</v>
+        <v>-0.04747048747048747</v>
+      </c>
+      <c r="I14">
+        <v>-0.02457429657429657</v>
       </c>
       <c r="J14">
-        <v>0.02129437731356912</v>
+        <v>-0.09050696586457035</v>
+      </c>
+      <c r="K14">
+        <v>-0.02218066618066618</v>
+      </c>
+      <c r="L14">
+        <v>0.01483265083265083</v>
+      </c>
+      <c r="M14">
+        <v>0.01794289794289794</v>
+      </c>
+      <c r="O14">
+        <v>-0.0184993144993145</v>
+      </c>
+      <c r="P14">
+        <v>0.02727188727188727</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -560,40 +560,40 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.2236082836082836</v>
+        <v>0.2886288628862886</v>
       </c>
       <c r="D4">
-        <v>0.9865755505755508</v>
+        <v>0.9879147914791477</v>
       </c>
       <c r="E4">
-        <v>-0.9996566676566677</v>
+        <v>-0.9999879987998799</v>
       </c>
       <c r="G4">
-        <v>-0.6397878037878039</v>
+        <v>-0.7213921392139213</v>
       </c>
       <c r="H4">
-        <v>0.3816123696123696</v>
+        <v>0.3545274527452745</v>
       </c>
       <c r="I4">
-        <v>-0.04342405942405943</v>
+        <v>-0.01120912091209121</v>
       </c>
       <c r="J4">
-        <v>0.008526176654069304</v>
+        <v>-0.003924392439243924</v>
       </c>
       <c r="K4">
-        <v>0.06456389256389257</v>
+        <v>-0.06499849984998499</v>
       </c>
       <c r="L4">
-        <v>-0.006665754665754665</v>
+        <v>-0.05506150615061506</v>
       </c>
       <c r="M4">
-        <v>-0.1746324786324786</v>
+        <v>-0.2575937593759375</v>
       </c>
       <c r="O4">
-        <v>-0.005676221676221677</v>
+        <v>-0.07167116711671166</v>
       </c>
       <c r="P4">
-        <v>-0.00332046332046332</v>
+        <v>0.03185118511851185</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -602,40 +602,40 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.03405041805041806</v>
+        <v>-0.127980798079808</v>
       </c>
       <c r="D5">
-        <v>0.00146036546036546</v>
+        <v>-0.1746654665466546</v>
       </c>
       <c r="E5">
-        <v>-0.001913077913077913</v>
+        <v>0.1735733573357336</v>
       </c>
       <c r="G5">
-        <v>-0.02059005259005259</v>
+        <v>0.1646324632463246</v>
       </c>
       <c r="H5">
-        <v>0.05206835206835207</v>
+        <v>-0.148982898289829</v>
       </c>
       <c r="I5">
-        <v>0.008772572772572774</v>
+        <v>-0.1615121512151215</v>
       </c>
       <c r="J5">
-        <v>0.03133947780956998</v>
+        <v>0.04241224122412241</v>
       </c>
       <c r="K5">
-        <v>0.04378469578469579</v>
+        <v>0.1749174917491749</v>
       </c>
       <c r="L5">
-        <v>0.00300998700998701</v>
+        <v>-0.01184518451845184</v>
       </c>
       <c r="M5">
-        <v>0.02691413091413091</v>
+        <v>0.1174677467746775</v>
       </c>
       <c r="O5">
-        <v>0.03758222558222558</v>
+        <v>0.1235043504350435</v>
       </c>
       <c r="P5">
-        <v>0.004798072798072798</v>
+        <v>-0.1793939393939394</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -644,40 +644,40 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>-0.004987372987372988</v>
+        <v>0.1322532253225322</v>
       </c>
       <c r="D6">
-        <v>-0.01746008946008946</v>
+        <v>0.1131953195319532</v>
       </c>
       <c r="E6">
-        <v>-0.0106012666012666</v>
+        <v>-0.1153315331533153</v>
       </c>
       <c r="G6">
-        <v>-0.0982787902787903</v>
+        <v>-0.08160816081608159</v>
       </c>
       <c r="H6">
-        <v>0.05277164877164878</v>
+        <v>0.04373237323732372</v>
       </c>
       <c r="I6">
-        <v>0.06633054633054633</v>
+        <v>-0.05526552655265525</v>
       </c>
       <c r="J6">
-        <v>-0.01370064790615763</v>
+        <v>-0.001188118811881188</v>
       </c>
       <c r="K6">
-        <v>-0.02775769575769576</v>
+        <v>0.0463006300630063</v>
       </c>
       <c r="L6">
-        <v>-0.1539166539166539</v>
+        <v>0.0008880888088808879</v>
       </c>
       <c r="M6">
-        <v>0.04973205773205774</v>
+        <v>0.07713171317131713</v>
       </c>
       <c r="O6">
-        <v>-0.02242519042519043</v>
+        <v>0.1208160816081608</v>
       </c>
       <c r="P6">
-        <v>0.02615138615138616</v>
+        <v>-0.01336933693369337</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -686,40 +686,40 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>0.01322227322227322</v>
+        <v>0.1062466246624662</v>
       </c>
       <c r="D7">
-        <v>0.1494736134736135</v>
+        <v>0.09689768976897688</v>
       </c>
       <c r="E7">
-        <v>0.004473472473472474</v>
+        <v>0.04159615961596159</v>
       </c>
       <c r="G7">
-        <v>0.4920429720429721</v>
+        <v>0.4447884788478847</v>
       </c>
       <c r="H7">
-        <v>-0.02415526815526816</v>
+        <v>0.008832883288328831</v>
       </c>
       <c r="I7">
-        <v>-0.03785164985164986</v>
+        <v>0.004116411641164116</v>
       </c>
       <c r="J7">
-        <v>0.06262106756038358</v>
+        <v>-0.1628082808280828</v>
       </c>
       <c r="K7">
-        <v>0.114047274047274</v>
+        <v>0.2631623162316231</v>
       </c>
       <c r="L7">
-        <v>0.990019638019638</v>
+        <v>0.9896549654965496</v>
       </c>
       <c r="M7">
-        <v>-0.02932864132864133</v>
+        <v>-0.1831743174317431</v>
       </c>
       <c r="O7">
-        <v>0.3776135336135337</v>
+        <v>0.08698469846984698</v>
       </c>
       <c r="P7">
-        <v>-0.007790575790575792</v>
+        <v>0.2030723072307231</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -728,40 +728,40 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.06905823305823307</v>
+        <v>0.07792379237923792</v>
       </c>
       <c r="D8">
-        <v>-0.03374783774783775</v>
+        <v>-0.05966996699669967</v>
       </c>
       <c r="E8">
-        <v>0.009704985704985706</v>
+        <v>0.06756675667566756</v>
       </c>
       <c r="G8">
-        <v>-0.5380840900840901</v>
+        <v>-0.4363756375637562</v>
       </c>
       <c r="H8">
-        <v>0.907013347013347</v>
+        <v>0.9027662766276627</v>
       </c>
       <c r="I8">
-        <v>0.7924959484959485</v>
+        <v>0.7969636963696368</v>
       </c>
       <c r="J8">
-        <v>-0.1688091033412399</v>
+        <v>-0.02419441944194419</v>
       </c>
       <c r="K8">
-        <v>0.01607500007500007</v>
+        <v>0.05653765376537653</v>
       </c>
       <c r="L8">
-        <v>-0.04806246006246007</v>
+        <v>0.008412841284128413</v>
       </c>
       <c r="M8">
-        <v>0.5898203658203659</v>
+        <v>0.1164956495649565</v>
       </c>
       <c r="O8">
-        <v>0.09224432024432024</v>
+        <v>0.0293069306930693</v>
       </c>
       <c r="P8">
-        <v>0.3310122910122911</v>
+        <v>0.0686108610861086</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -772,40 +772,40 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.8141891861891862</v>
+        <v>0.7948394839483948</v>
       </c>
       <c r="D9">
-        <v>-0.0007315207315207315</v>
+        <v>0.03437143714371436</v>
       </c>
       <c r="E9">
-        <v>-0.009282645282645285</v>
+        <v>-0.04020402040204019</v>
       </c>
       <c r="G9">
-        <v>-0.0178030258030258</v>
+        <v>-0.04452445244524452</v>
       </c>
       <c r="H9">
-        <v>-0.008634296634296636</v>
+        <v>0.007908790879087909</v>
       </c>
       <c r="I9">
-        <v>-0.01146227946227946</v>
+        <v>0.1024542454245424</v>
       </c>
       <c r="J9">
-        <v>-0.006353850449158206</v>
+        <v>-0.2369636963696369</v>
       </c>
       <c r="K9">
-        <v>-0.3903267903267904</v>
+        <v>-0.4938133813381337</v>
       </c>
       <c r="L9">
-        <v>-0.05642979242979244</v>
+        <v>-0.03239123912391239</v>
       </c>
       <c r="M9">
-        <v>-0.03622370422370422</v>
+        <v>-0.0266066606660666</v>
       </c>
       <c r="O9">
-        <v>-0.02796960396960397</v>
+        <v>-0.04922892289228922</v>
       </c>
       <c r="P9">
-        <v>-0.01658857658857659</v>
+        <v>-0.04145214521452145</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -816,40 +816,40 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>0.3765829365829366</v>
+        <v>0.2643144314431443</v>
       </c>
       <c r="D10">
-        <v>-0.003600843600843601</v>
+        <v>-0.05465346534653465</v>
       </c>
       <c r="E10">
-        <v>0.002653334653334654</v>
+        <v>0.06719471947194719</v>
       </c>
       <c r="G10">
-        <v>-0.006925854925854927</v>
+        <v>0.03553555355535553</v>
       </c>
       <c r="H10">
-        <v>0.0257969297969298</v>
+        <v>0.01431743174317432</v>
       </c>
       <c r="I10">
-        <v>0.04357605157605158</v>
+        <v>-0.05666966696669666</v>
       </c>
       <c r="J10">
-        <v>0.008128082250003485</v>
+        <v>0.01874587458745874</v>
       </c>
       <c r="K10">
-        <v>0.849852645852646</v>
+        <v>0.8615181518151815</v>
       </c>
       <c r="L10">
-        <v>-0.00476964476964477</v>
+        <v>0.07876387638763875</v>
       </c>
       <c r="M10">
-        <v>0.03581263181263182</v>
+        <v>0.0341074107410741</v>
       </c>
       <c r="O10">
-        <v>0.009267477267477269</v>
+        <v>0.03491149114911491</v>
       </c>
       <c r="P10">
-        <v>-0.03107441507441508</v>
+        <v>-0.01278127812781278</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -860,40 +860,40 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>-0.06821654021654022</v>
+        <v>-0.1255925592559256</v>
       </c>
       <c r="D11">
-        <v>0.07075467475467476</v>
+        <v>0.08823282328232822</v>
       </c>
       <c r="E11">
-        <v>-0.06894185694185695</v>
+        <v>-0.1003300330033003</v>
       </c>
       <c r="G11">
-        <v>-0.009524613524613524</v>
+        <v>-0.01083708370837084</v>
       </c>
       <c r="H11">
-        <v>-0.01005765405765406</v>
+        <v>-0.1441224122412241</v>
       </c>
       <c r="I11">
-        <v>-0.05375321375321376</v>
+        <v>-0.1155475547554755</v>
       </c>
       <c r="J11">
-        <v>0.02242221475854798</v>
+        <v>0.1300690069006901</v>
       </c>
       <c r="K11">
-        <v>0.05800715800715801</v>
+        <v>-0.07433543354335433</v>
       </c>
       <c r="L11">
-        <v>-0.00402010002010002</v>
+        <v>-0.1348454845484548</v>
       </c>
       <c r="M11">
-        <v>-0.04210829410829411</v>
+        <v>0.0381998199819982</v>
       </c>
       <c r="O11">
-        <v>-0.0186945426945427</v>
+        <v>-0.02364236423642364</v>
       </c>
       <c r="P11">
-        <v>-0.004211584211584212</v>
+        <v>-0.04432043204320432</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -904,40 +904,40 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.00121044121044121</v>
+        <v>-0.1022982298229823</v>
       </c>
       <c r="D12">
-        <v>-0.007304767304767305</v>
+        <v>-0.1913591359135913</v>
       </c>
       <c r="E12">
-        <v>0.006269622269622271</v>
+        <v>0.1784338433843384</v>
       </c>
       <c r="G12">
-        <v>-0.00463001263001263</v>
+        <v>0.1765736573657365</v>
       </c>
       <c r="H12">
-        <v>-0.01538095538095538</v>
+        <v>-0.1659525952595259</v>
       </c>
       <c r="I12">
-        <v>-0.02742773142773143</v>
+        <v>-0.1073267326732673</v>
       </c>
       <c r="J12">
-        <v>0.03115211561939735</v>
+        <v>-0.04138013801380137</v>
       </c>
       <c r="K12">
-        <v>-0.04700059100059101</v>
+        <v>0.01261326132613261</v>
       </c>
       <c r="L12">
-        <v>-0.02005835605835606</v>
+        <v>0.02282628262826283</v>
       </c>
       <c r="M12">
-        <v>0.01011205011205011</v>
+        <v>0.01850585058505851</v>
       </c>
       <c r="O12">
-        <v>0.0236033276033276</v>
+        <v>0.01154515451545154</v>
       </c>
       <c r="P12">
-        <v>-0.02960767760767761</v>
+        <v>0.03655565556555655</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -946,40 +946,40 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>0.1198082278082278</v>
+        <v>0.2552295229522952</v>
       </c>
       <c r="D13">
-        <v>-0.03272423672423672</v>
+        <v>0.07637563756375637</v>
       </c>
       <c r="E13">
-        <v>0.02978438978438978</v>
+        <v>-0.08162016201620162</v>
       </c>
       <c r="G13">
-        <v>0.007468543468543469</v>
+        <v>-0.03401140114011401</v>
       </c>
       <c r="H13">
-        <v>-0.02888255288255288</v>
+        <v>0.01492949294929493</v>
       </c>
       <c r="I13">
-        <v>0.5802783162783164</v>
+        <v>0.564128412841284</v>
       </c>
       <c r="J13">
-        <v>0.01125904742793314</v>
+        <v>-0.00252025202520252</v>
       </c>
       <c r="K13">
-        <v>0.0364948564948565</v>
+        <v>-0.2173897389738974</v>
       </c>
       <c r="L13">
-        <v>-0.0146968346968347</v>
+        <v>-0.01333333333333333</v>
       </c>
       <c r="M13">
-        <v>-0.01997155997155997</v>
+        <v>0.0572097209720972</v>
       </c>
       <c r="O13">
-        <v>0.006794970794970796</v>
+        <v>-0.06673867386738673</v>
       </c>
       <c r="P13">
-        <v>-0.009687009687009687</v>
+        <v>-0.04013201320132012</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -988,40 +988,40 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.2803179643179644</v>
+        <v>-0.2215541554155415</v>
       </c>
       <c r="D14">
-        <v>-0.04645838245838246</v>
+        <v>-0.01572157215721572</v>
       </c>
       <c r="E14">
-        <v>0.05114127914127915</v>
+        <v>-0.00288028802880288</v>
       </c>
       <c r="G14">
-        <v>0.06365273165273165</v>
+        <v>-0.08727272727272728</v>
       </c>
       <c r="H14">
-        <v>-0.04747048747048747</v>
+        <v>0.02412241224122412</v>
       </c>
       <c r="I14">
-        <v>-0.02457429657429657</v>
+        <v>-0.05876987698769877</v>
       </c>
       <c r="J14">
-        <v>-0.09050696586457035</v>
+        <v>0.1085628562856285</v>
       </c>
       <c r="K14">
-        <v>-0.02218066618066618</v>
+        <v>-0.139021902190219</v>
       </c>
       <c r="L14">
-        <v>0.01483265083265083</v>
+        <v>-0.1684728472847285</v>
       </c>
       <c r="M14">
-        <v>0.01794289794289794</v>
+        <v>0.09477347734773477</v>
       </c>
       <c r="O14">
-        <v>-0.0184993144993145</v>
+        <v>-0.02085808580858085</v>
       </c>
       <c r="P14">
-        <v>0.02727188727188727</v>
+        <v>-0.02761476147614761</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Element</t>
   </si>
@@ -85,6 +85,24 @@
     <t>biorefinery</t>
   </si>
   <si>
+    <t>Stream-crude glycerol</t>
+  </si>
+  <si>
+    <t>Stream-pure glycerine</t>
+  </si>
+  <si>
+    <t>Stream-cellulase</t>
+  </si>
+  <si>
+    <t>Pretreatment reactor system</t>
+  </si>
+  <si>
+    <t>Pretreatment and saccharification</t>
+  </si>
+  <si>
+    <t>Cofermenation</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
@@ -113,6 +131,27 @@
   </si>
   <si>
     <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -470,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,211 +596,211 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>0.2886288628862886</v>
+        <v>0.2469923450796938</v>
       </c>
       <c r="D4">
-        <v>0.9879147914791477</v>
+        <v>0.986758600910344</v>
       </c>
       <c r="E4">
-        <v>-0.9999879987998799</v>
+        <v>-0.9064206340488252</v>
       </c>
       <c r="G4">
-        <v>-0.7213921392139213</v>
+        <v>-0.2607400958056038</v>
       </c>
       <c r="H4">
-        <v>0.3545274527452745</v>
+        <v>0.14821650026466</v>
       </c>
       <c r="I4">
-        <v>-0.01120912091209121</v>
+        <v>-0.01894716392588655</v>
       </c>
       <c r="J4">
-        <v>-0.003924392439243924</v>
+        <v>0.09486322049384942</v>
       </c>
       <c r="K4">
-        <v>-0.06499849984998499</v>
+        <v>-0.05555093415803736</v>
       </c>
       <c r="L4">
-        <v>-0.05506150615061506</v>
+        <v>-0.01780926090437044</v>
       </c>
       <c r="M4">
-        <v>-0.2575937593759375</v>
+        <v>-0.03925711030628441</v>
       </c>
       <c r="O4">
-        <v>-0.07167116711671166</v>
+        <v>0.1799079849563194</v>
       </c>
       <c r="P4">
-        <v>0.03185118511851185</v>
+        <v>-0.0597553403422136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.127980798079808</v>
+        <v>0.002719967628798705</v>
       </c>
       <c r="D5">
-        <v>-0.1746654665466546</v>
+        <v>-0.01263442082537683</v>
       </c>
       <c r="E5">
-        <v>0.1735733573357336</v>
+        <v>0.003635610673424427</v>
       </c>
       <c r="G5">
-        <v>0.1646324632463246</v>
+        <v>-0.01400248577609943</v>
       </c>
       <c r="H5">
-        <v>-0.148982898289829</v>
+        <v>0.002204892856195714</v>
       </c>
       <c r="I5">
-        <v>-0.1615121512151215</v>
+        <v>-0.00162593900903756</v>
       </c>
       <c r="J5">
-        <v>0.04241224122412241</v>
+        <v>0.006856403604230787</v>
       </c>
       <c r="K5">
-        <v>0.1749174917491749</v>
+        <v>0.02680977630439105</v>
       </c>
       <c r="L5">
-        <v>-0.01184518451845184</v>
+        <v>-0.01568699045147962</v>
       </c>
       <c r="M5">
-        <v>0.1174677467746775</v>
+        <v>0.001161293422451737</v>
       </c>
       <c r="O5">
-        <v>0.1235043504350435</v>
+        <v>0.001493080475723219</v>
       </c>
       <c r="P5">
-        <v>-0.1793939393939394</v>
+        <v>0.0041438075257523</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0.1322532253225322</v>
+        <v>-0.005504406844176273</v>
       </c>
       <c r="D6">
-        <v>0.1131953195319532</v>
+        <v>0.001741205157648206</v>
       </c>
       <c r="E6">
-        <v>-0.1153315331533153</v>
+        <v>-0.01351631305265252</v>
       </c>
       <c r="G6">
-        <v>-0.08160816081608159</v>
+        <v>-0.02795857897434316</v>
       </c>
       <c r="H6">
-        <v>0.04373237323732372</v>
+        <v>0.008176599399063974</v>
       </c>
       <c r="I6">
-        <v>-0.05526552655265525</v>
+        <v>-0.002647487913899516</v>
       </c>
       <c r="J6">
-        <v>-0.001188118811881188</v>
+        <v>2.309856093059482E-05</v>
       </c>
       <c r="K6">
-        <v>0.0463006300630063</v>
+        <v>-0.03712544558101782</v>
       </c>
       <c r="L6">
-        <v>0.0008880888088808879</v>
+        <v>-0.1142591916103677</v>
       </c>
       <c r="M6">
-        <v>0.07713171317131713</v>
+        <v>-0.005349988629999545</v>
       </c>
       <c r="O6">
-        <v>0.1208160816081608</v>
+        <v>-0.02427687293907492</v>
       </c>
       <c r="P6">
-        <v>-0.01336933693369337</v>
+        <v>0.01058900922356037</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>0.1062466246624662</v>
+        <v>0.07469037821961512</v>
       </c>
       <c r="D7">
-        <v>0.09689768976897688</v>
+        <v>0.1372498183859927</v>
       </c>
       <c r="E7">
-        <v>0.04159615961596159</v>
+        <v>0.01711218903648756</v>
       </c>
       <c r="G7">
-        <v>0.4447884788478847</v>
+        <v>0.2961772888710915</v>
       </c>
       <c r="H7">
-        <v>0.008832883288328831</v>
+        <v>0.01034132422165297</v>
       </c>
       <c r="I7">
-        <v>0.004116411641164116</v>
+        <v>-0.0005958812398352496</v>
       </c>
       <c r="J7">
-        <v>-0.1628082808280828</v>
+        <v>-0.0002316977853346404</v>
       </c>
       <c r="K7">
-        <v>0.2631623162316231</v>
+        <v>0.1568886093475444</v>
       </c>
       <c r="L7">
-        <v>0.9896549654965496</v>
+        <v>0.9900151562406062</v>
       </c>
       <c r="M7">
-        <v>-0.1831743174317431</v>
+        <v>-0.02128182440327298</v>
       </c>
       <c r="O7">
-        <v>0.08698469846984698</v>
+        <v>0.2410137919125517</v>
       </c>
       <c r="P7">
-        <v>0.2030723072307231</v>
+        <v>0.0379576852623074</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0.07792379237923792</v>
+        <v>0.2129644699905788</v>
       </c>
       <c r="D8">
-        <v>-0.05966996699669967</v>
+        <v>-0.01777513271100531</v>
       </c>
       <c r="E8">
-        <v>0.06756675667566756</v>
+        <v>0.02097542474301698</v>
       </c>
       <c r="G8">
-        <v>-0.4363756375637562</v>
+        <v>-0.7436686520507461</v>
       </c>
       <c r="H8">
-        <v>0.9027662766276627</v>
+        <v>0.9552592068503682</v>
       </c>
       <c r="I8">
-        <v>0.7969636963696368</v>
+        <v>0.9576457947858317</v>
       </c>
       <c r="J8">
-        <v>-0.02419441944194419</v>
+        <v>0.0401082729918821</v>
       </c>
       <c r="K8">
-        <v>0.05653765376537653</v>
+        <v>0.03122272915290916</v>
       </c>
       <c r="L8">
-        <v>0.008412841284128413</v>
+        <v>0.006746925197877007</v>
       </c>
       <c r="M8">
-        <v>0.1164956495649565</v>
+        <v>0.0924876377795055</v>
       </c>
       <c r="O8">
-        <v>0.0293069306930693</v>
+        <v>0.01494019326960773</v>
       </c>
       <c r="P8">
-        <v>0.0686108610861086</v>
+        <v>0.3387088714683548</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -769,43 +808,43 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>0.7948394839483948</v>
+        <v>0.736641527993661</v>
       </c>
       <c r="D9">
-        <v>0.03437143714371436</v>
+        <v>-0.01412434578097383</v>
       </c>
       <c r="E9">
-        <v>-0.04020402040204019</v>
+        <v>0.01779446211977848</v>
       </c>
       <c r="G9">
-        <v>-0.04452445244524452</v>
+        <v>0.02516545819061832</v>
       </c>
       <c r="H9">
-        <v>0.007908790879087909</v>
+        <v>-0.02771862523674501</v>
       </c>
       <c r="I9">
-        <v>0.1024542454245424</v>
+        <v>-0.02565199811407992</v>
       </c>
       <c r="J9">
-        <v>-0.2369636963696369</v>
+        <v>-0.005749891191651616</v>
       </c>
       <c r="K9">
-        <v>-0.4938133813381337</v>
+        <v>-0.4006174151926966</v>
       </c>
       <c r="L9">
-        <v>-0.03239123912391239</v>
+        <v>0.001468714522748581</v>
       </c>
       <c r="M9">
-        <v>-0.0266066606660666</v>
+        <v>0.01017482709499308</v>
       </c>
       <c r="O9">
-        <v>-0.04922892289228922</v>
+        <v>0.002857585362303414</v>
       </c>
       <c r="P9">
-        <v>-0.04145214521452145</v>
+        <v>0.0187662575826503</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -813,43 +852,43 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>0.2643144314431443</v>
+        <v>0.4041355319414213</v>
       </c>
       <c r="D10">
-        <v>-0.05465346534653465</v>
+        <v>-0.01573430683737227</v>
       </c>
       <c r="E10">
-        <v>0.06719471947194719</v>
+        <v>0.00729812150792486</v>
       </c>
       <c r="G10">
-        <v>0.03553555355535553</v>
+        <v>-0.01160250488010019</v>
       </c>
       <c r="H10">
-        <v>0.01431743174317432</v>
+        <v>0.00920472305618892</v>
       </c>
       <c r="I10">
-        <v>-0.05666966696669666</v>
+        <v>0.007491558251662329</v>
       </c>
       <c r="J10">
-        <v>0.01874587458745874</v>
+        <v>0.01244500749338446</v>
       </c>
       <c r="K10">
-        <v>0.8615181518151815</v>
+        <v>0.863551453326058</v>
       </c>
       <c r="L10">
-        <v>0.07876387638763875</v>
+        <v>-0.01375502282220091</v>
       </c>
       <c r="M10">
-        <v>0.0341074107410741</v>
+        <v>-0.002713292556531702</v>
       </c>
       <c r="O10">
-        <v>0.03491149114911491</v>
+        <v>0.0250781325551253</v>
       </c>
       <c r="P10">
-        <v>-0.01278127812781278</v>
+        <v>-0.01135464381418575</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -857,43 +896,43 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.1255925592559256</v>
+        <v>-0.03624571911382876</v>
       </c>
       <c r="D11">
-        <v>0.08823282328232822</v>
+        <v>0.01644022884960915</v>
       </c>
       <c r="E11">
-        <v>-0.1003300330033003</v>
+        <v>-0.01249146213165848</v>
       </c>
       <c r="G11">
-        <v>-0.01083708370837084</v>
+        <v>-0.002402886624115465</v>
       </c>
       <c r="H11">
-        <v>-0.1441224122412241</v>
+        <v>0.01047237325089493</v>
       </c>
       <c r="I11">
-        <v>-0.1155475547554755</v>
+        <v>0.008194044615761783</v>
       </c>
       <c r="J11">
-        <v>0.1300690069006901</v>
+        <v>0.001916086253195283</v>
       </c>
       <c r="K11">
-        <v>-0.07433543354335433</v>
+        <v>0.01308897767555911</v>
       </c>
       <c r="L11">
-        <v>-0.1348454845484548</v>
+        <v>-0.0006360300734412029</v>
       </c>
       <c r="M11">
-        <v>0.0381998199819982</v>
+        <v>0.001527963325118533</v>
       </c>
       <c r="O11">
-        <v>-0.02364236423642364</v>
+        <v>0.01055817594232704</v>
       </c>
       <c r="P11">
-        <v>-0.04432043204320432</v>
+        <v>-0.0128029449921178</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -901,134 +940,527 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>-0.1022982298229823</v>
+        <v>0.01126975485079019</v>
       </c>
       <c r="D12">
-        <v>-0.1913591359135913</v>
+        <v>-0.01090531579621263</v>
       </c>
       <c r="E12">
-        <v>0.1784338433843384</v>
+        <v>0.01224867610594704</v>
       </c>
       <c r="G12">
-        <v>0.1765736573657365</v>
+        <v>-0.00818205104728204</v>
       </c>
       <c r="H12">
-        <v>-0.1659525952595259</v>
+        <v>0.01806721982668879</v>
       </c>
       <c r="I12">
-        <v>-0.1073267326732673</v>
+        <v>0.02000939523237581</v>
       </c>
       <c r="J12">
-        <v>-0.04138013801380137</v>
+        <v>0.007664973716806461</v>
       </c>
       <c r="K12">
-        <v>0.01261326132613261</v>
+        <v>-0.02390648783625951</v>
       </c>
       <c r="L12">
-        <v>0.02282628262826283</v>
+        <v>0.003811060760442429</v>
       </c>
       <c r="M12">
-        <v>0.01850585058505851</v>
+        <v>0.006088397427535897</v>
       </c>
       <c r="O12">
-        <v>0.01154515451545154</v>
+        <v>0.00836607979064319</v>
       </c>
       <c r="P12">
-        <v>0.03655565556555655</v>
+        <v>0.003910724508428979</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>0.2552295229522952</v>
+        <v>0.1085119401804776</v>
       </c>
       <c r="D13">
-        <v>0.07637563756375637</v>
+        <v>-0.001362051126482045</v>
       </c>
       <c r="E13">
-        <v>-0.08162016201620162</v>
+        <v>-0.0006576818183072727</v>
       </c>
       <c r="G13">
-        <v>-0.03401140114011401</v>
+        <v>0.001771656166866246</v>
       </c>
       <c r="H13">
-        <v>0.01492949294929493</v>
+        <v>-0.009877623851104952</v>
       </c>
       <c r="I13">
-        <v>0.564128412841284</v>
+        <v>0.267955776926231</v>
       </c>
       <c r="J13">
-        <v>-0.00252025202520252</v>
+        <v>-0.0016910668041297</v>
       </c>
       <c r="K13">
-        <v>-0.2173897389738974</v>
+        <v>0.003968628926745156</v>
       </c>
       <c r="L13">
-        <v>-0.01333333333333333</v>
+        <v>-0.01549295409171816</v>
       </c>
       <c r="M13">
-        <v>0.0572097209720972</v>
+        <v>0.001467111802684472</v>
       </c>
       <c r="O13">
-        <v>-0.06673867386738673</v>
+        <v>-0.0195405726856229</v>
       </c>
       <c r="P13">
-        <v>-0.04013201320132012</v>
+        <v>-0.003022912632916505</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.2215541554155415</v>
+        <v>-0.2306115292884611</v>
       </c>
       <c r="D14">
-        <v>-0.01572157215721572</v>
+        <v>0.01709096890763875</v>
       </c>
       <c r="E14">
-        <v>-0.00288028802880288</v>
+        <v>-0.01556795620671825</v>
       </c>
       <c r="G14">
-        <v>-0.08727272727272728</v>
+        <v>-0.01932036298081452</v>
       </c>
       <c r="H14">
-        <v>0.02412241224122412</v>
+        <v>0.02125225736209029</v>
       </c>
       <c r="I14">
-        <v>-0.05876987698769877</v>
+        <v>0.02607368293094731</v>
       </c>
       <c r="J14">
-        <v>0.1085628562856285</v>
+        <v>0.01794493694696562</v>
       </c>
       <c r="K14">
-        <v>-0.139021902190219</v>
+        <v>-0.02285042462601699</v>
       </c>
       <c r="L14">
-        <v>-0.1684728472847285</v>
+        <v>0.006835094577403783</v>
       </c>
       <c r="M14">
-        <v>0.09477347734773477</v>
+        <v>-0.003613125552525021</v>
       </c>
       <c r="O14">
-        <v>-0.02085808580858085</v>
+        <v>0.01545468714618748</v>
       </c>
       <c r="P14">
-        <v>-0.02761476147614761</v>
+        <v>0.009024059592962382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>0.006306360444254418</v>
+      </c>
+      <c r="D15">
+        <v>-0.009873999466959977</v>
+      </c>
+      <c r="E15">
+        <v>0.01306457313058292</v>
+      </c>
+      <c r="G15">
+        <v>0.007759988566399542</v>
+      </c>
+      <c r="H15">
+        <v>0.0003115197244607889</v>
+      </c>
+      <c r="I15">
+        <v>0.004215266088610644</v>
+      </c>
+      <c r="J15">
+        <v>-0.03462567221099908</v>
+      </c>
+      <c r="K15">
+        <v>0.03986642444265697</v>
+      </c>
+      <c r="L15">
+        <v>0.003834531129381244</v>
+      </c>
+      <c r="M15">
+        <v>-0.00532308203692328</v>
+      </c>
+      <c r="O15">
+        <v>0.001035289097411564</v>
+      </c>
+      <c r="P15">
+        <v>-0.01999254799970192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>-0.03460892144835685</v>
+      </c>
+      <c r="D16">
+        <v>0.008261616714464669</v>
+      </c>
+      <c r="E16">
+        <v>-0.007483931723357268</v>
+      </c>
+      <c r="G16">
+        <v>-0.02657627127105085</v>
+      </c>
+      <c r="H16">
+        <v>0.0306785727151429</v>
+      </c>
+      <c r="I16">
+        <v>0.02145504949820198</v>
+      </c>
+      <c r="J16">
+        <v>-0.0004381455536520081</v>
+      </c>
+      <c r="K16">
+        <v>-0.05574883835795352</v>
+      </c>
+      <c r="L16">
+        <v>-0.0005849899433995977</v>
+      </c>
+      <c r="M16">
+        <v>-0.00319263199970528</v>
+      </c>
+      <c r="O16">
+        <v>0.005045688393827534</v>
+      </c>
+      <c r="P16">
+        <v>0.01187203602688144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>-0.04764594046583761</v>
+      </c>
+      <c r="D17">
+        <v>0.03858327696733107</v>
+      </c>
+      <c r="E17">
+        <v>-0.03801147377645895</v>
+      </c>
+      <c r="G17">
+        <v>-0.0314825474993019</v>
+      </c>
+      <c r="H17">
+        <v>0.05101708322468332</v>
+      </c>
+      <c r="I17">
+        <v>0.04796831395073255</v>
+      </c>
+      <c r="J17">
+        <v>0.0264738707145793</v>
+      </c>
+      <c r="K17">
+        <v>-0.03717406689496267</v>
+      </c>
+      <c r="L17">
+        <v>-0.003088877787555111</v>
+      </c>
+      <c r="M17">
+        <v>-0.004457309266292371</v>
+      </c>
+      <c r="O17">
+        <v>-0.009309064404362574</v>
+      </c>
+      <c r="P17">
+        <v>0.02608625422745017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0.03419123464764938</v>
+      </c>
+      <c r="D18">
+        <v>0.003723822580952902</v>
+      </c>
+      <c r="E18">
+        <v>-0.007510390380415614</v>
+      </c>
+      <c r="G18">
+        <v>-0.008686688795467551</v>
+      </c>
+      <c r="H18">
+        <v>0.01364614153784566</v>
+      </c>
+      <c r="I18">
+        <v>0.01683920947356838</v>
+      </c>
+      <c r="J18">
+        <v>-0.01131136955971246</v>
+      </c>
+      <c r="K18">
+        <v>0.007176040319041612</v>
+      </c>
+      <c r="L18">
+        <v>0.01595050767802031</v>
+      </c>
+      <c r="M18">
+        <v>-0.005984205359368213</v>
+      </c>
+      <c r="O18">
+        <v>-0.005041146345645853</v>
+      </c>
+      <c r="P18">
+        <v>0.006408139168325566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>-0.05760135849605433</v>
+      </c>
+      <c r="D19">
+        <v>-0.0155791351191654</v>
+      </c>
+      <c r="E19">
+        <v>0.02634056562962262</v>
+      </c>
+      <c r="G19">
+        <v>0.02074488927779557</v>
+      </c>
+      <c r="H19">
+        <v>0.2312987370599495</v>
+      </c>
+      <c r="I19">
+        <v>0.004456985650279426</v>
+      </c>
+      <c r="J19">
+        <v>-0.01245136379764054</v>
+      </c>
+      <c r="K19">
+        <v>-0.01846022550640902</v>
+      </c>
+      <c r="L19">
+        <v>0.01639494535979781</v>
+      </c>
+      <c r="M19">
+        <v>-0.01441665849666634</v>
+      </c>
+      <c r="O19">
+        <v>-0.001334751605390064</v>
+      </c>
+      <c r="P19">
+        <v>0.1897123344044933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>0.03539219229568769</v>
+      </c>
+      <c r="D20">
+        <v>-0.003172570398902815</v>
+      </c>
+      <c r="E20">
+        <v>0.1627699066387962</v>
+      </c>
+      <c r="G20">
+        <v>0.1853130940045237</v>
+      </c>
+      <c r="H20">
+        <v>0.009657139874285594</v>
+      </c>
+      <c r="I20">
+        <v>-0.001009648360385934</v>
+      </c>
+      <c r="J20">
+        <v>0.01215310877762445</v>
+      </c>
+      <c r="K20">
+        <v>0.0004549330741973229</v>
+      </c>
+      <c r="L20">
+        <v>-0.01193075970923039</v>
+      </c>
+      <c r="M20">
+        <v>0.3096087550083502</v>
+      </c>
+      <c r="O20">
+        <v>0.05643515707340628</v>
+      </c>
+      <c r="P20">
+        <v>0.007276784739071388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0.1094825405393016</v>
+      </c>
+      <c r="D21">
+        <v>0.01979661909586476</v>
+      </c>
+      <c r="E21">
+        <v>0.2308598804343952</v>
+      </c>
+      <c r="G21">
+        <v>0.06036057563042301</v>
+      </c>
+      <c r="H21">
+        <v>-0.001099089451963578</v>
+      </c>
+      <c r="I21">
+        <v>0.02411104560444182</v>
+      </c>
+      <c r="J21">
+        <v>-0.04211265822463477</v>
+      </c>
+      <c r="K21">
+        <v>0.03127438973097559</v>
+      </c>
+      <c r="L21">
+        <v>-0.007654384626175384</v>
+      </c>
+      <c r="M21">
+        <v>0.4563434365577373</v>
+      </c>
+      <c r="O21">
+        <v>0.07258737573549502</v>
+      </c>
+      <c r="P21">
+        <v>-0.09935659808626392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0.008622298328891932</v>
+      </c>
+      <c r="D22">
+        <v>0.007140949245637969</v>
+      </c>
+      <c r="E22">
+        <v>-0.008556948438277938</v>
+      </c>
+      <c r="G22">
+        <v>-0.01120222345608894</v>
+      </c>
+      <c r="H22">
+        <v>-0.005456121722244868</v>
+      </c>
+      <c r="I22">
+        <v>-0.0009385170615406823</v>
+      </c>
+      <c r="J22">
+        <v>0.007670824629042182</v>
+      </c>
+      <c r="K22">
+        <v>-0.003772572438902897</v>
+      </c>
+      <c r="L22">
+        <v>-0.01204490976179639</v>
+      </c>
+      <c r="M22">
+        <v>-0.005130972397238895</v>
+      </c>
+      <c r="O22">
+        <v>-0.01640521784020871</v>
+      </c>
+      <c r="P22">
+        <v>0.007994872255794891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>0.06176445731857828</v>
+      </c>
+      <c r="D23">
+        <v>0.003069008474760338</v>
+      </c>
+      <c r="E23">
+        <v>0.2762791139631645</v>
+      </c>
+      <c r="G23">
+        <v>0.4319510131180405</v>
+      </c>
+      <c r="H23">
+        <v>0.007680950131238004</v>
+      </c>
+      <c r="I23">
+        <v>-0.01020257877610315</v>
+      </c>
+      <c r="J23">
+        <v>-0.06633927977667689</v>
+      </c>
+      <c r="K23">
+        <v>-0.0353853202314128</v>
+      </c>
+      <c r="L23">
+        <v>0.01430910431636417</v>
+      </c>
+      <c r="M23">
+        <v>-0.7404759409470375</v>
+      </c>
+      <c r="O23">
+        <v>-0.1389748927589957</v>
+      </c>
+      <c r="P23">
+        <v>-0.03310948596437943</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -620,40 +620,40 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.2923241083241083</v>
+        <v>0.2596529836529836</v>
       </c>
       <c r="D4">
         <v>0.9906490746490749</v>
       </c>
       <c r="E4">
-        <v>-0.667979695979696</v>
+        <v>-0.6954166554166555</v>
       </c>
       <c r="G4">
-        <v>0.05548985548985549</v>
+        <v>0.09613748413748414</v>
       </c>
       <c r="H4">
-        <v>0.164978828978829</v>
+        <v>0.2086755766755767</v>
       </c>
       <c r="I4">
         <v>0.03146466746466747</v>
       </c>
       <c r="J4">
-        <v>0.4526255739834508</v>
+        <v>0.9827388916871084</v>
       </c>
       <c r="K4">
-        <v>-0.0200969840969841</v>
+        <v>-0.04619263019263019</v>
       </c>
       <c r="L4">
         <v>-0.02204633804633805</v>
       </c>
       <c r="M4">
-        <v>0.009661413661413662</v>
+        <v>-0.005388245388245389</v>
       </c>
       <c r="O4">
-        <v>0.2135516855516856</v>
+        <v>0.231008475008475</v>
       </c>
       <c r="P4">
-        <v>-0.1086283806283806</v>
+        <v>0.009827049827049829</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -662,40 +662,40 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.04696657096657097</v>
+        <v>-0.04685897885897886</v>
       </c>
       <c r="D5">
         <v>-0.01407033807033807</v>
       </c>
       <c r="E5">
-        <v>0.0002052842052842053</v>
+        <v>-0.0002432642432642433</v>
       </c>
       <c r="G5">
-        <v>0.003220659220659221</v>
+        <v>-0.00196960996960997</v>
       </c>
       <c r="H5">
-        <v>0.005621585621585622</v>
+        <v>0.004716868716868717</v>
       </c>
       <c r="I5">
         <v>-0.006816534816534816</v>
       </c>
       <c r="J5">
-        <v>0.04045765657902956</v>
+        <v>-0.008375162400287888</v>
       </c>
       <c r="K5">
-        <v>-0.002123354123354123</v>
+        <v>-0.01767884967884968</v>
       </c>
       <c r="L5">
         <v>-0.03243014043014043</v>
       </c>
       <c r="M5">
-        <v>0.0226041346041346</v>
+        <v>-0.006360678360678361</v>
       </c>
       <c r="O5">
-        <v>-0.01948854748854749</v>
+        <v>0.001426837426837427</v>
       </c>
       <c r="P5">
-        <v>-0.009482373482373482</v>
+        <v>0.02415405615405616</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -704,40 +704,40 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.03188687588687589</v>
+        <v>0.02998997398997399</v>
       </c>
       <c r="D6">
         <v>-0.01526743526743527</v>
       </c>
       <c r="E6">
-        <v>-0.01236590436590437</v>
+        <v>-0.01399058599058599</v>
       </c>
       <c r="G6">
-        <v>-0.05085859485859485</v>
+        <v>-0.06058130458130458</v>
       </c>
       <c r="H6">
-        <v>0.03248399648399649</v>
+        <v>0.0327931167931168</v>
       </c>
       <c r="I6">
         <v>0.03009468609468609</v>
       </c>
       <c r="J6">
-        <v>-0.002062796068984457</v>
+        <v>0.02064175470367997</v>
       </c>
       <c r="K6">
-        <v>-0.07359146559146559</v>
+        <v>-0.07750651750651752</v>
       </c>
       <c r="L6">
         <v>-0.2927236607236607</v>
       </c>
       <c r="M6">
-        <v>-0.02478841278841279</v>
+        <v>-0.01996840396840397</v>
       </c>
       <c r="O6">
-        <v>-0.05987500787500787</v>
+        <v>-0.05328646128646129</v>
       </c>
       <c r="P6">
-        <v>0.02562561762561763</v>
+        <v>0.07050913050913052</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -746,40 +746,40 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.04582805782805783</v>
+        <v>0.04776941976941977</v>
       </c>
       <c r="D7">
         <v>0.104957492957493</v>
       </c>
       <c r="E7">
-        <v>0.03959451959451959</v>
+        <v>0.03916734316734317</v>
       </c>
       <c r="G7">
-        <v>0.2200451320451321</v>
+        <v>0.2496169896169897</v>
       </c>
       <c r="H7">
-        <v>-0.05063069063069063</v>
+        <v>-0.0521935001935002</v>
       </c>
       <c r="I7">
         <v>-0.04742785142785143</v>
       </c>
       <c r="J7">
-        <v>-0.008143436167866476</v>
+        <v>0.01294489898373368</v>
       </c>
       <c r="K7">
-        <v>0.1454564294564295</v>
+        <v>0.1503346383346383</v>
       </c>
       <c r="L7">
         <v>0.8574442374442375</v>
       </c>
       <c r="M7">
-        <v>-0.04143209343209343</v>
+        <v>-0.04971394971394972</v>
       </c>
       <c r="O7">
-        <v>0.148046116046116</v>
+        <v>0.1723214683214684</v>
       </c>
       <c r="P7">
-        <v>0.01550233550233551</v>
+        <v>-0.01127830727830728</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -788,40 +788,40 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.2284821604821605</v>
+        <v>0.2496276936276936</v>
       </c>
       <c r="D8">
         <v>0.009708321708321709</v>
       </c>
       <c r="E8">
-        <v>0.001384741384741385</v>
+        <v>0.00078997278997279</v>
       </c>
       <c r="G8">
-        <v>-0.4870854670854671</v>
+        <v>-0.5787579267579268</v>
       </c>
       <c r="H8">
-        <v>0.9588001548001549</v>
+        <v>0.9490031530031531</v>
       </c>
       <c r="I8">
         <v>0.9574888414888415</v>
       </c>
       <c r="J8">
-        <v>-0.2860938289521104</v>
+        <v>-0.1492582797060545</v>
       </c>
       <c r="K8">
-        <v>-0.01373298173298173</v>
+        <v>0.01994613194613195</v>
       </c>
       <c r="L8">
         <v>-0.07664809664809666</v>
       </c>
       <c r="M8">
-        <v>0.01834242634242634</v>
+        <v>-0.0151002271002271</v>
       </c>
       <c r="O8">
-        <v>-0.09557439557439558</v>
+        <v>-0.2320784680784681</v>
       </c>
       <c r="P8">
-        <v>-0.008434724434724435</v>
+        <v>0.01808717408717408</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,40 +830,40 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.01140403140403141</v>
+        <v>-0.00680968280968281</v>
       </c>
       <c r="D9">
         <v>-0.02969009369009369</v>
       </c>
       <c r="E9">
-        <v>-0.03171567171567172</v>
+        <v>-0.03076588276588276</v>
       </c>
       <c r="G9">
-        <v>-0.04623086223086224</v>
+        <v>-0.1254562734562734</v>
       </c>
       <c r="H9">
-        <v>0.0255042735042735</v>
+        <v>0.02652588252588253</v>
       </c>
       <c r="I9">
         <v>0.02799237999237999</v>
       </c>
       <c r="J9">
-        <v>-0.001184545188098824</v>
+        <v>0.01678736883773095</v>
       </c>
       <c r="K9">
-        <v>0.2296530856530857</v>
+        <v>0.007341583341583342</v>
       </c>
       <c r="L9">
         <v>-0.390932490932491</v>
       </c>
       <c r="M9">
-        <v>0.6064767184767185</v>
+        <v>0.1962891642891643</v>
       </c>
       <c r="O9">
-        <v>0.03926791526791527</v>
+        <v>-0.04714039114039114</v>
       </c>
       <c r="P9">
-        <v>-0.499953535953536</v>
+        <v>-0.1672394872394873</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -872,40 +872,40 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.01329187329187329</v>
+        <v>-0.01775417375417376</v>
       </c>
       <c r="D10">
         <v>0.04107169707169708</v>
       </c>
       <c r="E10">
-        <v>-0.04244733044733046</v>
+        <v>-0.04244897444897445</v>
       </c>
       <c r="G10">
-        <v>0.02421742821742822</v>
+        <v>0.02978458178458179</v>
       </c>
       <c r="H10">
-        <v>-0.06321834321834321</v>
+        <v>-0.06183774183774185</v>
       </c>
       <c r="I10">
         <v>-0.09330344130344131</v>
       </c>
       <c r="J10">
-        <v>0.0908999771726771</v>
+        <v>0.05238554254269917</v>
       </c>
       <c r="K10">
-        <v>-0.0002376482376482377</v>
+        <v>0.0005014445014445015</v>
       </c>
       <c r="L10">
         <v>0.00544957744957745</v>
       </c>
       <c r="M10">
-        <v>0.032993840993841</v>
+        <v>0.0348010068010068</v>
       </c>
       <c r="O10">
-        <v>0.01841431841431842</v>
+        <v>0.04386227586227586</v>
       </c>
       <c r="P10">
-        <v>0.01728703728703729</v>
+        <v>-0.00906980106980107</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +914,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.02908243708243708</v>
+        <v>-0.02774619974619975</v>
       </c>
       <c r="D11">
         <v>-0.02201109401109401</v>
       </c>
       <c r="E11">
-        <v>0.01585650385650386</v>
+        <v>0.01776128976128976</v>
       </c>
       <c r="G11">
-        <v>0.005292293292293292</v>
+        <v>0.006283218283218283</v>
       </c>
       <c r="H11">
-        <v>-0.01593630393630394</v>
+        <v>-0.01842060642060642</v>
       </c>
       <c r="I11">
         <v>-0.015003147003147</v>
       </c>
       <c r="J11">
-        <v>0.01468840473246995</v>
+        <v>-0.02636407444316667</v>
       </c>
       <c r="K11">
-        <v>0.07296769296769297</v>
+        <v>0.07790375390375391</v>
       </c>
       <c r="L11">
         <v>0.09262899262899264</v>
       </c>
       <c r="M11">
-        <v>0.04557525357525358</v>
+        <v>0.04256823056823057</v>
       </c>
       <c r="O11">
-        <v>0.04754459954459955</v>
+        <v>0.01810557010557011</v>
       </c>
       <c r="P11">
-        <v>-0.02375431175431176</v>
+        <v>-0.03119181119181119</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,40 +956,40 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.006681942681942682</v>
+        <v>0.005820701820701821</v>
       </c>
       <c r="D12">
         <v>0.02010812010812011</v>
       </c>
       <c r="E12">
-        <v>0.008472428472428472</v>
+        <v>0.007436395436395436</v>
       </c>
       <c r="G12">
-        <v>0.06306277506277506</v>
+        <v>0.07367889767889768</v>
       </c>
       <c r="H12">
-        <v>-0.04846204846204846</v>
+        <v>-0.04790345990345991</v>
       </c>
       <c r="I12">
         <v>-0.03115366315366316</v>
       </c>
       <c r="J12">
-        <v>0.01813647019087961</v>
+        <v>0.02149693556142637</v>
       </c>
       <c r="K12">
-        <v>0.03713452913452914</v>
+        <v>0.04307592707592708</v>
       </c>
       <c r="L12">
         <v>0.06573475773475775</v>
       </c>
       <c r="M12">
-        <v>-0.008707016707016707</v>
+        <v>-0.03048048648048648</v>
       </c>
       <c r="O12">
-        <v>-0.002564090564090564</v>
+        <v>-0.05320714120714121</v>
       </c>
       <c r="P12">
-        <v>-0.03057334257334257</v>
+        <v>0.03848271848271848</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -998,40 +998,40 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.03752680952680953</v>
+        <v>0.03723594123594124</v>
       </c>
       <c r="D13">
         <v>0.03835232635232635</v>
       </c>
       <c r="E13">
-        <v>-0.01864170664170664</v>
+        <v>-0.0190924270924271</v>
       </c>
       <c r="G13">
-        <v>-0.0005511005511005511</v>
+        <v>-2.155202155202155E-05</v>
       </c>
       <c r="H13">
-        <v>0.02616656616656617</v>
+        <v>0.02791595191595192</v>
       </c>
       <c r="I13">
         <v>0.01915155115155116</v>
       </c>
       <c r="J13">
-        <v>0.01107250710572463</v>
+        <v>0.04038717450833604</v>
       </c>
       <c r="K13">
-        <v>-0.001131613131613132</v>
+        <v>0.0001421641421641422</v>
       </c>
       <c r="L13">
         <v>0.02611011811011811</v>
       </c>
       <c r="M13">
-        <v>0.0001743721743721744</v>
+        <v>0.008008604008604009</v>
       </c>
       <c r="O13">
-        <v>-0.01428353028353028</v>
+        <v>0.00390983190983191</v>
       </c>
       <c r="P13">
-        <v>0.02483678483678484</v>
+        <v>0.02305172305172305</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1042,40 +1042,40 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.6743403503403503</v>
+        <v>0.6707055467055467</v>
       </c>
       <c r="D14">
         <v>-0.05544807144807145</v>
       </c>
       <c r="E14">
-        <v>0.028000684000684</v>
+        <v>0.03041928641928642</v>
       </c>
       <c r="G14">
-        <v>-0.01863226263226263</v>
+        <v>-0.02374036774036774</v>
       </c>
       <c r="H14">
-        <v>-0.0100990420990421</v>
+        <v>-0.01192792792792793</v>
       </c>
       <c r="I14">
         <v>0.000481968481968482</v>
       </c>
       <c r="J14">
-        <v>0.01280268084108888</v>
+        <v>-0.04723512537683076</v>
       </c>
       <c r="K14">
-        <v>-0.2998293118293119</v>
+        <v>-0.3477790557790558</v>
       </c>
       <c r="L14">
         <v>-0.04342744342744342</v>
       </c>
       <c r="M14">
-        <v>0.02228001428001428</v>
+        <v>0.01474207474207474</v>
       </c>
       <c r="O14">
-        <v>-0.08171987771987774</v>
+        <v>-0.06758548358548358</v>
       </c>
       <c r="P14">
-        <v>0.03128368328368328</v>
+        <v>0.01339148539148539</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1086,40 +1086,40 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.3966014286014286</v>
+        <v>0.3978856218856219</v>
       </c>
       <c r="D15">
         <v>-0.01454819054819055</v>
       </c>
       <c r="E15">
-        <v>0.01793261393261393</v>
+        <v>0.01841185841185841</v>
       </c>
       <c r="G15">
-        <v>0.04560551760551761</v>
+        <v>0.05245280845280846</v>
       </c>
       <c r="H15">
-        <v>-0.05435719835719836</v>
+        <v>-0.05332933732933734</v>
       </c>
       <c r="I15">
         <v>-0.06471343671343671</v>
       </c>
       <c r="J15">
-        <v>-0.004312612325550163</v>
+        <v>-0.00826718629198785</v>
       </c>
       <c r="K15">
-        <v>0.8403144723144723</v>
+        <v>0.89190627990628</v>
       </c>
       <c r="L15">
         <v>0.03933108333108333</v>
       </c>
       <c r="M15">
-        <v>-0.00951933351933352</v>
+        <v>-0.011995487995488</v>
       </c>
       <c r="O15">
-        <v>-0.005473901473901474</v>
+        <v>0.02220957420957421</v>
       </c>
       <c r="P15">
-        <v>-0.003417075417075417</v>
+        <v>-0.008568140568140568</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1130,40 +1130,40 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.09562328362328364</v>
+        <v>-0.07371626571626573</v>
       </c>
       <c r="D16">
         <v>-0.01641125241125241</v>
       </c>
       <c r="E16">
-        <v>-0.0009230049230049231</v>
+        <v>0.0007045927045927047</v>
       </c>
       <c r="G16">
-        <v>-0.02752289152289153</v>
+        <v>-0.02913256113256113</v>
       </c>
       <c r="H16">
-        <v>-0.004501060501060502</v>
+        <v>-0.006072882072882073</v>
       </c>
       <c r="I16">
         <v>-0.01223472023472024</v>
       </c>
       <c r="J16">
-        <v>0.01513905918447636</v>
+        <v>-0.01462266866653667</v>
       </c>
       <c r="K16">
-        <v>0.009125697125697127</v>
+        <v>0.001743949743949744</v>
       </c>
       <c r="L16">
         <v>-0.02218193818193819</v>
       </c>
       <c r="M16">
-        <v>0.04827092427092428</v>
+        <v>0.02433620433620434</v>
       </c>
       <c r="O16">
-        <v>-0.003188919188919189</v>
+        <v>0.01292445692445692</v>
       </c>
       <c r="P16">
-        <v>-0.02013986013986014</v>
+        <v>-0.02934127734127735</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,40 +1174,40 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.0440966360966361</v>
+        <v>-0.04401728001728002</v>
       </c>
       <c r="D17">
         <v>0.002120762120762121</v>
       </c>
       <c r="E17">
-        <v>0.01842863442863443</v>
+        <v>0.01700701700701701</v>
       </c>
       <c r="G17">
-        <v>0.03287382887382887</v>
+        <v>0.02317868317868318</v>
       </c>
       <c r="H17">
-        <v>0.01172042372042372</v>
+        <v>0.0117961317961318</v>
       </c>
       <c r="I17">
         <v>0.002827226827226827</v>
       </c>
       <c r="J17">
-        <v>-0.02823461831932218</v>
+        <v>-0.0007270927292740075</v>
       </c>
       <c r="K17">
-        <v>-0.04721189921189922</v>
+        <v>-0.05788254988254989</v>
       </c>
       <c r="L17">
         <v>0.003948855948855949</v>
       </c>
       <c r="M17">
-        <v>-0.0231980631980632</v>
+        <v>-0.04243743043743044</v>
       </c>
       <c r="O17">
-        <v>-0.09363440163440165</v>
+        <v>-0.01202228402228402</v>
       </c>
       <c r="P17">
-        <v>0.0672849912849913</v>
+        <v>0.10001032001032</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1216,40 +1216,40 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.1073303513303513</v>
+        <v>0.1256018096018096</v>
       </c>
       <c r="D18">
         <v>0.05252010452010453</v>
       </c>
       <c r="E18">
-        <v>-0.04077110877110877</v>
+        <v>-0.04310856710856711</v>
       </c>
       <c r="G18">
-        <v>0.02687906687906688</v>
+        <v>0.03534454734454734</v>
       </c>
       <c r="H18">
-        <v>-0.01306804906804907</v>
+        <v>-0.01138065538065538</v>
       </c>
       <c r="I18">
         <v>0.2669475509475509</v>
       </c>
       <c r="J18">
-        <v>0.02364201571294176</v>
+        <v>0.0527561929144615</v>
       </c>
       <c r="K18">
-        <v>-0.02588642588642589</v>
+        <v>-0.01375515775515775</v>
       </c>
       <c r="L18">
         <v>0.02630627030627031</v>
       </c>
       <c r="M18">
-        <v>-0.02234121434121434</v>
+        <v>-0.01974935574935575</v>
       </c>
       <c r="O18">
-        <v>0.02074858474858475</v>
+        <v>0.01914141114141114</v>
       </c>
       <c r="P18">
-        <v>0.00680859080859081</v>
+        <v>0.002167778167778168</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1258,40 +1258,40 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.2417924657924658</v>
+        <v>-0.2390818550818551</v>
       </c>
       <c r="D19">
         <v>0.0156023676023676</v>
       </c>
       <c r="E19">
-        <v>-0.003494379494379494</v>
+        <v>-0.005611865611865613</v>
       </c>
       <c r="G19">
-        <v>0.005428289428289428</v>
+        <v>0.006295410295410296</v>
       </c>
       <c r="H19">
-        <v>-0.007394707394707396</v>
+        <v>-0.006220974220974221</v>
       </c>
       <c r="I19">
         <v>-0.01395296595296595</v>
       </c>
       <c r="J19">
-        <v>0.06185781804339151</v>
+        <v>0.01410556414788084</v>
       </c>
       <c r="K19">
-        <v>-0.08117484917484918</v>
+        <v>-0.08542160542160543</v>
       </c>
       <c r="L19">
         <v>0.04557214557214558</v>
       </c>
       <c r="M19">
-        <v>-0.0388996708996709</v>
+        <v>-0.0283013923013923</v>
       </c>
       <c r="O19">
-        <v>-0.02178710178710179</v>
+        <v>0.02361931161931162</v>
       </c>
       <c r="P19">
-        <v>0.02157797757797758</v>
+        <v>-0.02077613677613678</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1302,40 +1302,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.0426980226980227</v>
+        <v>0.04351963951963952</v>
       </c>
       <c r="D20">
         <v>-0.00967818967818968</v>
       </c>
       <c r="E20">
-        <v>0.0378969978969979</v>
+        <v>0.03594837594837595</v>
       </c>
       <c r="G20">
-        <v>0.01972474372474373</v>
+        <v>0.01078951078951079</v>
       </c>
       <c r="H20">
-        <v>0.02307351507351508</v>
+        <v>0.02117646917646918</v>
       </c>
       <c r="I20">
         <v>0.007792087792087793</v>
       </c>
       <c r="J20">
-        <v>-0.03363871573963189</v>
+        <v>-0.005905193922909504</v>
       </c>
       <c r="K20">
-        <v>0.04472994872994873</v>
+        <v>0.03636078036078037</v>
       </c>
       <c r="L20">
         <v>-0.0441939081939082</v>
       </c>
       <c r="M20">
-        <v>-0.01056776256776257</v>
+        <v>-0.04203533403533403</v>
       </c>
       <c r="O20">
-        <v>-0.0221014781014781</v>
+        <v>-0.02043210843210843</v>
       </c>
       <c r="P20">
-        <v>-0.01814131814131814</v>
+        <v>-0.00285013485013485</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,40 +1346,40 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.008343992343992345</v>
+        <v>-0.009192453192453194</v>
       </c>
       <c r="D21">
         <v>0.01755649755649756</v>
       </c>
       <c r="E21">
-        <v>-0.01424084624084624</v>
+        <v>-0.01537379137379137</v>
       </c>
       <c r="G21">
-        <v>0.007119127119127119</v>
+        <v>0.01410411810411811</v>
       </c>
       <c r="H21">
-        <v>0.002341874341874342</v>
+        <v>0.003329367329367329</v>
       </c>
       <c r="I21">
         <v>0.007805047805047806</v>
       </c>
       <c r="J21">
-        <v>0.0214819175463633</v>
+        <v>0.01498470302965714</v>
       </c>
       <c r="K21">
-        <v>-0.02658638658638659</v>
+        <v>-0.01201879201879202</v>
       </c>
       <c r="L21">
         <v>0.008723132723132724</v>
       </c>
       <c r="M21">
-        <v>-0.04718761118761119</v>
+        <v>-0.02666244266244266</v>
       </c>
       <c r="O21">
-        <v>-0.01585449985449985</v>
+        <v>-0.01911313911313911</v>
       </c>
       <c r="P21">
-        <v>0.04620565020565021</v>
+        <v>0.04636013836013837</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1390,40 +1390,40 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.1091455811455811</v>
+        <v>-0.1132961692961693</v>
       </c>
       <c r="D22">
         <v>-0.01179406779406779</v>
       </c>
       <c r="E22">
-        <v>-0.01492233892233892</v>
+        <v>-0.01336464136464136</v>
       </c>
       <c r="G22">
-        <v>-0.03847856647856648</v>
+        <v>-0.03812201012201012</v>
       </c>
       <c r="H22">
-        <v>0.02628541428541428</v>
+        <v>0.02773844773844774</v>
       </c>
       <c r="I22">
         <v>0.02314093114093114</v>
       </c>
       <c r="J22">
-        <v>-0.02268508675314201</v>
+        <v>-0.01299559303457981</v>
       </c>
       <c r="K22">
-        <v>-0.02942398142398142</v>
+        <v>-0.04983949383949384</v>
       </c>
       <c r="L22">
         <v>-0.007108339108339109</v>
       </c>
       <c r="M22">
-        <v>0.04918513318513319</v>
+        <v>0.03025530625530625</v>
       </c>
       <c r="O22">
-        <v>0.01228102828102828</v>
+        <v>0.04293996693996694</v>
       </c>
       <c r="P22">
-        <v>-0.01604393204393205</v>
+        <v>-0.002713910713910714</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1432,40 +1432,40 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.008958476958476961</v>
+        <v>0.01246737646737647</v>
       </c>
       <c r="D23">
         <v>-0.02954870954870955</v>
       </c>
       <c r="E23">
-        <v>0.02998022998022998</v>
+        <v>0.03115439515439516</v>
       </c>
       <c r="G23">
-        <v>-0.003980991980991981</v>
+        <v>-0.004480768480768481</v>
       </c>
       <c r="H23">
-        <v>0.01051517851517852</v>
+        <v>0.006594150594150595</v>
       </c>
       <c r="I23">
         <v>0.02651451851451852</v>
       </c>
       <c r="J23">
-        <v>0.03099849709149258</v>
+        <v>-0.02164891571386246</v>
       </c>
       <c r="K23">
-        <v>0.006817926817926818</v>
+        <v>0.002967410967410967</v>
       </c>
       <c r="L23">
         <v>-0.08436397236397238</v>
       </c>
       <c r="M23">
-        <v>0.01954287154287154</v>
+        <v>-0.01038169038169038</v>
       </c>
       <c r="O23">
-        <v>0.01510608310608311</v>
+        <v>-0.003711543711543712</v>
       </c>
       <c r="P23">
-        <v>-0.05758276558276559</v>
+        <v>-0.0539036099036099</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1476,40 +1476,40 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>-0.0823946983946984</v>
+        <v>-0.09145696345696346</v>
       </c>
       <c r="D24">
         <v>0.02714054714054714</v>
       </c>
       <c r="E24">
-        <v>-0.006373062373062373</v>
+        <v>-0.008322464322464323</v>
       </c>
       <c r="G24">
-        <v>0.032996252996253</v>
+        <v>0.03662758862758863</v>
       </c>
       <c r="H24">
-        <v>0.1841313041313041</v>
+        <v>0.1922434802434802</v>
       </c>
       <c r="I24">
         <v>-0.05307761307761308</v>
       </c>
       <c r="J24">
-        <v>0.001116427119776401</v>
+        <v>0.03109134718462123</v>
       </c>
       <c r="K24">
-        <v>-0.009092253092253092</v>
+        <v>-0.002637326637326637</v>
       </c>
       <c r="L24">
         <v>0.04072717672717673</v>
       </c>
       <c r="M24">
-        <v>-0.02436628836628837</v>
+        <v>-0.01522778722778723</v>
       </c>
       <c r="O24">
-        <v>0.005852957852957853</v>
+        <v>0.03633607233607234</v>
       </c>
       <c r="P24">
-        <v>0.1638427518427519</v>
+        <v>0.2168985728985729</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1520,40 +1520,40 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>0.03338081738081738</v>
+        <v>0.03915785115785116</v>
       </c>
       <c r="D25">
         <v>-0.02148814548814549</v>
       </c>
       <c r="E25">
-        <v>0.1490574170574171</v>
+        <v>0.1526518646518647</v>
       </c>
       <c r="G25">
-        <v>0.1464923544923545</v>
+        <v>0.1288057768057768</v>
       </c>
       <c r="H25">
-        <v>-0.01323243723243723</v>
+        <v>-0.01965589965589966</v>
       </c>
       <c r="I25">
         <v>-0.01765396165396165</v>
       </c>
       <c r="J25">
-        <v>-0.04367997181101173</v>
+        <v>-0.03266490276289747</v>
       </c>
       <c r="K25">
-        <v>0.01316449316449317</v>
+        <v>0.02072706872706873</v>
       </c>
       <c r="L25">
         <v>0.04411342411342412</v>
       </c>
       <c r="M25">
-        <v>0.03468356268356269</v>
+        <v>0.09855804255804257</v>
       </c>
       <c r="O25">
-        <v>0.02077478077478078</v>
+        <v>0.05387789387789389</v>
       </c>
       <c r="P25">
-        <v>0.01986102786102786</v>
+        <v>0.02696226296226296</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1562,40 +1562,40 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.05473923073923075</v>
+        <v>0.05114715914715914</v>
       </c>
       <c r="D26">
         <v>0.03473577473577474</v>
       </c>
       <c r="E26">
-        <v>-0.02786958386958387</v>
+        <v>-0.02896009696009696</v>
       </c>
       <c r="G26">
-        <v>-0.004816732816732817</v>
+        <v>-0.004391476391476391</v>
       </c>
       <c r="H26">
-        <v>0.00529027729027729</v>
+        <v>0.005131565131565132</v>
       </c>
       <c r="I26">
         <v>-0.0006616566616566617</v>
       </c>
       <c r="J26">
-        <v>-9.890409920081151E-05</v>
+        <v>0.03517525128077703</v>
       </c>
       <c r="K26">
-        <v>-0.05932906732906732</v>
+        <v>-0.0657923457923458</v>
       </c>
       <c r="L26">
         <v>-0.0224981024981025</v>
       </c>
       <c r="M26">
-        <v>-0.01814181014181014</v>
+        <v>-0.002168150168150168</v>
       </c>
       <c r="O26">
-        <v>-0.01976688776688777</v>
+        <v>-0.004765000765000765</v>
       </c>
       <c r="P26">
-        <v>0.01043324243324243</v>
+        <v>-0.009147177147177148</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1604,40 +1604,40 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>0.08105686505686507</v>
+        <v>0.0907059667059667</v>
       </c>
       <c r="D27">
         <v>0.01847086247086247</v>
       </c>
       <c r="E27">
-        <v>0.2197440157440157</v>
+        <v>0.2217726897726898</v>
       </c>
       <c r="G27">
-        <v>0.1068432348432349</v>
+        <v>0.04478686478686479</v>
       </c>
       <c r="H27">
-        <v>-0.02465720465720466</v>
+        <v>-0.03718083718083719</v>
       </c>
       <c r="I27">
         <v>-0.01829105429105429</v>
       </c>
       <c r="J27">
-        <v>0.02458578065953801</v>
+        <v>-0.02875294683920568</v>
       </c>
       <c r="K27">
-        <v>0.02937977337977338</v>
+        <v>0.0233951753951754</v>
       </c>
       <c r="L27">
         <v>-0.02710221910221911</v>
       </c>
       <c r="M27">
-        <v>0.1045020805020805</v>
+        <v>0.1499033699033699</v>
       </c>
       <c r="O27">
-        <v>0.04668521868521869</v>
+        <v>0.02132452532452533</v>
       </c>
       <c r="P27">
-        <v>-0.07323307323307324</v>
+        <v>-0.1074758754758755</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1646,40 +1646,40 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.003189051189051189</v>
+        <v>0.001832413832413832</v>
       </c>
       <c r="D28">
         <v>0.01018312618312618</v>
       </c>
       <c r="E28">
-        <v>0.02595632595632596</v>
+        <v>0.02453709653709654</v>
       </c>
       <c r="G28">
-        <v>0.04824223224223225</v>
+        <v>0.05220686820686821</v>
       </c>
       <c r="H28">
-        <v>-0.02778000378000378</v>
+        <v>-0.02646099846099846</v>
       </c>
       <c r="I28">
         <v>-0.02736665136665137</v>
       </c>
       <c r="J28">
-        <v>0.04821519035983593</v>
+        <v>0.009327549355532004</v>
       </c>
       <c r="K28">
-        <v>-0.0364899724899725</v>
+        <v>-0.01494882294882295</v>
       </c>
       <c r="L28">
         <v>0.03120660720660721</v>
       </c>
       <c r="M28">
-        <v>-0.03474419874419875</v>
+        <v>-0.007615351615351616</v>
       </c>
       <c r="O28">
-        <v>-0.0304994824994825</v>
+        <v>-0.01584819984819985</v>
       </c>
       <c r="P28">
-        <v>0.06898149298149299</v>
+        <v>-0.004634200634200634</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1690,40 +1690,40 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>-0.03737145737145738</v>
+        <v>-0.03926933126933127</v>
       </c>
       <c r="D29">
         <v>-0.04744479544479545</v>
       </c>
       <c r="E29">
-        <v>-0.01304125304125304</v>
+        <v>-0.0103954183954184</v>
       </c>
       <c r="G29">
-        <v>-0.05323001323001323</v>
+        <v>-0.05207158007158007</v>
       </c>
       <c r="H29">
-        <v>-0.006634398634398635</v>
+        <v>-0.005913089913089913</v>
       </c>
       <c r="I29">
         <v>-0.01078780678780679</v>
       </c>
       <c r="J29">
-        <v>0.01587896192659881</v>
+        <v>-0.04129130941518334</v>
       </c>
       <c r="K29">
-        <v>-0.008144684144684146</v>
+        <v>-0.01378369378369378</v>
       </c>
       <c r="L29">
         <v>-0.004966024966024966</v>
       </c>
       <c r="M29">
-        <v>0.02056084456084456</v>
+        <v>0.03044448644448644</v>
       </c>
       <c r="O29">
-        <v>-0.01062290262290262</v>
+        <v>-0.0172012852012852</v>
       </c>
       <c r="P29">
-        <v>0.02194360594360595</v>
+        <v>0.0470998070998071</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1732,40 +1732,40 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>0.1808975528975529</v>
+        <v>0.1998485478485479</v>
       </c>
       <c r="D30">
         <v>0.01479131079131079</v>
       </c>
       <c r="E30">
-        <v>0.6795134115134115</v>
+        <v>0.6493874053874054</v>
       </c>
       <c r="G30">
-        <v>0.8111831231831232</v>
+        <v>0.7317209517209518</v>
       </c>
       <c r="H30">
-        <v>0.06667965067965069</v>
+        <v>0.04126468126468127</v>
       </c>
       <c r="I30">
         <v>0.02691687891687892</v>
       </c>
       <c r="J30">
-        <v>-0.1740518405739961</v>
+        <v>0.008236670261380273</v>
       </c>
       <c r="K30">
-        <v>-0.08489085689085689</v>
+        <v>-0.1050474210474211</v>
       </c>
       <c r="L30">
         <v>0.06005434805434805</v>
       </c>
       <c r="M30">
-        <v>-0.5627417507417508</v>
+        <v>-0.9447509487509488</v>
       </c>
       <c r="O30">
-        <v>-0.2720714600714601</v>
+        <v>-0.259993975993976</v>
       </c>
       <c r="P30">
-        <v>-0.09502363102363104</v>
+        <v>-0.07096796296796298</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -620,40 +620,40 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.2596529836529836</v>
+        <v>0.2782906822906823</v>
       </c>
       <c r="D4">
         <v>0.9906490746490749</v>
       </c>
       <c r="E4">
-        <v>-0.6954166554166555</v>
+        <v>-0.6954175074175075</v>
       </c>
       <c r="G4">
-        <v>0.09613748413748414</v>
+        <v>-0.07030780630780631</v>
       </c>
       <c r="H4">
-        <v>0.2086755766755767</v>
+        <v>0.181008685008685</v>
       </c>
       <c r="I4">
         <v>0.03146466746466747</v>
       </c>
       <c r="J4">
-        <v>0.9827388916871084</v>
+        <v>0.7123779347893363</v>
       </c>
       <c r="K4">
-        <v>-0.04619263019263019</v>
+        <v>-0.02157780957780958</v>
       </c>
       <c r="L4">
         <v>-0.02204633804633805</v>
       </c>
       <c r="M4">
-        <v>-0.005388245388245389</v>
+        <v>-0.005158661158661159</v>
       </c>
       <c r="O4">
-        <v>0.231008475008475</v>
+        <v>0.1475082155082155</v>
       </c>
       <c r="P4">
-        <v>0.009827049827049829</v>
+        <v>-0.05104981504981505</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -662,40 +662,40 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.04685897885897886</v>
+        <v>-0.0478944598944599</v>
       </c>
       <c r="D5">
         <v>-0.01407033807033807</v>
       </c>
       <c r="E5">
-        <v>-0.0002432642432642433</v>
+        <v>-0.0002412242412242412</v>
       </c>
       <c r="G5">
-        <v>-0.00196960996960997</v>
+        <v>-0.001615573615573616</v>
       </c>
       <c r="H5">
-        <v>0.004716868716868717</v>
+        <v>0.005742233742233742</v>
       </c>
       <c r="I5">
         <v>-0.006816534816534816</v>
       </c>
       <c r="J5">
-        <v>-0.008375162400287888</v>
+        <v>0.002111756130761936</v>
       </c>
       <c r="K5">
-        <v>-0.01767884967884968</v>
+        <v>-0.01770781770781771</v>
       </c>
       <c r="L5">
         <v>-0.03243014043014043</v>
       </c>
       <c r="M5">
-        <v>-0.006360678360678361</v>
+        <v>-0.006426006426006427</v>
       </c>
       <c r="O5">
-        <v>0.001426837426837427</v>
+        <v>0.003475071475071476</v>
       </c>
       <c r="P5">
-        <v>0.02415405615405616</v>
+        <v>0.02478972078972079</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -704,40 +704,40 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.02998997398997399</v>
+        <v>0.02992904992904994</v>
       </c>
       <c r="D6">
         <v>-0.01526743526743527</v>
       </c>
       <c r="E6">
-        <v>-0.01399058599058599</v>
+        <v>-0.01400610200610201</v>
       </c>
       <c r="G6">
-        <v>-0.06058130458130458</v>
+        <v>-0.05361166161166162</v>
       </c>
       <c r="H6">
-        <v>0.0327931167931168</v>
+        <v>0.03272784872784873</v>
       </c>
       <c r="I6">
         <v>0.03009468609468609</v>
       </c>
       <c r="J6">
-        <v>0.02064175470367997</v>
+        <v>0.04514364354993634</v>
       </c>
       <c r="K6">
-        <v>-0.07750651750651752</v>
+        <v>-0.07544327144327145</v>
       </c>
       <c r="L6">
         <v>-0.2927236607236607</v>
       </c>
       <c r="M6">
-        <v>-0.01996840396840397</v>
+        <v>-0.01964897564897565</v>
       </c>
       <c r="O6">
-        <v>-0.05328646128646129</v>
+        <v>-0.06495332895332896</v>
       </c>
       <c r="P6">
-        <v>0.07050913050913052</v>
+        <v>0.06211311811311811</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -746,40 +746,40 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.04776941976941977</v>
+        <v>0.0452978492978493</v>
       </c>
       <c r="D7">
         <v>0.104957492957493</v>
       </c>
       <c r="E7">
-        <v>0.03916734316734317</v>
+        <v>0.03918107118107118</v>
       </c>
       <c r="G7">
-        <v>0.2496169896169897</v>
+        <v>0.2244919044919045</v>
       </c>
       <c r="H7">
-        <v>-0.0521935001935002</v>
+        <v>-0.05035520635520636</v>
       </c>
       <c r="I7">
         <v>-0.04742785142785143</v>
       </c>
       <c r="J7">
-        <v>0.01294489898373368</v>
+        <v>-0.01933492950894388</v>
       </c>
       <c r="K7">
-        <v>0.1503346383346383</v>
+        <v>0.1523373083373084</v>
       </c>
       <c r="L7">
         <v>0.8574442374442375</v>
       </c>
       <c r="M7">
-        <v>-0.04971394971394972</v>
+        <v>-0.04996449796449796</v>
       </c>
       <c r="O7">
-        <v>0.1723214683214684</v>
+        <v>0.1722984522984523</v>
       </c>
       <c r="P7">
-        <v>-0.01127830727830728</v>
+        <v>-0.01130669930669931</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -788,40 +788,40 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.2496276936276936</v>
+        <v>0.2532646092646093</v>
       </c>
       <c r="D8">
         <v>0.009708321708321709</v>
       </c>
       <c r="E8">
-        <v>0.00078997278997279</v>
+        <v>0.0007865887865887866</v>
       </c>
       <c r="G8">
-        <v>-0.5787579267579268</v>
+        <v>-0.4910637470637471</v>
       </c>
       <c r="H8">
-        <v>0.9490031530031531</v>
+        <v>0.9556848196848197</v>
       </c>
       <c r="I8">
         <v>0.9574888414888415</v>
       </c>
       <c r="J8">
-        <v>-0.1492582797060545</v>
+        <v>-0.1510407684001353</v>
       </c>
       <c r="K8">
-        <v>0.01994613194613195</v>
+        <v>0.003573255573255574</v>
       </c>
       <c r="L8">
         <v>-0.07664809664809666</v>
       </c>
       <c r="M8">
-        <v>-0.0151002271002271</v>
+        <v>-0.0149022869022869</v>
       </c>
       <c r="O8">
-        <v>-0.2320784680784681</v>
+        <v>-0.1825549225549226</v>
       </c>
       <c r="P8">
-        <v>0.01808717408717408</v>
+        <v>0.009334413334413335</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,40 +830,40 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.00680968280968281</v>
+        <v>-0.005511305511305511</v>
       </c>
       <c r="D9">
         <v>-0.02969009369009369</v>
       </c>
       <c r="E9">
-        <v>-0.03076588276588276</v>
+        <v>-0.03076525876525877</v>
       </c>
       <c r="G9">
-        <v>-0.1254562734562734</v>
+        <v>-0.1185184785184785</v>
       </c>
       <c r="H9">
-        <v>0.02652588252588253</v>
+        <v>0.02594694194694195</v>
       </c>
       <c r="I9">
         <v>0.02799237999237999</v>
       </c>
       <c r="J9">
-        <v>0.01678736883773095</v>
+        <v>0.01389039201540554</v>
       </c>
       <c r="K9">
-        <v>0.007341583341583342</v>
+        <v>0.003651459651459652</v>
       </c>
       <c r="L9">
         <v>-0.390932490932491</v>
       </c>
       <c r="M9">
-        <v>0.1962891642891643</v>
+        <v>0.1960662880662881</v>
       </c>
       <c r="O9">
-        <v>-0.04714039114039114</v>
+        <v>-0.03513415113415114</v>
       </c>
       <c r="P9">
-        <v>-0.1672394872394873</v>
+        <v>-0.1557458637458637</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -872,40 +872,40 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.01775417375417376</v>
+        <v>-0.01722806922806923</v>
       </c>
       <c r="D10">
         <v>0.04107169707169708</v>
       </c>
       <c r="E10">
-        <v>-0.04244897444897445</v>
+        <v>-0.04243849843849844</v>
       </c>
       <c r="G10">
-        <v>0.02978458178458179</v>
+        <v>0.01698610098610099</v>
       </c>
       <c r="H10">
-        <v>-0.06183774183774185</v>
+        <v>-0.06282901482901483</v>
       </c>
       <c r="I10">
         <v>-0.09330344130344131</v>
       </c>
       <c r="J10">
-        <v>0.05238554254269917</v>
+        <v>0.05575779825961844</v>
       </c>
       <c r="K10">
-        <v>0.0005014445014445015</v>
+        <v>0.001948909948909949</v>
       </c>
       <c r="L10">
         <v>0.00544957744957745</v>
       </c>
       <c r="M10">
-        <v>0.0348010068010068</v>
+        <v>0.0344965544965545</v>
       </c>
       <c r="O10">
-        <v>0.04386227586227586</v>
+        <v>0.04112395712395712</v>
       </c>
       <c r="P10">
-        <v>-0.00906980106980107</v>
+        <v>-0.009720201720201721</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +914,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.02774619974619975</v>
+        <v>-0.02915690915690916</v>
       </c>
       <c r="D11">
         <v>-0.02201109401109401</v>
       </c>
       <c r="E11">
-        <v>0.01776128976128976</v>
+        <v>0.01777537777537778</v>
       </c>
       <c r="G11">
-        <v>0.006283218283218283</v>
+        <v>0.01236777636777637</v>
       </c>
       <c r="H11">
-        <v>-0.01842060642060642</v>
+        <v>-0.01695968895968896</v>
       </c>
       <c r="I11">
         <v>-0.015003147003147</v>
       </c>
       <c r="J11">
-        <v>-0.02636407444316667</v>
+        <v>-0.03252957282233898</v>
       </c>
       <c r="K11">
-        <v>0.07790375390375391</v>
+        <v>0.07667833667833668</v>
       </c>
       <c r="L11">
         <v>0.09262899262899264</v>
       </c>
       <c r="M11">
-        <v>0.04256823056823057</v>
+        <v>0.0423966543966544</v>
       </c>
       <c r="O11">
-        <v>0.01810557010557011</v>
+        <v>0.02480970080970081</v>
       </c>
       <c r="P11">
-        <v>-0.03119181119181119</v>
+        <v>-0.02447443247443248</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,40 +956,40 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.005820701820701821</v>
+        <v>0.006185190185190185</v>
       </c>
       <c r="D12">
         <v>0.02010812010812011</v>
       </c>
       <c r="E12">
-        <v>0.007436395436395436</v>
+        <v>0.007432543432543434</v>
       </c>
       <c r="G12">
-        <v>0.07367889767889768</v>
+        <v>0.06506888906888908</v>
       </c>
       <c r="H12">
-        <v>-0.04790345990345991</v>
+        <v>-0.04822234822234822</v>
       </c>
       <c r="I12">
         <v>-0.03115366315366316</v>
       </c>
       <c r="J12">
-        <v>0.02149693556142637</v>
+        <v>-0.01117507127564692</v>
       </c>
       <c r="K12">
-        <v>0.04307592707592708</v>
+        <v>0.0434954714954715</v>
       </c>
       <c r="L12">
         <v>0.06573475773475775</v>
       </c>
       <c r="M12">
-        <v>-0.03048048648048648</v>
+        <v>-0.03035717435717436</v>
       </c>
       <c r="O12">
-        <v>-0.05320714120714121</v>
+        <v>-0.05889907089907091</v>
       </c>
       <c r="P12">
-        <v>0.03848271848271848</v>
+        <v>0.04046947646947647</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -998,40 +998,40 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.03723594123594124</v>
+        <v>0.03698920898920899</v>
       </c>
       <c r="D13">
         <v>0.03835232635232635</v>
       </c>
       <c r="E13">
-        <v>-0.0190924270924271</v>
+        <v>-0.01910550710550711</v>
       </c>
       <c r="G13">
-        <v>-2.155202155202155E-05</v>
+        <v>-0.003719139719139719</v>
       </c>
       <c r="H13">
-        <v>0.02791595191595192</v>
+        <v>0.02742783942783943</v>
       </c>
       <c r="I13">
         <v>0.01915155115155116</v>
       </c>
       <c r="J13">
-        <v>0.04038717450833604</v>
+        <v>0.0536329201156164</v>
       </c>
       <c r="K13">
-        <v>0.0001421641421641422</v>
+        <v>0.001230769230769231</v>
       </c>
       <c r="L13">
         <v>0.02611011811011811</v>
       </c>
       <c r="M13">
-        <v>0.008008604008604009</v>
+        <v>0.008255960255960256</v>
       </c>
       <c r="O13">
-        <v>0.00390983190983191</v>
+        <v>0.0004771564771564772</v>
       </c>
       <c r="P13">
-        <v>0.02305172305172305</v>
+        <v>0.02423551223551224</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1042,40 +1042,40 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.6707055467055467</v>
+        <v>0.6659997779997781</v>
       </c>
       <c r="D14">
         <v>-0.05544807144807145</v>
       </c>
       <c r="E14">
-        <v>0.03041928641928642</v>
+        <v>0.03042348642348642</v>
       </c>
       <c r="G14">
-        <v>-0.02374036774036774</v>
+        <v>-0.01466696666696667</v>
       </c>
       <c r="H14">
-        <v>-0.01192792792792793</v>
+        <v>-0.01092941892941893</v>
       </c>
       <c r="I14">
         <v>0.000481968481968482</v>
       </c>
       <c r="J14">
-        <v>-0.04723512537683076</v>
+        <v>-0.01408341221016292</v>
       </c>
       <c r="K14">
-        <v>-0.3477790557790558</v>
+        <v>-0.3525187725187726</v>
       </c>
       <c r="L14">
         <v>-0.04342744342744342</v>
       </c>
       <c r="M14">
-        <v>0.01474207474207474</v>
+        <v>0.01456134256134256</v>
       </c>
       <c r="O14">
-        <v>-0.06758548358548358</v>
+        <v>-0.06652464652464653</v>
       </c>
       <c r="P14">
-        <v>0.01339148539148539</v>
+        <v>0.0175006975006975</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1086,40 +1086,40 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.3978856218856219</v>
+        <v>0.3953519633519634</v>
       </c>
       <c r="D15">
         <v>-0.01454819054819055</v>
       </c>
       <c r="E15">
-        <v>0.01841185841185841</v>
+        <v>0.0184011784011784</v>
       </c>
       <c r="G15">
-        <v>0.05245280845280846</v>
+        <v>0.0477970197970198</v>
       </c>
       <c r="H15">
-        <v>-0.05332933732933734</v>
+        <v>-0.05378892578892579</v>
       </c>
       <c r="I15">
         <v>-0.06471343671343671</v>
       </c>
       <c r="J15">
-        <v>-0.00826718629198785</v>
+        <v>-0.03639350472104626</v>
       </c>
       <c r="K15">
-        <v>0.89190627990628</v>
+        <v>0.8964654564654565</v>
       </c>
       <c r="L15">
         <v>0.03933108333108333</v>
       </c>
       <c r="M15">
-        <v>-0.011995487995488</v>
+        <v>-0.01178237978237978</v>
       </c>
       <c r="O15">
-        <v>0.02220957420957421</v>
+        <v>0.02083593283593283</v>
       </c>
       <c r="P15">
-        <v>-0.008568140568140568</v>
+        <v>-0.004912276912276912</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1130,40 +1130,40 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.07371626571626573</v>
+        <v>-0.0911943071943072</v>
       </c>
       <c r="D16">
         <v>-0.01641125241125241</v>
       </c>
       <c r="E16">
-        <v>0.0007045927045927047</v>
+        <v>0.0007065007065007066</v>
       </c>
       <c r="G16">
-        <v>-0.02913256113256113</v>
+        <v>-0.02887762087762088</v>
       </c>
       <c r="H16">
-        <v>-0.006072882072882073</v>
+        <v>-0.005217485217485218</v>
       </c>
       <c r="I16">
         <v>-0.01223472023472024</v>
       </c>
       <c r="J16">
-        <v>-0.01462266866653667</v>
+        <v>-0.02023385041595507</v>
       </c>
       <c r="K16">
-        <v>0.001743949743949744</v>
+        <v>0.01004882204882205</v>
       </c>
       <c r="L16">
         <v>-0.02218193818193819</v>
       </c>
       <c r="M16">
-        <v>0.02433620433620434</v>
+        <v>0.02427751227751228</v>
       </c>
       <c r="O16">
-        <v>0.01292445692445692</v>
+        <v>0.02023253623253624</v>
       </c>
       <c r="P16">
-        <v>-0.02934127734127735</v>
+        <v>-0.02587748587748588</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,40 +1174,40 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.04401728001728002</v>
+        <v>-0.04457963657963658</v>
       </c>
       <c r="D17">
         <v>0.002120762120762121</v>
       </c>
       <c r="E17">
-        <v>0.01700701700701701</v>
+        <v>0.01701386901386901</v>
       </c>
       <c r="G17">
-        <v>0.02317868317868318</v>
+        <v>0.02594954594954595</v>
       </c>
       <c r="H17">
-        <v>0.0117961317961318</v>
+        <v>0.01282476082476083</v>
       </c>
       <c r="I17">
         <v>0.002827226827226827</v>
       </c>
       <c r="J17">
-        <v>-0.0007270927292740075</v>
+        <v>-0.003674427707497557</v>
       </c>
       <c r="K17">
-        <v>-0.05788254988254989</v>
+        <v>-0.05666526866526866</v>
       </c>
       <c r="L17">
         <v>0.003948855948855949</v>
       </c>
       <c r="M17">
-        <v>-0.04243743043743044</v>
+        <v>-0.04236351036351036</v>
       </c>
       <c r="O17">
-        <v>-0.01202228402228402</v>
+        <v>-0.01831273831273832</v>
       </c>
       <c r="P17">
-        <v>0.10001032001032</v>
+        <v>0.09250352050352051</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1216,40 +1216,40 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.1256018096018096</v>
+        <v>0.1318166038166038</v>
       </c>
       <c r="D18">
         <v>0.05252010452010453</v>
       </c>
       <c r="E18">
-        <v>-0.04310856710856711</v>
+        <v>-0.04310442710442711</v>
       </c>
       <c r="G18">
-        <v>0.03534454734454734</v>
+        <v>0.02312398712398712</v>
       </c>
       <c r="H18">
-        <v>-0.01138065538065538</v>
+        <v>-0.0124984804984805</v>
       </c>
       <c r="I18">
         <v>0.2669475509475509</v>
       </c>
       <c r="J18">
-        <v>0.0527561929144615</v>
+        <v>0.0476040180324542</v>
       </c>
       <c r="K18">
-        <v>-0.01375515775515775</v>
+        <v>-0.01424683424683425</v>
       </c>
       <c r="L18">
         <v>0.02630627030627031</v>
       </c>
       <c r="M18">
-        <v>-0.01974935574935575</v>
+        <v>-0.02008298008298008</v>
       </c>
       <c r="O18">
-        <v>0.01914141114141114</v>
+        <v>0.01144307944307944</v>
       </c>
       <c r="P18">
-        <v>0.002167778167778168</v>
+        <v>-0.01044595044595045</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1258,40 +1258,40 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.2390818550818551</v>
+        <v>-0.244950664950665</v>
       </c>
       <c r="D19">
         <v>0.0156023676023676</v>
       </c>
       <c r="E19">
-        <v>-0.005611865611865613</v>
+        <v>-0.0055999615999616</v>
       </c>
       <c r="G19">
-        <v>0.006295410295410296</v>
+        <v>0.003962415962415962</v>
       </c>
       <c r="H19">
-        <v>-0.006220974220974221</v>
+        <v>-0.007306087306087306</v>
       </c>
       <c r="I19">
         <v>-0.01395296595296595</v>
       </c>
       <c r="J19">
-        <v>0.01410556414788084</v>
+        <v>0.03026217053453007</v>
       </c>
       <c r="K19">
-        <v>-0.08542160542160543</v>
+        <v>-0.08186506586506588</v>
       </c>
       <c r="L19">
         <v>0.04557214557214558</v>
       </c>
       <c r="M19">
-        <v>-0.0283013923013923</v>
+        <v>-0.02861920061920062</v>
       </c>
       <c r="O19">
-        <v>0.02361931161931162</v>
+        <v>0.02055209655209655</v>
       </c>
       <c r="P19">
-        <v>-0.02077613677613678</v>
+        <v>-0.02748950748950749</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1302,40 +1302,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.04351963951963952</v>
+        <v>0.0412993732993733</v>
       </c>
       <c r="D20">
         <v>-0.00967818967818968</v>
       </c>
       <c r="E20">
-        <v>0.03594837594837595</v>
+        <v>0.03594993594993595</v>
       </c>
       <c r="G20">
-        <v>0.01078951078951079</v>
+        <v>0.0202961842961843</v>
       </c>
       <c r="H20">
-        <v>0.02117646917646918</v>
+        <v>0.02324669924669925</v>
       </c>
       <c r="I20">
         <v>0.007792087792087793</v>
       </c>
       <c r="J20">
-        <v>-0.005905193922909504</v>
+        <v>-0.03022795250000407</v>
       </c>
       <c r="K20">
-        <v>0.03636078036078037</v>
+        <v>0.03832923832923833</v>
       </c>
       <c r="L20">
         <v>-0.0441939081939082</v>
       </c>
       <c r="M20">
-        <v>-0.04203533403533403</v>
+        <v>-0.04199126999127</v>
       </c>
       <c r="O20">
-        <v>-0.02043210843210843</v>
+        <v>-0.02741126741126742</v>
       </c>
       <c r="P20">
-        <v>-0.00285013485013485</v>
+        <v>-0.004601644601644602</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1346,40 +1346,40 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.009192453192453194</v>
+        <v>-0.007621363621363623</v>
       </c>
       <c r="D21">
         <v>0.01755649755649756</v>
       </c>
       <c r="E21">
-        <v>-0.01537379137379137</v>
+        <v>-0.01536728736728737</v>
       </c>
       <c r="G21">
-        <v>0.01410411810411811</v>
+        <v>0.007249051249051249</v>
       </c>
       <c r="H21">
-        <v>0.003329367329367329</v>
+        <v>0.002536586536586537</v>
       </c>
       <c r="I21">
         <v>0.007805047805047806</v>
       </c>
       <c r="J21">
-        <v>0.01498470302965714</v>
+        <v>0.02805089830335639</v>
       </c>
       <c r="K21">
-        <v>-0.01201879201879202</v>
+        <v>-0.01197862797862798</v>
       </c>
       <c r="L21">
         <v>0.008723132723132724</v>
       </c>
       <c r="M21">
-        <v>-0.02666244266244266</v>
+        <v>-0.02687291087291088</v>
       </c>
       <c r="O21">
-        <v>-0.01911313911313911</v>
+        <v>-0.02404132804132804</v>
       </c>
       <c r="P21">
-        <v>0.04636013836013837</v>
+        <v>0.03938562338562339</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1390,40 +1390,40 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.1132961692961693</v>
+        <v>-0.1105961785961786</v>
       </c>
       <c r="D22">
         <v>-0.01179406779406779</v>
       </c>
       <c r="E22">
-        <v>-0.01336464136464136</v>
+        <v>-0.01337174537174537</v>
       </c>
       <c r="G22">
-        <v>-0.03812201012201012</v>
+        <v>-0.03720312120312121</v>
       </c>
       <c r="H22">
-        <v>0.02773844773844774</v>
+        <v>0.02616809016809017</v>
       </c>
       <c r="I22">
         <v>0.02314093114093114</v>
       </c>
       <c r="J22">
-        <v>-0.01299559303457981</v>
+        <v>0.002015966034109729</v>
       </c>
       <c r="K22">
-        <v>-0.04983949383949384</v>
+        <v>-0.05082686682686683</v>
       </c>
       <c r="L22">
         <v>-0.007108339108339109</v>
       </c>
       <c r="M22">
-        <v>0.03025530625530625</v>
+        <v>0.03049075849075849</v>
       </c>
       <c r="O22">
-        <v>0.04293996693996694</v>
+        <v>0.0452977532977533</v>
       </c>
       <c r="P22">
-        <v>-0.002713910713910714</v>
+        <v>-0.003334215334215334</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1432,40 +1432,40 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.01246737646737647</v>
+        <v>0.01186982386982387</v>
       </c>
       <c r="D23">
         <v>-0.02954870954870955</v>
       </c>
       <c r="E23">
-        <v>0.03115439515439516</v>
+        <v>0.03114750714750715</v>
       </c>
       <c r="G23">
-        <v>-0.004480768480768481</v>
+        <v>0.00298927498927499</v>
       </c>
       <c r="H23">
-        <v>0.006594150594150595</v>
+        <v>0.008298044298044299</v>
       </c>
       <c r="I23">
         <v>0.02651451851451852</v>
       </c>
       <c r="J23">
-        <v>-0.02164891571386246</v>
+        <v>0.002323754344668134</v>
       </c>
       <c r="K23">
-        <v>0.002967410967410967</v>
+        <v>0.001912297912297912</v>
       </c>
       <c r="L23">
         <v>-0.08436397236397238</v>
       </c>
       <c r="M23">
-        <v>-0.01038169038169038</v>
+        <v>-0.01023235023235023</v>
       </c>
       <c r="O23">
-        <v>-0.003711543711543712</v>
+        <v>-0.0004392724392724393</v>
       </c>
       <c r="P23">
-        <v>-0.0539036099036099</v>
+        <v>-0.05616602016602017</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1476,40 +1476,40 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>-0.09145696345696346</v>
+        <v>-0.0901950301950302</v>
       </c>
       <c r="D24">
         <v>0.02714054714054714</v>
       </c>
       <c r="E24">
-        <v>-0.008322464322464323</v>
+        <v>-0.008319932319932321</v>
       </c>
       <c r="G24">
-        <v>0.03662758862758863</v>
+        <v>0.0313006513006513</v>
       </c>
       <c r="H24">
-        <v>0.1922434802434802</v>
+        <v>0.1864398664398664</v>
       </c>
       <c r="I24">
         <v>-0.05307761307761308</v>
       </c>
       <c r="J24">
-        <v>0.03109134718462123</v>
+        <v>0.005547605597534048</v>
       </c>
       <c r="K24">
-        <v>-0.002637326637326637</v>
+        <v>0.001211749211749212</v>
       </c>
       <c r="L24">
         <v>0.04072717672717673</v>
       </c>
       <c r="M24">
-        <v>-0.01522778722778723</v>
+        <v>-0.0153991473991474</v>
       </c>
       <c r="O24">
-        <v>0.03633607233607234</v>
+        <v>0.02659359859359859</v>
       </c>
       <c r="P24">
-        <v>0.2168985728985729</v>
+        <v>0.1966657846657847</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1520,40 +1520,40 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>0.03915785115785116</v>
+        <v>0.03392758592758593</v>
       </c>
       <c r="D25">
         <v>-0.02148814548814549</v>
       </c>
       <c r="E25">
-        <v>0.1526518646518647</v>
+        <v>0.1526476886476887</v>
       </c>
       <c r="G25">
-        <v>0.1288057768057768</v>
+        <v>0.1510708990708991</v>
       </c>
       <c r="H25">
-        <v>-0.01965589965589966</v>
+        <v>-0.01275754875754876</v>
       </c>
       <c r="I25">
         <v>-0.01765396165396165</v>
       </c>
       <c r="J25">
-        <v>-0.03266490276289747</v>
+        <v>-0.07223589088601391</v>
       </c>
       <c r="K25">
-        <v>0.02072706872706873</v>
+        <v>0.0195019395019395</v>
       </c>
       <c r="L25">
         <v>0.04411342411342412</v>
       </c>
       <c r="M25">
-        <v>0.09855804255804257</v>
+        <v>0.09863037863037864</v>
       </c>
       <c r="O25">
-        <v>0.05387789387789389</v>
+        <v>0.0623987423987424</v>
       </c>
       <c r="P25">
-        <v>0.02696226296226296</v>
+        <v>0.02816555216555217</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1562,40 +1562,40 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.05114715914715914</v>
+        <v>0.05214456414456415</v>
       </c>
       <c r="D26">
         <v>0.03473577473577474</v>
       </c>
       <c r="E26">
-        <v>-0.02896009696009696</v>
+        <v>-0.02895565695565695</v>
       </c>
       <c r="G26">
-        <v>-0.004391476391476391</v>
+        <v>-0.007079011079011079</v>
       </c>
       <c r="H26">
-        <v>0.005131565131565132</v>
+        <v>0.005481893481893482</v>
       </c>
       <c r="I26">
         <v>-0.0006616566616566617</v>
       </c>
       <c r="J26">
-        <v>0.03517525128077703</v>
+        <v>0.005205299252146946</v>
       </c>
       <c r="K26">
-        <v>-0.0657923457923458</v>
+        <v>-0.06442231642231643</v>
       </c>
       <c r="L26">
         <v>-0.0224981024981025</v>
       </c>
       <c r="M26">
-        <v>-0.002168150168150168</v>
+        <v>-0.002334710334710335</v>
       </c>
       <c r="O26">
-        <v>-0.004765000765000765</v>
+        <v>-0.003614355614355615</v>
       </c>
       <c r="P26">
-        <v>-0.009147177147177148</v>
+        <v>-0.01034438234438234</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1604,40 +1604,40 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>0.0907059667059667</v>
+        <v>0.08307794307794308</v>
       </c>
       <c r="D27">
         <v>0.01847086247086247</v>
       </c>
       <c r="E27">
-        <v>0.2217726897726898</v>
+        <v>0.2217659577659578</v>
       </c>
       <c r="G27">
-        <v>0.04478686478686479</v>
+        <v>0.1032769272769273</v>
       </c>
       <c r="H27">
-        <v>-0.03718083718083719</v>
+        <v>-0.02576192576192576</v>
       </c>
       <c r="I27">
         <v>-0.01829105429105429</v>
       </c>
       <c r="J27">
-        <v>-0.02875294683920568</v>
+        <v>0.03587812220102531</v>
       </c>
       <c r="K27">
-        <v>0.0233951753951754</v>
+        <v>0.02256273456273456</v>
       </c>
       <c r="L27">
         <v>-0.02710221910221911</v>
       </c>
       <c r="M27">
-        <v>0.1499033699033699</v>
+        <v>0.1501183741183741</v>
       </c>
       <c r="O27">
-        <v>0.02132452532452533</v>
+        <v>0.02394129594129595</v>
       </c>
       <c r="P27">
-        <v>-0.1074758754758755</v>
+        <v>-0.1011058251058251</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1646,40 +1646,40 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.001832413832413832</v>
+        <v>0.0007617847617847618</v>
       </c>
       <c r="D28">
         <v>0.01018312618312618</v>
       </c>
       <c r="E28">
-        <v>0.02453709653709654</v>
+        <v>0.02452288852288852</v>
       </c>
       <c r="G28">
-        <v>0.05220686820686821</v>
+        <v>0.04825888825888826</v>
       </c>
       <c r="H28">
-        <v>-0.02646099846099846</v>
+        <v>-0.02604320604320605</v>
       </c>
       <c r="I28">
         <v>-0.02736665136665137</v>
       </c>
       <c r="J28">
-        <v>0.009327549355532004</v>
+        <v>-0.0003730743764320458</v>
       </c>
       <c r="K28">
-        <v>-0.01494882294882295</v>
+        <v>-0.01582153582153582</v>
       </c>
       <c r="L28">
         <v>0.03120660720660721</v>
       </c>
       <c r="M28">
-        <v>-0.007615351615351616</v>
+        <v>-0.007320931320931321</v>
       </c>
       <c r="O28">
-        <v>-0.01584819984819985</v>
+        <v>-0.009103857103857105</v>
       </c>
       <c r="P28">
-        <v>-0.004634200634200634</v>
+        <v>0.001345225345225345</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1690,40 +1690,40 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>-0.03926933126933127</v>
+        <v>-0.03808971808971809</v>
       </c>
       <c r="D29">
         <v>-0.04744479544479545</v>
       </c>
       <c r="E29">
-        <v>-0.0103954183954184</v>
+        <v>-0.01040397440397441</v>
       </c>
       <c r="G29">
-        <v>-0.05207158007158007</v>
+        <v>-0.04721116721116721</v>
       </c>
       <c r="H29">
-        <v>-0.005913089913089913</v>
+        <v>-0.007497427497427497</v>
       </c>
       <c r="I29">
         <v>-0.01078780678780679</v>
       </c>
       <c r="J29">
-        <v>-0.04129130941518334</v>
+        <v>-0.03961985197643065</v>
       </c>
       <c r="K29">
-        <v>-0.01378369378369378</v>
+        <v>-0.01579484779484779</v>
       </c>
       <c r="L29">
         <v>-0.004966024966024966</v>
       </c>
       <c r="M29">
-        <v>0.03044448644448644</v>
+        <v>0.03067398667398667</v>
       </c>
       <c r="O29">
-        <v>-0.0172012852012852</v>
+        <v>-0.01136114336114336</v>
       </c>
       <c r="P29">
-        <v>0.0470998070998071</v>
+        <v>0.04942366942366942</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1732,40 +1732,40 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>0.1998485478485479</v>
+        <v>0.178001086001086</v>
       </c>
       <c r="D30">
         <v>0.01479131079131079</v>
       </c>
       <c r="E30">
-        <v>0.6493874053874054</v>
+        <v>0.6493888933888935</v>
       </c>
       <c r="G30">
-        <v>0.7317209517209518</v>
+        <v>0.8035482355482355</v>
       </c>
       <c r="H30">
-        <v>0.04126468126468127</v>
+        <v>0.06387167187167186</v>
       </c>
       <c r="I30">
         <v>0.02691687891687892</v>
       </c>
       <c r="J30">
-        <v>0.008236670261380273</v>
+        <v>-0.1184643175304964</v>
       </c>
       <c r="K30">
-        <v>-0.1050474210474211</v>
+        <v>-0.09100887100887101</v>
       </c>
       <c r="L30">
         <v>0.06005434805434805</v>
       </c>
       <c r="M30">
-        <v>-0.9447509487509488</v>
+        <v>-0.9447311367311366</v>
       </c>
       <c r="O30">
-        <v>-0.259993975993976</v>
+        <v>-0.3275515235515236</v>
       </c>
       <c r="P30">
-        <v>-0.07096796296796298</v>
+        <v>-0.1112873072873073</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Element</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-lipidcane</t>
+    <t>biorefinery</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -82,16 +82,13 @@
     <t>Stream-natural gas</t>
   </si>
   <si>
-    <t>biorefinery</t>
-  </si>
-  <si>
     <t>Stream-crude glycerol</t>
   </si>
   <si>
     <t>Stream-pure glycerine</t>
   </si>
   <si>
-    <t>Stream-cellulase</t>
+    <t>cellulase</t>
   </si>
   <si>
     <t>Pretreatment reactor system</t>
@@ -103,76 +100,82 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>lipidcane</t>
+  </si>
+  <si>
+    <t>lipidsorghum</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse lipid extraction efficiency [%]</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
+    <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
+  </si>
+  <si>
+    <t>Electricity price [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Operating days [day/yr]</t>
+  </si>
+  <si>
+    <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
-    <t>Bagasse lipid extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>Capacity [ton/hr]</t>
-  </si>
-  <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
-  </si>
-  <si>
     <t>TAG to  FFA conversion [% lipid]</t>
-  </si>
-  <si>
-    <t>Price [USD/gal]</t>
-  </si>
-  <si>
-    <t>Price [USD/cf]</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kWh]</t>
-  </si>
-  <si>
-    <t>Operating days [day/yr]</t>
-  </si>
-  <si>
-    <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Price [USD/kg]</t>
-  </si>
-  <si>
-    <t>Cellulase loading [wt. % cellulose]</t>
-  </si>
-  <si>
-    <t>Base cost [million USD]</t>
-  </si>
-  <si>
-    <t>Cane glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Cane xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Glucose to ethanol yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -617,295 +620,303 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.2782906822906823</v>
+        <v>-0.03311141711141711</v>
       </c>
       <c r="D4">
-        <v>0.9906490746490749</v>
+        <v>-0.04030879630879631</v>
       </c>
       <c r="E4">
-        <v>-0.6954175074175075</v>
+        <v>-0.01146831546831547</v>
       </c>
       <c r="G4">
-        <v>-0.07030780630780631</v>
+        <v>-0.08507667707667708</v>
       </c>
       <c r="H4">
-        <v>0.181008685008685</v>
+        <v>0.03685632085632086</v>
       </c>
       <c r="I4">
-        <v>0.03146466746466747</v>
+        <v>0.01902651102651103</v>
       </c>
       <c r="J4">
-        <v>0.7123779347893363</v>
+        <v>0.03069837706675759</v>
       </c>
       <c r="K4">
-        <v>-0.02157780957780958</v>
+        <v>-0.04182116982116982</v>
       </c>
       <c r="L4">
-        <v>-0.02204633804633805</v>
+        <v>-0.3279477999477999</v>
       </c>
       <c r="M4">
-        <v>-0.005158661158661159</v>
+        <v>0.02331148731148731</v>
       </c>
       <c r="O4">
-        <v>0.1475082155082155</v>
+        <v>-0.04596015396015396</v>
       </c>
       <c r="P4">
-        <v>-0.05104981504981505</v>
+        <v>0.08853199653199653</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>-0.0478944598944599</v>
+        <v>0.07050917850917851</v>
       </c>
       <c r="D5">
-        <v>-0.01407033807033807</v>
+        <v>0.1173695253695254</v>
       </c>
       <c r="E5">
-        <v>-0.0002412242412242412</v>
+        <v>-0.0002886962886962887</v>
       </c>
       <c r="G5">
-        <v>-0.001615573615573616</v>
+        <v>0.1362683922683923</v>
       </c>
       <c r="H5">
-        <v>0.005742233742233742</v>
+        <v>0.04492126492126493</v>
       </c>
       <c r="I5">
-        <v>-0.006816534816534816</v>
+        <v>0.0271995391995392</v>
       </c>
       <c r="J5">
-        <v>0.002111756130761936</v>
+        <v>0.002025692050000355</v>
       </c>
       <c r="K5">
-        <v>-0.01770781770781771</v>
+        <v>0.1266463866463866</v>
       </c>
       <c r="L5">
-        <v>-0.03243014043014043</v>
+        <v>0.8490414690414692</v>
       </c>
       <c r="M5">
-        <v>-0.006426006426006427</v>
+        <v>0.003096111096111096</v>
       </c>
       <c r="O5">
-        <v>0.003475071475071476</v>
+        <v>0.1245007485007485</v>
       </c>
       <c r="P5">
-        <v>0.02478972078972079</v>
+        <v>0.04375636375636376</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0.02992904992904994</v>
+        <v>0.2783124983124984</v>
       </c>
       <c r="D6">
-        <v>-0.01526743526743527</v>
+        <v>-0.001492201492201492</v>
       </c>
       <c r="E6">
-        <v>-0.01400610200610201</v>
+        <v>-0.01701116901116901</v>
       </c>
       <c r="G6">
-        <v>-0.05361166161166162</v>
+        <v>-0.4955008835008836</v>
       </c>
       <c r="H6">
-        <v>0.03272784872784873</v>
+        <v>0.9553099993099994</v>
       </c>
       <c r="I6">
-        <v>0.03009468609468609</v>
+        <v>0.9576163776163775</v>
       </c>
       <c r="J6">
-        <v>0.04514364354993634</v>
+        <v>-0.1772459873729392</v>
       </c>
       <c r="K6">
-        <v>-0.07544327144327145</v>
+        <v>0.07855684255684256</v>
       </c>
       <c r="L6">
-        <v>-0.2927236607236607</v>
+        <v>0.03007709407709408</v>
       </c>
       <c r="M6">
-        <v>-0.01964897564897565</v>
+        <v>-0.007327423327423327</v>
       </c>
       <c r="O6">
-        <v>-0.06495332895332896</v>
+        <v>-0.1756159156159156</v>
       </c>
       <c r="P6">
-        <v>0.06211311811311811</v>
+        <v>0.1159153759153759</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0.0452978492978493</v>
+        <v>0.6637974277974278</v>
       </c>
       <c r="D7">
-        <v>0.104957492957493</v>
+        <v>0.02726603126603127</v>
       </c>
       <c r="E7">
-        <v>0.03918107118107118</v>
+        <v>-0.08774705174705176</v>
       </c>
       <c r="G7">
-        <v>0.2244919044919045</v>
+        <v>-0.08562644562644564</v>
       </c>
       <c r="H7">
-        <v>-0.05035520635520636</v>
+        <v>0.01341507741507742</v>
       </c>
       <c r="I7">
-        <v>-0.04742785142785143</v>
+        <v>0.01704668904668905</v>
       </c>
       <c r="J7">
-        <v>-0.01933492950894388</v>
+        <v>0.05513439779601057</v>
       </c>
       <c r="K7">
-        <v>0.1523373083373084</v>
+        <v>-0.3971854691854693</v>
       </c>
       <c r="L7">
-        <v>0.8574442374442375</v>
+        <v>-0.01523443523443524</v>
       </c>
       <c r="M7">
-        <v>-0.04996449796449796</v>
+        <v>0.07512296712296712</v>
       </c>
       <c r="O7">
-        <v>0.1722984522984523</v>
+        <v>-0.007449979449979451</v>
       </c>
       <c r="P7">
-        <v>-0.01130669930669931</v>
+        <v>0.02182209382209382</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.2532646092646093</v>
+        <v>0.3907684867684867</v>
       </c>
       <c r="D8">
-        <v>0.009708321708321709</v>
+        <v>-0.02794837594837595</v>
       </c>
       <c r="E8">
-        <v>0.0007865887865887866</v>
+        <v>0.03034043434043434</v>
       </c>
       <c r="G8">
-        <v>-0.4910637470637471</v>
+        <v>0.003337347337347338</v>
       </c>
       <c r="H8">
-        <v>0.9556848196848197</v>
+        <v>0.01673502473502474</v>
       </c>
       <c r="I8">
-        <v>0.9574888414888415</v>
+        <v>0.02262560262560263</v>
       </c>
       <c r="J8">
-        <v>-0.1510407684001353</v>
+        <v>-0.01608497827799802</v>
       </c>
       <c r="K8">
-        <v>0.003573255573255574</v>
+        <v>0.8968629448629448</v>
       </c>
       <c r="L8">
-        <v>-0.07664809664809666</v>
+        <v>0.01306203706203706</v>
       </c>
       <c r="M8">
-        <v>-0.0149022869022869</v>
+        <v>-0.01801480201480202</v>
       </c>
       <c r="O8">
-        <v>-0.1825549225549226</v>
+        <v>0.006314130314130314</v>
       </c>
       <c r="P8">
-        <v>0.009334413334413335</v>
+        <v>-0.0007716247716247717</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-0.005511305511305511</v>
+        <v>-0.0247008607008607</v>
       </c>
       <c r="D9">
-        <v>-0.02969009369009369</v>
+        <v>0.007188451188451188</v>
       </c>
       <c r="E9">
-        <v>-0.03076525876525877</v>
+        <v>0.01783998583998584</v>
       </c>
       <c r="G9">
-        <v>-0.1185184785184785</v>
+        <v>0.03350879750879751</v>
       </c>
       <c r="H9">
-        <v>0.02594694194694195</v>
+        <v>-0.02586628986628987</v>
       </c>
       <c r="I9">
-        <v>0.02799237999237999</v>
+        <v>-0.02031891231891232</v>
       </c>
       <c r="J9">
-        <v>0.01389039201540554</v>
+        <v>0.0173353795434041</v>
       </c>
       <c r="K9">
-        <v>0.003651459651459652</v>
+        <v>0.04441756441756442</v>
       </c>
       <c r="L9">
-        <v>-0.390932490932491</v>
+        <v>0.04154328554328555</v>
       </c>
       <c r="M9">
-        <v>0.1960662880662881</v>
+        <v>-0.02402432402432403</v>
       </c>
       <c r="O9">
-        <v>-0.03513415113415114</v>
+        <v>0.03395442995442996</v>
       </c>
       <c r="P9">
-        <v>-0.1557458637458637</v>
+        <v>-0.01034617034617035</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.01722806922806923</v>
+        <v>-0.04943539343539344</v>
       </c>
       <c r="D10">
-        <v>0.04107169707169708</v>
+        <v>-0.01960351960351961</v>
       </c>
       <c r="E10">
-        <v>-0.04243849843849844</v>
+        <v>-0.001076389076389077</v>
       </c>
       <c r="G10">
-        <v>0.01698610098610099</v>
+        <v>0.0122019482019482</v>
       </c>
       <c r="H10">
-        <v>-0.06282901482901483</v>
+        <v>-0.05627433227433227</v>
       </c>
       <c r="I10">
-        <v>-0.09330344130344131</v>
+        <v>-0.02584209784209784</v>
       </c>
       <c r="J10">
-        <v>0.05575779825961844</v>
+        <v>0.003547911590486529</v>
       </c>
       <c r="K10">
-        <v>0.001948909948909949</v>
+        <v>-0.06823875223875224</v>
       </c>
       <c r="L10">
-        <v>0.00544957744957745</v>
+        <v>-0.007570627570627572</v>
       </c>
       <c r="M10">
-        <v>0.0344965544965545</v>
+        <v>-0.01880604680604681</v>
       </c>
       <c r="O10">
-        <v>0.04112395712395712</v>
+        <v>-0.02177844977844978</v>
       </c>
       <c r="P10">
-        <v>-0.009720201720201721</v>
+        <v>0.01904355104355105</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -914,40 +925,40 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.02915690915690916</v>
+        <v>0.1671675831675832</v>
       </c>
       <c r="D11">
-        <v>-0.02201109401109401</v>
+        <v>0.03575924375924376</v>
       </c>
       <c r="E11">
-        <v>0.01777537777537778</v>
+        <v>-0.02323637923637924</v>
       </c>
       <c r="G11">
-        <v>0.01236777636777637</v>
+        <v>0.01987253587253587</v>
       </c>
       <c r="H11">
-        <v>-0.01695968895968896</v>
+        <v>-0.04383346383346384</v>
       </c>
       <c r="I11">
-        <v>-0.015003147003147</v>
+        <v>0.2350591510591511</v>
       </c>
       <c r="J11">
-        <v>-0.03252957282233898</v>
+        <v>0.0190249452532446</v>
       </c>
       <c r="K11">
-        <v>0.07667833667833668</v>
+        <v>-0.004185052185052185</v>
       </c>
       <c r="L11">
-        <v>0.09262899262899264</v>
+        <v>0.001194577194577195</v>
       </c>
       <c r="M11">
-        <v>0.0423966543966544</v>
+        <v>-0.008025836025836026</v>
       </c>
       <c r="O11">
-        <v>0.02480970080970081</v>
+        <v>0.01656151656151656</v>
       </c>
       <c r="P11">
-        <v>-0.02447443247443248</v>
+        <v>-0.01750698550698551</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -956,826 +967,832 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.006185190185190185</v>
+        <v>-0.2308322428322429</v>
       </c>
       <c r="D12">
-        <v>0.02010812010812011</v>
+        <v>0.02557045357045357</v>
       </c>
       <c r="E12">
-        <v>0.007432543432543434</v>
+        <v>-0.003373767373767374</v>
       </c>
       <c r="G12">
-        <v>0.06506888906888908</v>
+        <v>0.03543325143325144</v>
       </c>
       <c r="H12">
-        <v>-0.04822234822234822</v>
+        <v>-0.03075069075069076</v>
       </c>
       <c r="I12">
-        <v>-0.03115366315366316</v>
+        <v>-0.02596225396225397</v>
       </c>
       <c r="J12">
-        <v>-0.01117507127564692</v>
+        <v>0.0243971586899246</v>
       </c>
       <c r="K12">
-        <v>0.0434954714954715</v>
+        <v>-0.09172606372606373</v>
       </c>
       <c r="L12">
-        <v>0.06573475773475775</v>
+        <v>0.03146535146535147</v>
       </c>
       <c r="M12">
-        <v>-0.03035717435717436</v>
+        <v>0.01242626442626443</v>
       </c>
       <c r="O12">
-        <v>-0.05889907089907091</v>
+        <v>0.05923387123387124</v>
       </c>
       <c r="P12">
-        <v>0.04046947646947647</v>
+        <v>-0.04223716223716224</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.03698920898920899</v>
+        <v>0.04298538698538699</v>
       </c>
       <c r="D13">
-        <v>0.03835232635232635</v>
+        <v>0.006423306423306424</v>
       </c>
       <c r="E13">
-        <v>-0.01910550710550711</v>
+        <v>-0.0002362082362082362</v>
       </c>
       <c r="G13">
-        <v>-0.003719139719139719</v>
+        <v>-0.01323042123042123</v>
       </c>
       <c r="H13">
-        <v>0.02742783942783943</v>
+        <v>0.002605646605646605</v>
       </c>
       <c r="I13">
-        <v>0.01915155115155116</v>
+        <v>0.004987024987024987</v>
       </c>
       <c r="J13">
-        <v>0.0536329201156164</v>
+        <v>0.00933076544273463</v>
       </c>
       <c r="K13">
-        <v>0.001230769230769231</v>
+        <v>0.02983844983844984</v>
       </c>
       <c r="L13">
-        <v>0.02611011811011811</v>
+        <v>-0.0182938382938383</v>
       </c>
       <c r="M13">
-        <v>0.008255960255960256</v>
+        <v>0.0208946368946369</v>
       </c>
       <c r="O13">
-        <v>0.0004771564771564772</v>
+        <v>-0.04990726990726992</v>
       </c>
       <c r="P13">
-        <v>0.02423551223551224</v>
+        <v>0.05230794430794432</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>0.6659997779997781</v>
+        <v>-0.04357413157413158</v>
       </c>
       <c r="D14">
-        <v>-0.05544807144807145</v>
+        <v>0.00171021771021771</v>
       </c>
       <c r="E14">
-        <v>0.03042348642348642</v>
+        <v>-0.000159000159000159</v>
       </c>
       <c r="G14">
-        <v>-0.01466696666696667</v>
+        <v>-0.02988270588270589</v>
       </c>
       <c r="H14">
-        <v>-0.01092941892941893</v>
+        <v>0.03887958287958289</v>
       </c>
       <c r="I14">
-        <v>0.000481968481968482</v>
+        <v>0.02794845994845995</v>
       </c>
       <c r="J14">
-        <v>-0.01408341221016292</v>
+        <v>-0.05031289491664966</v>
       </c>
       <c r="K14">
-        <v>-0.3525187725187726</v>
+        <v>-0.01756432156432157</v>
       </c>
       <c r="L14">
-        <v>-0.04342744342744342</v>
+        <v>0.0323987243987244</v>
       </c>
       <c r="M14">
-        <v>0.01456134256134256</v>
+        <v>0.01293657693657694</v>
       </c>
       <c r="O14">
-        <v>-0.06652464652464653</v>
+        <v>-0.05254865254865256</v>
       </c>
       <c r="P14">
-        <v>0.0175006975006975</v>
+        <v>0.04998307398307399</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>-0.09391724191724192</v>
+      </c>
+      <c r="D15">
+        <v>-0.0283943203943204</v>
+      </c>
+      <c r="E15">
+        <v>0.03056506256506256</v>
+      </c>
+      <c r="G15">
+        <v>0.00726915126915127</v>
+      </c>
+      <c r="H15">
+        <v>-0.01345009345009345</v>
+      </c>
+      <c r="I15">
+        <v>0.01412559812559813</v>
+      </c>
+      <c r="J15">
+        <v>-0.04928958788106294</v>
+      </c>
+      <c r="K15">
+        <v>-0.1085826245826246</v>
+      </c>
+      <c r="L15">
+        <v>-0.01853795453795454</v>
+      </c>
+      <c r="M15">
+        <v>-0.01782403782403782</v>
+      </c>
+      <c r="O15">
+        <v>-0.002047814047814048</v>
+      </c>
+      <c r="P15">
+        <v>-0.01171485571485571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>0.3953519633519634</v>
-      </c>
-      <c r="D15">
-        <v>-0.01454819054819055</v>
-      </c>
-      <c r="E15">
-        <v>0.0184011784011784</v>
-      </c>
-      <c r="G15">
-        <v>0.0477970197970198</v>
-      </c>
-      <c r="H15">
-        <v>-0.05378892578892579</v>
-      </c>
-      <c r="I15">
-        <v>-0.06471343671343671</v>
-      </c>
-      <c r="J15">
-        <v>-0.03639350472104626</v>
-      </c>
-      <c r="K15">
-        <v>0.8964654564654565</v>
-      </c>
-      <c r="L15">
-        <v>0.03933108333108333</v>
-      </c>
-      <c r="M15">
-        <v>-0.01178237978237978</v>
-      </c>
-      <c r="O15">
-        <v>0.02083593283593283</v>
-      </c>
-      <c r="P15">
-        <v>-0.004912276912276912</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>-0.0911943071943072</v>
+        <v>0.005358209358209358</v>
       </c>
       <c r="D16">
-        <v>-0.01641125241125241</v>
+        <v>-0.0006294126294126295</v>
       </c>
       <c r="E16">
-        <v>0.0007065007065007066</v>
+        <v>-0.04166018966018967</v>
       </c>
       <c r="G16">
-        <v>-0.02887762087762088</v>
+        <v>-0.03176709176709177</v>
       </c>
       <c r="H16">
-        <v>-0.005217485217485218</v>
+        <v>-0.01531478731478731</v>
       </c>
       <c r="I16">
-        <v>-0.01223472023472024</v>
+        <v>-0.002670542670542671</v>
       </c>
       <c r="J16">
-        <v>-0.02023385041595507</v>
+        <v>-0.01886461909099452</v>
       </c>
       <c r="K16">
-        <v>0.01004882204882205</v>
+        <v>0.007191859191859193</v>
       </c>
       <c r="L16">
-        <v>-0.02218193818193819</v>
+        <v>0.006832614832614834</v>
       </c>
       <c r="M16">
-        <v>0.02427751227751228</v>
+        <v>0.04857600057600057</v>
       </c>
       <c r="O16">
-        <v>0.02023253623253624</v>
+        <v>0.04780832380832381</v>
       </c>
       <c r="P16">
-        <v>-0.02587748587748588</v>
+        <v>-0.03725700125700126</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>-0.05160063960063961</v>
+      </c>
+      <c r="D17">
+        <v>0.03853663453663454</v>
+      </c>
+      <c r="E17">
+        <v>0.001237345237345237</v>
+      </c>
+      <c r="G17">
+        <v>0.04480697680697681</v>
+      </c>
+      <c r="H17">
+        <v>0.2350919830919831</v>
+      </c>
+      <c r="I17">
+        <v>-0.009847689847689849</v>
+      </c>
+      <c r="J17">
+        <v>0.01440305057588718</v>
+      </c>
+      <c r="K17">
+        <v>-0.02035763635763636</v>
+      </c>
+      <c r="L17">
+        <v>0.04374468774468775</v>
+      </c>
+      <c r="M17">
+        <v>-0.04517031317031318</v>
+      </c>
+      <c r="O17">
+        <v>-0.009186585186585187</v>
+      </c>
+      <c r="P17">
+        <v>0.16595106995107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>-0.04457963657963658</v>
-      </c>
-      <c r="D17">
-        <v>0.002120762120762121</v>
-      </c>
-      <c r="E17">
-        <v>0.01701386901386901</v>
-      </c>
-      <c r="G17">
-        <v>0.02594954594954595</v>
-      </c>
-      <c r="H17">
-        <v>0.01282476082476083</v>
-      </c>
-      <c r="I17">
-        <v>0.002827226827226827</v>
-      </c>
-      <c r="J17">
-        <v>-0.003674427707497557</v>
-      </c>
-      <c r="K17">
-        <v>-0.05666526866526866</v>
-      </c>
-      <c r="L17">
-        <v>0.003948855948855949</v>
-      </c>
-      <c r="M17">
-        <v>-0.04236351036351036</v>
-      </c>
-      <c r="O17">
-        <v>-0.01831273831273832</v>
-      </c>
-      <c r="P17">
-        <v>0.09250352050352051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C18">
-        <v>0.1318166038166038</v>
+        <v>0.04758694758694759</v>
       </c>
       <c r="D18">
-        <v>0.05252010452010453</v>
+        <v>0.006574614574614575</v>
       </c>
       <c r="E18">
-        <v>-0.04310442710442711</v>
+        <v>0.1364310404310404</v>
       </c>
       <c r="G18">
-        <v>0.02312398712398712</v>
+        <v>0.129963273963274</v>
       </c>
       <c r="H18">
-        <v>-0.0124984804984805</v>
+        <v>0.03410755010755011</v>
       </c>
       <c r="I18">
-        <v>0.2669475509475509</v>
+        <v>0.01689010089010089</v>
       </c>
       <c r="J18">
-        <v>0.0476040180324542</v>
+        <v>-0.006383088459685521</v>
       </c>
       <c r="K18">
-        <v>-0.01424683424683425</v>
+        <v>-0.007225435225435226</v>
       </c>
       <c r="L18">
-        <v>0.02630627030627031</v>
+        <v>-0.03683547683547684</v>
       </c>
       <c r="M18">
-        <v>-0.02008298008298008</v>
+        <v>0.09844087444087445</v>
       </c>
       <c r="O18">
-        <v>0.01144307944307944</v>
+        <v>-0.009717393717393719</v>
       </c>
       <c r="P18">
-        <v>-0.01044595044595045</v>
+        <v>0.01698389298389298</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>-0.004886488886488886</v>
+      </c>
+      <c r="D19">
+        <v>-0.04409566409566409</v>
+      </c>
+      <c r="E19">
+        <v>0.01933573933573934</v>
+      </c>
+      <c r="G19">
+        <v>-0.0002209202209202209</v>
+      </c>
+      <c r="H19">
+        <v>-0.02115742515742516</v>
+      </c>
+      <c r="I19">
+        <v>-0.02482634482634483</v>
+      </c>
+      <c r="J19">
+        <v>-0.04515653769841615</v>
+      </c>
+      <c r="K19">
+        <v>-0.01573281973281973</v>
+      </c>
+      <c r="L19">
+        <v>-0.007575511575511577</v>
+      </c>
+      <c r="M19">
+        <v>-0.0002902442902442903</v>
+      </c>
+      <c r="O19">
+        <v>-0.04223479823479824</v>
+      </c>
+      <c r="P19">
+        <v>0.02945632145632146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>-0.244950664950665</v>
-      </c>
-      <c r="D19">
-        <v>0.0156023676023676</v>
-      </c>
-      <c r="E19">
-        <v>-0.0055999615999616</v>
-      </c>
-      <c r="G19">
-        <v>0.003962415962415962</v>
-      </c>
-      <c r="H19">
-        <v>-0.007306087306087306</v>
-      </c>
-      <c r="I19">
-        <v>-0.01395296595296595</v>
-      </c>
-      <c r="J19">
-        <v>0.03026217053453007</v>
-      </c>
-      <c r="K19">
-        <v>-0.08186506586506588</v>
-      </c>
-      <c r="L19">
-        <v>0.04557214557214558</v>
-      </c>
-      <c r="M19">
-        <v>-0.02861920061920062</v>
-      </c>
-      <c r="O19">
-        <v>0.02055209655209655</v>
-      </c>
-      <c r="P19">
-        <v>-0.02748950748950749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C20">
-        <v>0.0412993732993733</v>
+        <v>-0.0105989985989986</v>
       </c>
       <c r="D20">
-        <v>-0.00967818967818968</v>
+        <v>-0.03461879861879862</v>
       </c>
       <c r="E20">
-        <v>0.03594993594993595</v>
+        <v>0.2244788844788845</v>
       </c>
       <c r="G20">
-        <v>0.0202961842961843</v>
+        <v>0.08895857295857296</v>
       </c>
       <c r="H20">
-        <v>0.02324669924669925</v>
+        <v>-0.1185209025209025</v>
       </c>
       <c r="I20">
-        <v>0.007792087792087793</v>
+        <v>-0.08057872457872459</v>
       </c>
       <c r="J20">
-        <v>-0.03022795250000407</v>
+        <v>-0.007654765746622935</v>
       </c>
       <c r="K20">
-        <v>0.03832923832923833</v>
+        <v>0.07656896856896857</v>
       </c>
       <c r="L20">
-        <v>-0.0441939081939082</v>
+        <v>0.04410698010698011</v>
       </c>
       <c r="M20">
-        <v>-0.04199126999127</v>
+        <v>0.2284735324735325</v>
       </c>
       <c r="O20">
-        <v>-0.02741126741126742</v>
+        <v>0.06034873234873234</v>
       </c>
       <c r="P20">
-        <v>-0.004601644601644602</v>
+        <v>-0.09227792027792028</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.007621363621363623</v>
+        <v>-0.04254417054417055</v>
       </c>
       <c r="D21">
-        <v>0.01755649755649756</v>
+        <v>-0.05221400821400822</v>
       </c>
       <c r="E21">
-        <v>-0.01536728736728737</v>
+        <v>0.04504898104898106</v>
       </c>
       <c r="G21">
-        <v>0.007249051249051249</v>
+        <v>0.03125662325662325</v>
       </c>
       <c r="H21">
-        <v>0.002536586536586537</v>
+        <v>-0.02347738747738748</v>
       </c>
       <c r="I21">
-        <v>0.007805047805047806</v>
+        <v>-0.02576385776385776</v>
       </c>
       <c r="J21">
-        <v>0.02805089830335639</v>
+        <v>-0.003688413732674698</v>
       </c>
       <c r="K21">
-        <v>-0.01197862797862798</v>
+        <v>-0.009576393576393578</v>
       </c>
       <c r="L21">
-        <v>0.008723132723132724</v>
+        <v>-0.008653628653628655</v>
       </c>
       <c r="M21">
-        <v>-0.02687291087291088</v>
+        <v>-0.01494673494673495</v>
       </c>
       <c r="O21">
-        <v>-0.02404132804132804</v>
+        <v>-0.02770634770634771</v>
       </c>
       <c r="P21">
-        <v>0.03938562338562339</v>
+        <v>-0.009497793497793498</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-0.1105961785961786</v>
+        <v>0.03726048126048127</v>
       </c>
       <c r="D22">
-        <v>-0.01179406779406779</v>
+        <v>-0.003998307998307998</v>
       </c>
       <c r="E22">
-        <v>-0.01337174537174537</v>
+        <v>0.002595134595134595</v>
       </c>
       <c r="G22">
-        <v>-0.03720312120312121</v>
+        <v>-0.02557118557118557</v>
       </c>
       <c r="H22">
-        <v>0.02616809016809017</v>
+        <v>0.04951941751941753</v>
       </c>
       <c r="I22">
-        <v>0.02314093114093114</v>
+        <v>0.0384011424011424</v>
       </c>
       <c r="J22">
-        <v>0.002015966034109729</v>
+        <v>-0.01626829046350995</v>
       </c>
       <c r="K22">
-        <v>-0.05082686682686683</v>
+        <v>0.0146967506967507</v>
       </c>
       <c r="L22">
-        <v>-0.007108339108339109</v>
+        <v>-0.01335690135690136</v>
       </c>
       <c r="M22">
-        <v>0.03049075849075849</v>
+        <v>0.0009966369966369966</v>
       </c>
       <c r="O22">
-        <v>0.0452977532977533</v>
+        <v>-0.001610593610593611</v>
       </c>
       <c r="P22">
-        <v>-0.003334215334215334</v>
+        <v>0.004954180954180955</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>0.01186982386982387</v>
+        <v>0.0931997011997012</v>
       </c>
       <c r="D23">
-        <v>-0.02954870954870955</v>
+        <v>-0.002130998130998131</v>
       </c>
       <c r="E23">
-        <v>0.03114750714750715</v>
+        <v>0.6374910494910495</v>
       </c>
       <c r="G23">
-        <v>0.00298927498927499</v>
+        <v>0.8175914295914296</v>
       </c>
       <c r="H23">
-        <v>0.008298044298044299</v>
+        <v>0.03565865965865966</v>
       </c>
       <c r="I23">
-        <v>0.02651451851451852</v>
+        <v>-0.001917109917109917</v>
       </c>
       <c r="J23">
-        <v>0.002323754344668134</v>
+        <v>-0.01161352775289009</v>
       </c>
       <c r="K23">
-        <v>0.001912297912297912</v>
+        <v>-0.06623485823485822</v>
       </c>
       <c r="L23">
-        <v>-0.08436397236397238</v>
+        <v>0.02647143847143847</v>
       </c>
       <c r="M23">
-        <v>-0.01023235023235023</v>
+        <v>-0.96792421992422</v>
       </c>
       <c r="O23">
-        <v>-0.0004392724392724393</v>
+        <v>-0.3319313719313719</v>
       </c>
       <c r="P23">
-        <v>-0.05616602016602017</v>
+        <v>-0.06855200055200056</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>-0.0901950301950302</v>
+        <v>-0.02530746130746131</v>
       </c>
       <c r="D24">
-        <v>0.02714054714054714</v>
+        <v>-0.05744014544014545</v>
       </c>
       <c r="E24">
-        <v>-0.008319932319932321</v>
+        <v>-0.01192550392550393</v>
       </c>
       <c r="G24">
-        <v>0.0313006513006513</v>
+        <v>-0.07696668496668498</v>
       </c>
       <c r="H24">
-        <v>0.1864398664398664</v>
+        <v>-0.001317817317817318</v>
       </c>
       <c r="I24">
-        <v>-0.05307761307761308</v>
+        <v>-0.0100943620943621</v>
       </c>
       <c r="J24">
-        <v>0.005547605597534048</v>
+        <v>-0.01496262914218069</v>
       </c>
       <c r="K24">
-        <v>0.001211749211749212</v>
+        <v>-0.09324381324381324</v>
       </c>
       <c r="L24">
-        <v>0.04072717672717673</v>
+        <v>-0.3747991707991708</v>
       </c>
       <c r="M24">
-        <v>-0.0153991473991474</v>
+        <v>0.05692335292335293</v>
       </c>
       <c r="O24">
-        <v>0.02659359859359859</v>
+        <v>-0.04716391116391117</v>
       </c>
       <c r="P24">
-        <v>0.1966657846657847</v>
+        <v>-0.009220653220653222</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>0.03392758592758593</v>
+        <v>0.03798754998754999</v>
       </c>
       <c r="D25">
-        <v>-0.02148814548814549</v>
+        <v>0.05755187755187756</v>
       </c>
       <c r="E25">
-        <v>0.1526476886476887</v>
+        <v>-0.03441824241824242</v>
       </c>
       <c r="G25">
-        <v>0.1510708990708991</v>
+        <v>0.02350718350718351</v>
       </c>
       <c r="H25">
-        <v>-0.01275754875754876</v>
+        <v>-0.02691817491817492</v>
       </c>
       <c r="I25">
-        <v>-0.01765396165396165</v>
+        <v>-0.02873820473820474</v>
       </c>
       <c r="J25">
-        <v>-0.07223589088601391</v>
+        <v>0.01760659781787699</v>
       </c>
       <c r="K25">
-        <v>0.0195019395019395</v>
+        <v>-0.0251990531990532</v>
       </c>
       <c r="L25">
-        <v>0.04411342411342412</v>
+        <v>0.00300999900999901</v>
       </c>
       <c r="M25">
-        <v>0.09863037863037864</v>
+        <v>-0.02551042951042951</v>
       </c>
       <c r="O25">
-        <v>0.0623987423987424</v>
+        <v>7.174807174807175E-05</v>
       </c>
       <c r="P25">
-        <v>0.02816555216555217</v>
+        <v>0.0121026241026241</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.05214456414456415</v>
+        <v>-0.02384437184437185</v>
       </c>
       <c r="D26">
-        <v>0.03473577473577474</v>
+        <v>0.01248658848658849</v>
       </c>
       <c r="E26">
-        <v>-0.02895565695565695</v>
+        <v>0.01806523806523807</v>
       </c>
       <c r="G26">
-        <v>-0.007079011079011079</v>
+        <v>0.05401737001737002</v>
       </c>
       <c r="H26">
-        <v>0.005481893481893482</v>
+        <v>-0.03271272871272871</v>
       </c>
       <c r="I26">
-        <v>-0.0006616566616566617</v>
+        <v>-0.03225016425016425</v>
       </c>
       <c r="J26">
-        <v>0.005205299252146946</v>
+        <v>0.01610455629781097</v>
       </c>
       <c r="K26">
-        <v>-0.06442231642231643</v>
+        <v>0.01813659013659014</v>
       </c>
       <c r="L26">
-        <v>-0.0224981024981025</v>
+        <v>0.07296223296223296</v>
       </c>
       <c r="M26">
-        <v>-0.002334710334710335</v>
+        <v>-0.02118684918684919</v>
       </c>
       <c r="O26">
-        <v>-0.003614355614355615</v>
+        <v>-0.07020827820827821</v>
       </c>
       <c r="P26">
-        <v>-0.01034438234438234</v>
+        <v>0.06631847431847432</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>0.08307794307794308</v>
+        <v>0.01331598131598132</v>
       </c>
       <c r="D27">
-        <v>0.01847086247086247</v>
+        <v>0.02786385986385987</v>
       </c>
       <c r="E27">
-        <v>0.2217659577659578</v>
+        <v>-0.04172122172122172</v>
       </c>
       <c r="G27">
-        <v>0.1032769272769273</v>
+        <v>-0.04197808197808198</v>
       </c>
       <c r="H27">
-        <v>-0.02576192576192576</v>
+        <v>0.03017506217506218</v>
       </c>
       <c r="I27">
-        <v>-0.01829105429105429</v>
+        <v>0.03971495171495171</v>
       </c>
       <c r="J27">
-        <v>0.03587812220102531</v>
+        <v>0.07059009543717658</v>
       </c>
       <c r="K27">
-        <v>0.02256273456273456</v>
+        <v>-0.01011290211290211</v>
       </c>
       <c r="L27">
-        <v>-0.02710221910221911</v>
+        <v>-0.04267867867867868</v>
       </c>
       <c r="M27">
-        <v>0.1501183741183741</v>
+        <v>0.007349251349251349</v>
       </c>
       <c r="O27">
-        <v>0.02394129594129595</v>
+        <v>-0.02197556197556198</v>
       </c>
       <c r="P27">
-        <v>-0.1011058251058251</v>
+        <v>-0.006386670386670387</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>0.0007617847617847618</v>
+        <v>0.3270802350802351</v>
       </c>
       <c r="D28">
-        <v>0.01018312618312618</v>
+        <v>0.9908499428499429</v>
       </c>
       <c r="E28">
-        <v>0.02452288852288852</v>
+        <v>-0.7154289794289794</v>
       </c>
       <c r="G28">
-        <v>0.04825888825888826</v>
+        <v>-0.06871413271413272</v>
       </c>
       <c r="H28">
-        <v>-0.02604320604320605</v>
+        <v>0.1605760965760966</v>
       </c>
       <c r="I28">
-        <v>-0.02736665136665137</v>
+        <v>0.004126060126060127</v>
       </c>
       <c r="J28">
-        <v>-0.0003730743764320458</v>
+        <v>0.7171157097210983</v>
       </c>
       <c r="K28">
-        <v>-0.01582153582153582</v>
+        <v>-0.03155907155907156</v>
       </c>
       <c r="L28">
-        <v>0.03120660720660721</v>
+        <v>0.01381870981870982</v>
       </c>
       <c r="M28">
-        <v>-0.007320931320931321</v>
+        <v>-0.001853521853521854</v>
       </c>
       <c r="O28">
-        <v>-0.009103857103857105</v>
+        <v>0.1003974403974404</v>
       </c>
       <c r="P28">
-        <v>0.001345225345225345</v>
+        <v>-0.1870505110505111</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>-0.03808971808971809</v>
+        <v>-0.06894609294609295</v>
       </c>
       <c r="D29">
-        <v>-0.04744479544479545</v>
+        <v>-0.01694468894468894</v>
       </c>
       <c r="E29">
-        <v>-0.01040397440397441</v>
+        <v>-0.01837755037755038</v>
       </c>
       <c r="G29">
-        <v>-0.04721116721116721</v>
+        <v>-0.01102810702810703</v>
       </c>
       <c r="H29">
-        <v>-0.007497427497427497</v>
+        <v>-0.02096862896862897</v>
       </c>
       <c r="I29">
-        <v>-0.01078780678780679</v>
+        <v>-0.03041409041409042</v>
       </c>
       <c r="J29">
-        <v>-0.03961985197643065</v>
+        <v>0.006338598414661596</v>
       </c>
       <c r="K29">
-        <v>-0.01579484779484779</v>
+        <v>0.002467130467130467</v>
       </c>
       <c r="L29">
-        <v>-0.004966024966024966</v>
+        <v>-0.02581688581688582</v>
       </c>
       <c r="M29">
-        <v>0.03067398667398667</v>
+        <v>0.02288663888663889</v>
       </c>
       <c r="O29">
-        <v>-0.01136114336114336</v>
+        <v>-0.01294959694959695</v>
       </c>
       <c r="P29">
-        <v>0.04942366942366942</v>
+        <v>0.01903451503451504</v>
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>0.178001086001086</v>
+        <v>0.03825657825657825</v>
       </c>
       <c r="D30">
-        <v>0.01479131079131079</v>
+        <v>0.0102991182991183</v>
       </c>
       <c r="E30">
-        <v>0.6493888933888935</v>
+        <v>0.01271584871584872</v>
       </c>
       <c r="G30">
-        <v>0.8035482355482355</v>
+        <v>0.01508753108753109</v>
       </c>
       <c r="H30">
-        <v>0.06387167187167186</v>
+        <v>0.02433768033768034</v>
       </c>
       <c r="I30">
-        <v>0.02691687891687892</v>
+        <v>0.01143314343314343</v>
       </c>
       <c r="J30">
-        <v>-0.1184643175304964</v>
+        <v>0.01375758792267898</v>
       </c>
       <c r="K30">
-        <v>-0.09100887100887101</v>
+        <v>-0.00666982266982267</v>
       </c>
       <c r="L30">
-        <v>0.06005434805434805</v>
+        <v>6.912006912006913E-06</v>
       </c>
       <c r="M30">
-        <v>-0.9447311367311366</v>
+        <v>-0.009175329175329176</v>
       </c>
       <c r="O30">
-        <v>-0.3275515235515236</v>
+        <v>-0.05352848952848954</v>
       </c>
       <c r="P30">
-        <v>-0.1112873072873073</v>
+        <v>0.02197930597930598</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Element</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Tau</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,40 +635,40 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>0.004011626502906626</v>
+        <v>-0.0610418877536755</v>
       </c>
       <c r="D4">
-        <v>-0.03216555954138988</v>
+        <v>-0.06488511129940445</v>
       </c>
       <c r="E4">
-        <v>-0.01568481242120311</v>
+        <v>-0.0001903840396153616</v>
       </c>
       <c r="G4">
-        <v>-0.07815334803833701</v>
+        <v>-0.08554002303760092</v>
       </c>
       <c r="H4">
-        <v>0.01348713637178409</v>
+        <v>0.03136953235878129</v>
       </c>
       <c r="I4">
-        <v>-0.0116191664047916</v>
+        <v>0.01824146540165861</v>
       </c>
       <c r="J4">
-        <v>0.05766863281853837</v>
+        <v>0.07448549893391854</v>
       </c>
       <c r="K4">
-        <v>-0.07608300702075176</v>
+        <v>-0.08375030207001206</v>
       </c>
       <c r="L4">
-        <v>-0.3765171596292899</v>
+        <v>-0.4251765481110618</v>
       </c>
       <c r="M4">
-        <v>-0.03814170503542626</v>
+        <v>0.001037792969511719</v>
       </c>
       <c r="O4">
-        <v>-0.2632111138027785</v>
+        <v>-0.3145264241330569</v>
       </c>
       <c r="P4">
-        <v>0.0888124632031158</v>
+        <v>0.1051504114380165</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -674,40 +677,40 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>0.06310331927582982</v>
+        <v>0.06604488321779532</v>
       </c>
       <c r="D5">
-        <v>0.1042633625658406</v>
+        <v>0.11647325064293</v>
       </c>
       <c r="E5">
-        <v>0.01546117436529359</v>
+        <v>-0.009288944627557784</v>
       </c>
       <c r="G5">
-        <v>0.1569498872374718</v>
+        <v>0.1411867711514708</v>
       </c>
       <c r="H5">
-        <v>-0.003945993986498496</v>
+        <v>0.02163609360144374</v>
       </c>
       <c r="I5">
-        <v>-0.001179184794796199</v>
+        <v>0.02099819306392772</v>
       </c>
       <c r="J5">
-        <v>0.001054643516429318</v>
+        <v>0.001214163026693735</v>
       </c>
       <c r="K5">
-        <v>0.1714220243555061</v>
+        <v>0.1202553800742152</v>
       </c>
       <c r="L5">
-        <v>0.821079124269781</v>
+        <v>0.8143662861426514</v>
       </c>
       <c r="M5">
-        <v>0.01033994058498514</v>
+        <v>0.004632632249305289</v>
       </c>
       <c r="O5">
-        <v>0.6302504820626205</v>
+        <v>0.6371036736441469</v>
       </c>
       <c r="P5">
-        <v>0.009353387338346834</v>
+        <v>0.02438483531139341</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -716,40 +719,40 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.2704630846157712</v>
+        <v>0.2903319814052792</v>
       </c>
       <c r="D6">
-        <v>-0.02610585352646338</v>
+        <v>0.02366573374662935</v>
       </c>
       <c r="E6">
-        <v>0.0184563436140859</v>
+        <v>-0.01874152452566098</v>
       </c>
       <c r="G6">
-        <v>-0.6430043732510933</v>
+        <v>-0.6280875420195016</v>
       </c>
       <c r="H6">
-        <v>0.9564801201200298</v>
+        <v>0.9529699076227962</v>
       </c>
       <c r="I6">
-        <v>0.9576270249067561</v>
+        <v>0.9586909151476365</v>
       </c>
       <c r="J6">
-        <v>-0.2824434353522728</v>
+        <v>-0.3001357887392694</v>
       </c>
       <c r="K6">
-        <v>0.000672112668028167</v>
+        <v>0.02707148469885939</v>
       </c>
       <c r="L6">
-        <v>0.004105841526460382</v>
+        <v>0.01803648552145942</v>
       </c>
       <c r="M6">
-        <v>-0.01703858375964594</v>
+        <v>0.01440385622415425</v>
       </c>
       <c r="O6">
-        <v>0.01089597422399356</v>
+        <v>0.002652248650089946</v>
       </c>
       <c r="P6">
-        <v>0.2958562939640735</v>
+        <v>0.2849493789819751</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -760,40 +763,40 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.7091450492862623</v>
+        <v>0.6748613446264538</v>
       </c>
       <c r="D7">
-        <v>-0.02820836355209089</v>
+        <v>-0.006386898111475922</v>
       </c>
       <c r="E7">
-        <v>0.01729061832265458</v>
+        <v>0.0006903100116124004</v>
       </c>
       <c r="G7">
-        <v>-0.01735165933791483</v>
+        <v>0.004017196288687851</v>
       </c>
       <c r="H7">
-        <v>0.01339549834887459</v>
+        <v>-0.003671186354847453</v>
       </c>
       <c r="I7">
-        <v>0.01047732411933103</v>
+        <v>0.002490160707606428</v>
       </c>
       <c r="J7">
-        <v>-0.01595476153057163</v>
+        <v>-0.007159443658921091</v>
       </c>
       <c r="K7">
-        <v>-0.4168572937143235</v>
+        <v>-0.3711455613738224</v>
       </c>
       <c r="L7">
-        <v>-0.02188988497247124</v>
+        <v>0.0001620474304818972</v>
       </c>
       <c r="M7">
-        <v>0.0003123075780768945</v>
+        <v>-0.008666111770644471</v>
       </c>
       <c r="O7">
-        <v>-0.01331837732959433</v>
+        <v>-0.004506304212252168</v>
       </c>
       <c r="P7">
-        <v>0.03604589551147387</v>
+        <v>0.001191260591650424</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -804,40 +807,40 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>0.4126715546678886</v>
+        <v>0.4313301698612067</v>
       </c>
       <c r="D8">
-        <v>0.04119904779976195</v>
+        <v>-0.005060057290402291</v>
       </c>
       <c r="E8">
-        <v>-0.03309846677461669</v>
+        <v>0.007048552505942099</v>
       </c>
       <c r="G8">
-        <v>-0.01421732005433001</v>
+        <v>-0.01034912239796489</v>
       </c>
       <c r="H8">
-        <v>0.008252465063116264</v>
+        <v>0.01352103068484123</v>
       </c>
       <c r="I8">
-        <v>-0.003575954393988598</v>
+        <v>0.01808262331530493</v>
       </c>
       <c r="J8">
-        <v>0.04036444694706841</v>
+        <v>-0.009018935320558585</v>
       </c>
       <c r="K8">
-        <v>0.8710847207711802</v>
+        <v>0.8810447030497879</v>
       </c>
       <c r="L8">
-        <v>0.01325603131400783</v>
+        <v>-0.01498081336723253</v>
       </c>
       <c r="M8">
-        <v>-0.02583894645973661</v>
+        <v>0.01968324942732998</v>
       </c>
       <c r="O8">
-        <v>0.02089440672360168</v>
+        <v>-0.005209792432391697</v>
       </c>
       <c r="P8">
-        <v>-0.03805694301423575</v>
+        <v>-0.0104746424989857</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -848,40 +851,40 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.05623198555799638</v>
+        <v>-0.03352700457308018</v>
       </c>
       <c r="D9">
-        <v>0.002820351705087926</v>
+        <v>0.01165786049831442</v>
       </c>
       <c r="E9">
-        <v>0.003484434871108718</v>
+        <v>-0.01420041647201666</v>
       </c>
       <c r="G9">
-        <v>-0.00392125148031287</v>
+        <v>0.01230446401217856</v>
       </c>
       <c r="H9">
-        <v>-0.001064092766023191</v>
+        <v>-0.01764615276984611</v>
       </c>
       <c r="I9">
-        <v>5.008951252237813E-05</v>
+        <v>-0.01663979480959179</v>
       </c>
       <c r="J9">
-        <v>0.004704348438436024</v>
+        <v>0.02055629015426622</v>
       </c>
       <c r="K9">
-        <v>0.02058746014686504</v>
+        <v>0.0223874851514994</v>
       </c>
       <c r="L9">
-        <v>0.005496628374157093</v>
+        <v>-0.004681814971272598</v>
       </c>
       <c r="M9">
-        <v>0.007597288899322225</v>
+        <v>-0.01068944653957786</v>
       </c>
       <c r="O9">
-        <v>0.01724646431161608</v>
+        <v>-0.01134386560575462</v>
       </c>
       <c r="P9">
-        <v>-0.01761662690415672</v>
+        <v>0.006255582682223306</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -892,40 +895,40 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.03428242457060614</v>
+        <v>0.01352794287711771</v>
       </c>
       <c r="D10">
-        <v>0.01553151688287922</v>
+        <v>-0.003475684075027363</v>
       </c>
       <c r="E10">
-        <v>-0.001391851847962962</v>
+        <v>-0.003703390228135609</v>
       </c>
       <c r="G10">
-        <v>-0.02612826503206626</v>
+        <v>-0.0150195700087828</v>
       </c>
       <c r="H10">
-        <v>0.0614637423659356</v>
+        <v>0.01100110786404431</v>
       </c>
       <c r="I10">
-        <v>0.05932141033035258</v>
+        <v>0.01400157377606295</v>
       </c>
       <c r="J10">
-        <v>-0.001290719576068033</v>
+        <v>-0.007816076726336834</v>
       </c>
       <c r="K10">
-        <v>0.02160866490216622</v>
+        <v>0.009167964558718582</v>
       </c>
       <c r="L10">
-        <v>-0.005181895295473824</v>
+        <v>0.007920219292808771</v>
       </c>
       <c r="M10">
-        <v>-0.01014192253548063</v>
+        <v>-0.00790390678015627</v>
       </c>
       <c r="O10">
-        <v>-0.008880476220119055</v>
+        <v>0.009563148382525933</v>
       </c>
       <c r="P10">
-        <v>-0.01614515203628801</v>
+        <v>0.004089587011583479</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -934,40 +937,40 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1121715985428996</v>
+        <v>0.1641774492870979</v>
       </c>
       <c r="D11">
-        <v>0.01142238585559646</v>
+        <v>-0.01802867371314695</v>
       </c>
       <c r="E11">
-        <v>-0.01793809948452487</v>
+        <v>0.02397772636710905</v>
       </c>
       <c r="G11">
-        <v>0.02416405204101301</v>
+        <v>0.01306634375465375</v>
       </c>
       <c r="H11">
-        <v>-0.02398517249629312</v>
+        <v>0.004212214536488581</v>
       </c>
       <c r="I11">
-        <v>0.2622912295728074</v>
+        <v>0.2833745995269839</v>
       </c>
       <c r="J11">
-        <v>0.01094980401619424</v>
+        <v>-0.02140591198173964</v>
       </c>
       <c r="K11">
-        <v>0.0001816725454181363</v>
+        <v>0.01774895322195812</v>
       </c>
       <c r="L11">
-        <v>0.004004678501169624</v>
+        <v>-0.005743942693757707</v>
       </c>
       <c r="M11">
-        <v>-0.04670003367500842</v>
+        <v>0.01435307961412318</v>
       </c>
       <c r="O11">
-        <v>-0.04150013837503459</v>
+        <v>-0.006021515280860611</v>
       </c>
       <c r="P11">
-        <v>-0.03786303346575837</v>
+        <v>0.002324703740988149</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -976,40 +979,40 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.2354069493517373</v>
+        <v>-0.2273772428870897</v>
       </c>
       <c r="D12">
-        <v>0.02366565141641285</v>
+        <v>0.009222126704885068</v>
       </c>
       <c r="E12">
-        <v>-0.02602369100592275</v>
+        <v>-0.000746520605860824</v>
       </c>
       <c r="G12">
-        <v>-0.00263344415836104</v>
+        <v>-0.006353730398149215</v>
       </c>
       <c r="H12">
-        <v>-0.01459375714843929</v>
+        <v>0.01627460772298431</v>
       </c>
       <c r="I12">
-        <v>-0.009278277819569454</v>
+        <v>0.01842430374497215</v>
       </c>
       <c r="J12">
-        <v>0.02310283708635422</v>
+        <v>-0.0004685270595619417</v>
       </c>
       <c r="K12">
-        <v>-0.0427930291982573</v>
+        <v>-0.01210385616415424</v>
       </c>
       <c r="L12">
-        <v>-0.02321892430473108</v>
+        <v>-0.007395348871813953</v>
       </c>
       <c r="M12">
-        <v>-0.02751752937938234</v>
+        <v>0.02197506817500272</v>
       </c>
       <c r="O12">
-        <v>-0.02674445618611404</v>
+        <v>-0.000311712300468492</v>
       </c>
       <c r="P12">
-        <v>0.007654171913542979</v>
+        <v>-0.01137705703108228</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1020,40 +1023,40 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>0.0252539748134937</v>
+        <v>0.03216449648657985</v>
       </c>
       <c r="D13">
-        <v>-0.0009820622455155611</v>
+        <v>-0.004174820902992836</v>
       </c>
       <c r="E13">
-        <v>0.004668907167226791</v>
+        <v>-0.003550633870025354</v>
       </c>
       <c r="G13">
-        <v>0.009937049484262371</v>
+        <v>-0.01083853665754147</v>
       </c>
       <c r="H13">
-        <v>-0.003132000783000196</v>
+        <v>-0.003222139040885561</v>
       </c>
       <c r="I13">
-        <v>-0.002487198621799656</v>
+        <v>-0.004886959587478383</v>
       </c>
       <c r="J13">
-        <v>-0.00830845034892227</v>
+        <v>0.008333707067948936</v>
       </c>
       <c r="K13">
-        <v>0.005861498965374741</v>
+        <v>0.025682775139311</v>
       </c>
       <c r="L13">
-        <v>-0.03017965654491414</v>
+        <v>-0.01401284552051382</v>
       </c>
       <c r="M13">
-        <v>0.002915658728914682</v>
+        <v>-0.01194207138968285</v>
       </c>
       <c r="O13">
-        <v>-0.01011102702775676</v>
+        <v>-0.01093090738123629</v>
       </c>
       <c r="P13">
-        <v>0.009906164476541119</v>
+        <v>-0.002115193140607726</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1064,256 +1067,258 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.009479211869802967</v>
+        <v>-0.02609007656360306</v>
       </c>
       <c r="D14">
-        <v>-0.009263252315813078</v>
+        <v>0.009650533826021351</v>
       </c>
       <c r="E14">
-        <v>0.02716556629139157</v>
+        <v>-0.008624896568995863</v>
       </c>
       <c r="G14">
-        <v>0.01218688054672014</v>
+        <v>0.006095562483822498</v>
       </c>
       <c r="H14">
-        <v>0.02392341748085437</v>
+        <v>-0.001855450826218033</v>
       </c>
       <c r="I14">
-        <v>0.008973687743421936</v>
+        <v>-0.009954696590187863</v>
       </c>
       <c r="J14">
-        <v>0.001921814735498448</v>
+        <v>-0.006927885985253095</v>
       </c>
       <c r="K14">
-        <v>-0.04503329625832406</v>
+        <v>-0.05711800798072031</v>
       </c>
       <c r="L14">
-        <v>0.01001893750473438</v>
+        <v>0.01021688392867535</v>
       </c>
       <c r="M14">
-        <v>0.03260161865040466</v>
+        <v>0.01109525324381013</v>
       </c>
       <c r="O14">
-        <v>0.03189794747448687</v>
+        <v>0.003073361882934475</v>
       </c>
       <c r="P14">
-        <v>0.03099938274984569</v>
+        <v>-0.01181965535278621</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>-0.008952037990081518</v>
+      </c>
+      <c r="D15">
+        <v>-0.01424287573771503</v>
+      </c>
+      <c r="E15">
+        <v>0.02365328888213155</v>
+      </c>
+      <c r="G15">
+        <v>0.02714924038196961</v>
+      </c>
+      <c r="H15">
+        <v>-0.01596155689446228</v>
+      </c>
+      <c r="I15">
+        <v>-0.007891635675665427</v>
+      </c>
+      <c r="J15">
+        <v>-0.02230828744341561</v>
+      </c>
+      <c r="K15">
+        <v>0.01486190622647625</v>
+      </c>
+      <c r="L15">
+        <v>0.01405654078626163</v>
+      </c>
+      <c r="M15">
+        <v>0.02891171453246858</v>
+      </c>
+      <c r="O15">
+        <v>0.009163799886551995</v>
+      </c>
+      <c r="P15">
+        <v>0.01997841276713651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>-0.06626756556689138</v>
-      </c>
-      <c r="D15">
-        <v>-0.009471561867890466</v>
-      </c>
-      <c r="E15">
-        <v>0.01826224956556239</v>
-      </c>
-      <c r="G15">
-        <v>-0.004677208169302042</v>
-      </c>
-      <c r="H15">
-        <v>0.02330457132614283</v>
-      </c>
-      <c r="I15">
-        <v>0.03034157858539465</v>
-      </c>
-      <c r="J15">
-        <v>-0.01932322538152981</v>
-      </c>
-      <c r="K15">
-        <v>-0.01811837402959351</v>
-      </c>
-      <c r="L15">
-        <v>0.009766677941669485</v>
-      </c>
-      <c r="M15">
-        <v>0.004252507063126765</v>
-      </c>
-      <c r="O15">
-        <v>0.0159898419974605</v>
-      </c>
-      <c r="P15">
-        <v>0.03200889500222375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>0.01802055300513825</v>
+        <v>-0.08001631222465247</v>
       </c>
       <c r="D16">
-        <v>0.003016263754065938</v>
+        <v>0.008926068933042756</v>
       </c>
       <c r="E16">
-        <v>-0.01369543392385848</v>
+        <v>0.0002106144084245763</v>
       </c>
       <c r="G16">
-        <v>0.01770868342717086</v>
+        <v>-0.005076945227077808</v>
       </c>
       <c r="H16">
-        <v>-0.02308483777120944</v>
+        <v>0.008345186733807467</v>
       </c>
       <c r="I16">
-        <v>-0.01607945951986488</v>
+        <v>0.008304946412197856</v>
       </c>
       <c r="J16">
-        <v>0.01055603516671838</v>
+        <v>0.003755077884782011</v>
       </c>
       <c r="K16">
-        <v>0.03328436932109233</v>
+        <v>-0.05117793651111745</v>
       </c>
       <c r="L16">
-        <v>-0.005251376812844203</v>
+        <v>0.004666093914643755</v>
       </c>
       <c r="M16">
-        <v>-0.004219258054814513</v>
+        <v>-0.009273558130942324</v>
       </c>
       <c r="O16">
-        <v>-0.02023601155900289</v>
+        <v>0.002547705413908216</v>
       </c>
       <c r="P16">
-        <v>0.001069030767257692</v>
+        <v>0.0102932725717309</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.06117421529355382</v>
+        <v>0.003285232547409301</v>
       </c>
       <c r="D17">
-        <v>-0.000398805099701275</v>
+        <v>-0.0006585232583409303</v>
       </c>
       <c r="E17">
-        <v>0.003724331431082857</v>
+        <v>-0.003419059720762388</v>
       </c>
       <c r="G17">
-        <v>-0.007731843432960859</v>
+        <v>-0.01500993189639727</v>
       </c>
       <c r="H17">
-        <v>0.2480483345120836</v>
+        <v>0.01042300928092037</v>
       </c>
       <c r="I17">
-        <v>0.001017133754283439</v>
+        <v>0.005896156363846254</v>
       </c>
       <c r="J17">
-        <v>-0.005745038951340465</v>
+        <v>0.01207152684001039</v>
       </c>
       <c r="K17">
-        <v>-0.02165573341393335</v>
+        <v>-0.002717655180706207</v>
       </c>
       <c r="L17">
-        <v>-0.01593864248466062</v>
+        <v>-0.01555116494204659</v>
       </c>
       <c r="M17">
-        <v>0.07054873313718328</v>
+        <v>-0.0009367078454683137</v>
       </c>
       <c r="O17">
-        <v>0.01453046313261578</v>
+        <v>-0.004000354240014169</v>
       </c>
       <c r="P17">
-        <v>0.3267165036791259</v>
+        <v>0.01116205302248212</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.0613215588303897</v>
+        <v>-0.06276087572643503</v>
       </c>
       <c r="D18">
-        <v>0.002680538170134542</v>
+        <v>-0.01771485642059425</v>
       </c>
       <c r="E18">
-        <v>0.1726836851709213</v>
+        <v>0.01483636139345445</v>
       </c>
       <c r="G18">
-        <v>0.1569133217283304</v>
+        <v>-8.756736350269452E-05</v>
       </c>
       <c r="H18">
-        <v>0.03582683995670999</v>
+        <v>0.2584374499854979</v>
       </c>
       <c r="I18">
-        <v>0.009544404886101221</v>
+        <v>-0.0002337880413515216</v>
       </c>
       <c r="J18">
-        <v>-0.03892202183267576</v>
+        <v>-0.01472685095087548</v>
       </c>
       <c r="K18">
-        <v>0.03899370674842668</v>
+        <v>-0.02662087143283486</v>
       </c>
       <c r="L18">
-        <v>0.02782036595509148</v>
+        <v>-0.01846346349053854</v>
       </c>
       <c r="M18">
-        <v>0.4386660931665233</v>
+        <v>0.01083112065724483</v>
       </c>
       <c r="O18">
-        <v>0.1909680867420217</v>
+        <v>-0.00731071978042879</v>
       </c>
       <c r="P18">
-        <v>0.04835951258987815</v>
+        <v>0.3510301559292062</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.008151264537816134</v>
+        <v>0.04839532868781314</v>
       </c>
       <c r="D19">
-        <v>0.01040770610192653</v>
+        <v>0.009266689138667563</v>
       </c>
       <c r="E19">
-        <v>-0.01044529461132365</v>
+        <v>0.1517042732361709</v>
       </c>
       <c r="G19">
-        <v>0.001250811312702828</v>
+        <v>0.1474615901224636</v>
       </c>
       <c r="H19">
-        <v>0.002602014650503662</v>
+        <v>0.01868966484358659</v>
       </c>
       <c r="I19">
-        <v>-0.006618253654563414</v>
+        <v>0.002855128434205137</v>
       </c>
       <c r="J19">
-        <v>0.0078837957416439</v>
+        <v>-0.08264905146676318</v>
       </c>
       <c r="K19">
-        <v>-0.04429559457389864</v>
+        <v>0.02386225823449033</v>
       </c>
       <c r="L19">
-        <v>-0.03436426009106502</v>
+        <v>0.007774178806967151</v>
       </c>
       <c r="M19">
-        <v>0.005273966818491705</v>
+        <v>0.3674882897395316</v>
       </c>
       <c r="O19">
-        <v>-0.0343978555994639</v>
+        <v>0.1531714492628579</v>
       </c>
       <c r="P19">
-        <v>0.006270489067622266</v>
+        <v>0.04104606519384261</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1322,40 +1327,40 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.01644501111125278</v>
+        <v>-0.003428648297145931</v>
       </c>
       <c r="D20">
-        <v>-0.03095039873759968</v>
+        <v>0.02499131130365245</v>
       </c>
       <c r="E20">
-        <v>0.2489280637320159</v>
+        <v>-0.01328852539554101</v>
       </c>
       <c r="G20">
-        <v>0.2627266931816733</v>
+        <v>0.009923608620944343</v>
       </c>
       <c r="H20">
-        <v>-0.005095444273861069</v>
+        <v>-0.01049030345961214</v>
       </c>
       <c r="I20">
-        <v>-0.03183967695991924</v>
+        <v>-0.002025990033039601</v>
       </c>
       <c r="J20">
-        <v>-0.09354584888202008</v>
+        <v>0.01629004733614205</v>
       </c>
       <c r="K20">
-        <v>-0.003080003270000818</v>
+        <v>-0.0007599658863986353</v>
       </c>
       <c r="L20">
-        <v>-0.002352501588125397</v>
+        <v>0.02045780549031222</v>
       </c>
       <c r="M20">
-        <v>0.5610194377548594</v>
+        <v>-0.004900496548019861</v>
       </c>
       <c r="O20">
-        <v>0.2036102819025705</v>
+        <v>0.01911113394844535</v>
       </c>
       <c r="P20">
-        <v>0.05960360690090172</v>
+        <v>-0.01272080297283212</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1364,520 +1369,562 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.0104352656088164</v>
+        <v>0.01870117630004705</v>
       </c>
       <c r="D21">
-        <v>0.03065148316287079</v>
+        <v>-0.00965432429017297</v>
       </c>
       <c r="E21">
-        <v>-0.03540488685122171</v>
+        <v>0.1952704638108185</v>
       </c>
       <c r="G21">
-        <v>-0.01573878093469524</v>
+        <v>0.2068513879860555</v>
       </c>
       <c r="H21">
-        <v>-0.02498133774533443</v>
+        <v>0.01747644453905778</v>
       </c>
       <c r="I21">
-        <v>-0.03873141518285379</v>
+        <v>0.003557287150291486</v>
       </c>
       <c r="J21">
-        <v>0.04553223325258043</v>
+        <v>-0.1546324573682143</v>
       </c>
       <c r="K21">
-        <v>-0.01653765113441278</v>
+        <v>0.01625828945033158</v>
       </c>
       <c r="L21">
-        <v>-0.009499956874989219</v>
+        <v>-0.005974866286994651</v>
       </c>
       <c r="M21">
-        <v>0.01659373614843404</v>
+        <v>0.4156270194410808</v>
       </c>
       <c r="O21">
-        <v>0.01103552525888131</v>
+        <v>0.1720619098264764</v>
       </c>
       <c r="P21">
-        <v>-0.003327509331877333</v>
+        <v>0.05978712891948515</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22">
-        <v>0.02471149817787454</v>
+        <v>-0.03461384173655366</v>
       </c>
       <c r="D22">
-        <v>-0.006622357655589414</v>
+        <v>-0.006513211844528473</v>
       </c>
       <c r="E22">
-        <v>0.1279213504803376</v>
+        <v>-0.006737044973481798</v>
       </c>
       <c r="G22">
-        <v>0.1079103524775881</v>
+        <v>-0.01767944691517787</v>
       </c>
       <c r="H22">
-        <v>-0.0006312826578206644</v>
+        <v>-0.006441858017674319</v>
       </c>
       <c r="I22">
-        <v>0.004501625625406406</v>
+        <v>-0.01086924197076968</v>
       </c>
       <c r="J22">
-        <v>0.01675776498343038</v>
+        <v>0.01037325945710433</v>
       </c>
       <c r="K22">
-        <v>0.001905360476340119</v>
+        <v>-0.009896598251863929</v>
       </c>
       <c r="L22">
-        <v>-0.0183863295965824</v>
+        <v>-0.009255114610204581</v>
       </c>
       <c r="M22">
-        <v>-0.5670057652514413</v>
+        <v>0.01187229973889199</v>
       </c>
       <c r="O22">
-        <v>-0.2267465861866466</v>
+        <v>0.01799561649582465</v>
       </c>
       <c r="P22">
-        <v>-0.09744966936241733</v>
+        <v>0.004756947166277886</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23">
-        <v>0.01162198940549735</v>
+        <v>0.01920694416027776</v>
       </c>
       <c r="D23">
-        <v>-0.009236285309071326</v>
+        <v>0.001448501721940069</v>
       </c>
       <c r="E23">
-        <v>0.162327936081984</v>
+        <v>0.1224915112356604</v>
       </c>
       <c r="G23">
-        <v>0.1445168341292085</v>
+        <v>0.1159427090217083</v>
       </c>
       <c r="H23">
-        <v>0.002020572505143126</v>
+        <v>-0.004941196133647845</v>
       </c>
       <c r="I23">
-        <v>-0.02827631506907876</v>
+        <v>-0.01179095739963829</v>
       </c>
       <c r="J23">
-        <v>0.00742164187489228</v>
+        <v>0.01239869336567024</v>
       </c>
       <c r="K23">
-        <v>0.02531581232895308</v>
+        <v>-0.03574474002178959</v>
       </c>
       <c r="L23">
-        <v>0.01507361476840369</v>
+        <v>-0.02230666927626676</v>
       </c>
       <c r="M23">
-        <v>0.425711711927928</v>
+        <v>-0.477142727693709</v>
       </c>
       <c r="O23">
-        <v>0.1441647465411866</v>
+        <v>-0.1932737338109493</v>
       </c>
       <c r="P23">
-        <v>0.07562321790580448</v>
+        <v>-0.05351377606055104</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.02884998721249681</v>
+        <v>0.06245234553809382</v>
       </c>
       <c r="D24">
-        <v>0.02906240976560244</v>
+        <v>0.007596720111868804</v>
       </c>
       <c r="E24">
-        <v>-0.02478561469640368</v>
+        <v>0.2663186296287451</v>
       </c>
       <c r="G24">
-        <v>0.513733203933301</v>
+        <v>0.2349527443101097</v>
       </c>
       <c r="H24">
-        <v>-0.0855815043953761</v>
+        <v>0.03906502668260106</v>
       </c>
       <c r="I24">
-        <v>-0.02136614634153658</v>
+        <v>0.01310478446019138</v>
       </c>
       <c r="J24">
-        <v>-0.2074442579056056</v>
+        <v>0.01667820376834836</v>
       </c>
       <c r="K24">
-        <v>0.007420599355149838</v>
+        <v>0.05017823615112944</v>
       </c>
       <c r="L24">
-        <v>0.0015956043989011</v>
+        <v>-0.002907089492283579</v>
       </c>
       <c r="M24">
-        <v>0.003275826818956704</v>
+        <v>0.6548010378080414</v>
       </c>
       <c r="O24">
-        <v>-0.4832935058233764</v>
+        <v>0.2313533461821338</v>
       </c>
       <c r="P24">
-        <v>0.02832194808048702</v>
+        <v>0.09856738455069536</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-0.002285948071487018</v>
+        <v>-0.02127565669102627</v>
       </c>
       <c r="D25">
-        <v>-0.003057969764492441</v>
+        <v>-0.0154497600419904</v>
       </c>
       <c r="E25">
-        <v>0.007391334347833586</v>
+        <v>0.00730378954015158</v>
       </c>
       <c r="G25">
-        <v>0.0188528132132033</v>
+        <v>0.4821322250772889</v>
       </c>
       <c r="H25">
-        <v>-0.098196344049086</v>
+        <v>-0.03423317906532716</v>
       </c>
       <c r="I25">
-        <v>-0.01063446565861641</v>
+        <v>0.01985316914612676</v>
       </c>
       <c r="J25">
-        <v>-0.001265765569764027</v>
+        <v>-0.2581075943285083</v>
       </c>
       <c r="K25">
-        <v>-0.02100854925213731</v>
+        <v>0.008199012807960511</v>
       </c>
       <c r="L25">
-        <v>0.02237852209463052</v>
+        <v>-0.01735530299821212</v>
       </c>
       <c r="M25">
-        <v>0.009799986949996736</v>
+        <v>-0.003915042876601714</v>
       </c>
       <c r="O25">
-        <v>0.005903222975805744</v>
+        <v>-0.5125934197997367</v>
       </c>
       <c r="P25">
-        <v>0.1435950328987582</v>
+        <v>0.03228625117945005</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.03814033253508313</v>
+        <v>0.04311811794872471</v>
       </c>
       <c r="D26">
-        <v>-0.0517854504463626</v>
+        <v>-0.00157844175913767</v>
       </c>
       <c r="E26">
-        <v>0.005271650817912705</v>
+        <v>0.012475625011025</v>
       </c>
       <c r="G26">
-        <v>-0.05590900097725025</v>
+        <v>0.0008871583074863322</v>
       </c>
       <c r="H26">
-        <v>-0.00978437644609411</v>
+        <v>-0.07723649598545983</v>
       </c>
       <c r="I26">
-        <v>0.001864071466017867</v>
+        <v>0.01161390555255622</v>
       </c>
       <c r="J26">
-        <v>-0.01484853750111178</v>
+        <v>-0.00203436387693876</v>
       </c>
       <c r="K26">
-        <v>-0.04458170164542541</v>
+        <v>-0.03164089144163566</v>
       </c>
       <c r="L26">
-        <v>-0.357126267781567</v>
+        <v>0.008426008561040341</v>
       </c>
       <c r="M26">
-        <v>0.05356410589102647</v>
+        <v>0.007918798684751946</v>
       </c>
       <c r="O26">
-        <v>-0.186621828155457</v>
+        <v>0.01150609956424398</v>
       </c>
       <c r="P26">
-        <v>-0.04355628038907009</v>
+        <v>0.1800530722581229</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.02092994023248506</v>
+        <v>-0.01741945615277824</v>
       </c>
       <c r="D27">
-        <v>-0.02778317794579449</v>
+        <v>-0.0560267352330694</v>
       </c>
       <c r="E27">
-        <v>0.01054973513743378</v>
+        <v>-0.00143096799323872</v>
       </c>
       <c r="G27">
-        <v>0.0006835606708901677</v>
+        <v>-0.05102980072919203</v>
       </c>
       <c r="H27">
-        <v>-0.01739273684818421</v>
+        <v>-0.02495033331801333</v>
       </c>
       <c r="I27">
-        <v>-0.02613039653259913</v>
+        <v>-0.02171890608475624</v>
       </c>
       <c r="J27">
-        <v>-0.01074066571336068</v>
+        <v>0.001028819898955288</v>
       </c>
       <c r="K27">
-        <v>-0.0272512808128202</v>
+        <v>-0.06306800767472029</v>
       </c>
       <c r="L27">
-        <v>-0.06421716255429064</v>
+        <v>-0.3457660124226405</v>
       </c>
       <c r="M27">
-        <v>-0.003405600851400213</v>
+        <v>0.02177784183111367</v>
       </c>
       <c r="O27">
-        <v>-0.04630342307585577</v>
+        <v>-0.2020073743842949</v>
       </c>
       <c r="P27">
-        <v>-0.002776107694026923</v>
+        <v>-0.02875521158220846</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>0.06929356432339107</v>
+        <v>-0.01067430023497201</v>
       </c>
       <c r="D28">
-        <v>0.02555516438879109</v>
+        <v>0.006767683566707343</v>
       </c>
       <c r="E28">
-        <v>-0.008071994017998504</v>
+        <v>-0.004268298218731928</v>
       </c>
       <c r="G28">
-        <v>0.009251202812800704</v>
+        <v>-0.03218956496758259</v>
       </c>
       <c r="H28">
-        <v>-0.00296059724014931</v>
+        <v>0.01501357202454288</v>
       </c>
       <c r="I28">
-        <v>-0.0048133692033423</v>
+        <v>0.008258534442341377</v>
       </c>
       <c r="J28">
-        <v>0.02290765928704743</v>
+        <v>0.0005614394634412205</v>
       </c>
       <c r="K28">
-        <v>-0.01610390802597701</v>
+        <v>0.0007470901738836068</v>
       </c>
       <c r="L28">
-        <v>-0.009272897318224329</v>
+        <v>0.007234033921361357</v>
       </c>
       <c r="M28">
-        <v>0.06786161896540474</v>
+        <v>0.007955995230239807</v>
       </c>
       <c r="O28">
-        <v>-0.009788369447092361</v>
+        <v>0.02486521395460856</v>
       </c>
       <c r="P28">
-        <v>-0.01663987315996829</v>
+        <v>0.0116063849122554</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.01632303108075777</v>
+        <v>0.003560487214419488</v>
       </c>
       <c r="D29">
-        <v>-0.0183726195931549</v>
+        <v>0.007566077678643105</v>
       </c>
       <c r="E29">
-        <v>0.01409493652373413</v>
+        <v>0.001463056282522251</v>
       </c>
       <c r="G29">
-        <v>-2.984550746137686E-05</v>
+        <v>0.00627097426683897</v>
       </c>
       <c r="H29">
-        <v>-0.0005779141444785361</v>
+        <v>-0.0074123375124935</v>
       </c>
       <c r="I29">
-        <v>0.003953183488295872</v>
+        <v>-0.008030489889219594</v>
       </c>
       <c r="J29">
-        <v>-0.01958990594889999</v>
+        <v>0.00510956435733453</v>
       </c>
       <c r="K29">
-        <v>0.007107709776927443</v>
+        <v>-0.01595594646223785</v>
       </c>
       <c r="L29">
-        <v>0.007512150378037594</v>
+        <v>0.05557000686280026</v>
       </c>
       <c r="M29">
-        <v>-0.01827037956759489</v>
+        <v>-0.02074905375796215</v>
       </c>
       <c r="O29">
-        <v>0.01068130617032654</v>
+        <v>0.007973820702952827</v>
       </c>
       <c r="P29">
-        <v>-0.01838184309546077</v>
+        <v>-0.005739454405578176</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C30">
-        <v>0.2839317259829315</v>
+        <v>0.007377911719116469</v>
       </c>
       <c r="D30">
-        <v>0.9888270657067665</v>
+        <v>0.006899200499968019</v>
       </c>
       <c r="E30">
-        <v>-0.9344066771016692</v>
+        <v>-0.004270442474817698</v>
       </c>
       <c r="G30">
-        <v>-0.3581274085318521</v>
+        <v>0.001882336587293463</v>
       </c>
       <c r="H30">
-        <v>0.07251550062887516</v>
+        <v>0.003578179535127181</v>
       </c>
       <c r="I30">
-        <v>-0.0253442508360627</v>
+        <v>0.003067340090693603</v>
       </c>
       <c r="J30">
-        <v>0.8694387493919641</v>
+        <v>-0.001752402073166291</v>
       </c>
       <c r="K30">
-        <v>0.0497303344325836</v>
+        <v>-0.009542885181715406</v>
       </c>
       <c r="L30">
-        <v>-0.01350767287691822</v>
+        <v>0.02296299336651973</v>
       </c>
       <c r="M30">
-        <v>-0.02212920253230063</v>
+        <v>-0.007704820628192824</v>
       </c>
       <c r="O30">
-        <v>0.02280643170160792</v>
+        <v>0.008783744415349777</v>
       </c>
       <c r="P30">
-        <v>-0.2332968523242131</v>
+        <v>0.0006098959923958396</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>0.01455868563967141</v>
+        <v>0.3294454616898184</v>
       </c>
       <c r="D31">
-        <v>-0.001241560810390202</v>
+        <v>0.9887612234864488</v>
       </c>
       <c r="E31">
-        <v>0.02571212742803185</v>
+        <v>-0.912113377156535</v>
       </c>
       <c r="G31">
-        <v>0.03322373630593408</v>
+        <v>-0.3735723486388939</v>
       </c>
       <c r="H31">
-        <v>0.005590949897737474</v>
+        <v>0.106266475034659</v>
       </c>
       <c r="I31">
-        <v>0.008552372138093034</v>
+        <v>0.01505436905017476</v>
       </c>
       <c r="J31">
-        <v>-0.01258373267896547</v>
+        <v>0.820319052937961</v>
       </c>
       <c r="K31">
-        <v>0.03082362470590617</v>
+        <v>0.01443907564956302</v>
       </c>
       <c r="L31">
-        <v>0.004107776526944132</v>
+        <v>0.00088813875552555</v>
       </c>
       <c r="M31">
-        <v>0.02545757586439397</v>
+        <v>0.0006224621048984842</v>
       </c>
       <c r="O31">
-        <v>-0.001309690827422707</v>
+        <v>0.02741695789667831</v>
       </c>
       <c r="P31">
-        <v>-0.003879272469818117</v>
+        <v>-0.225423350008934</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C32">
-        <v>-0.03861121565280391</v>
+        <v>0.01268042364321694</v>
       </c>
       <c r="D32">
-        <v>0.004118735529683882</v>
+        <v>0.007991471455658856</v>
       </c>
       <c r="E32">
-        <v>0.0009620717405179352</v>
+        <v>-0.006609381384375255</v>
       </c>
       <c r="G32">
-        <v>0.004099319524829881</v>
+        <v>-0.01058507197540288</v>
       </c>
       <c r="H32">
-        <v>0.005289976322494081</v>
+        <v>0.000716059804642392</v>
       </c>
       <c r="I32">
-        <v>0.009905729476432368</v>
+        <v>0.003754372374174894</v>
       </c>
       <c r="J32">
-        <v>0.01400039828685062</v>
+        <v>0.003041176494975201</v>
       </c>
       <c r="K32">
-        <v>-0.01246179461544865</v>
+        <v>-0.01374358710974348</v>
       </c>
       <c r="L32">
-        <v>0.002474871618717905</v>
+        <v>0.0009436004537440181</v>
       </c>
       <c r="M32">
-        <v>0.03588080097020024</v>
+        <v>-0.003717976372719054</v>
       </c>
       <c r="O32">
-        <v>0.001457323864330966</v>
+        <v>0.006225294201011767</v>
       </c>
       <c r="P32">
-        <v>0.02333036083259021</v>
+        <v>0.001011480616459225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>-0.004380333391213335</v>
+      </c>
+      <c r="D33">
+        <v>-0.0009036505321460211</v>
+      </c>
+      <c r="E33">
+        <v>-0.0008989232999569318</v>
+      </c>
+      <c r="G33">
+        <v>0.001302042772081711</v>
+      </c>
+      <c r="H33">
+        <v>-0.003800820536032821</v>
+      </c>
+      <c r="I33">
+        <v>-0.004608021976320879</v>
+      </c>
+      <c r="J33">
+        <v>0.001766354473748832</v>
+      </c>
+      <c r="K33">
+        <v>-0.01357750844710033</v>
+      </c>
+      <c r="L33">
+        <v>-0.02160162806406512</v>
+      </c>
+      <c r="M33">
+        <v>-0.002756122958244918</v>
+      </c>
+      <c r="O33">
+        <v>-0.02532066802082672</v>
+      </c>
+      <c r="P33">
+        <v>0.01116190067047602</v>
       </c>
     </row>
   </sheetData>
@@ -1885,10 +1932,10 @@
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
